--- a/data/output/combined-kpis.xlsx
+++ b/data/output/combined-kpis.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,21 +31,13 @@
       <b val="1"/>
     </font>
     <font>
-      <b val="1"/>
       <color rgb="00FFFFFF"/>
-      <sz val="16"/>
     </font>
     <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
+      <color rgb="00000000"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -54,18 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="004F81BD"/>
-        <bgColor rgb="004F81BD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009BBB59"/>
-        <bgColor rgb="009BBB59"/>
+        <fgColor rgb="00808080"/>
+        <bgColor rgb="00808080"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -78,6 +64,108 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border/>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+    </border>
+    <border>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+    </border>
+    <border>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -97,32 +185,44 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="10" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -198,6 +298,1539 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Usage Share by Gender</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201609'!$D$1:$F$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201609'!$D$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201609'!$D$1:$F$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201609'!$E$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201609'!$D$1:$F$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201609'!$F$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Usage Share by Age</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201609'!$G$1:$M$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201609'!$G$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201609'!$G$1:$M$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201609'!$H$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201609'!$G$1:$M$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201609'!$I$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201609'!$G$1:$M$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201609'!$J$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201609'!$G$1:$M$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201609'!$K$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201609'!$G$1:$M$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201609'!$L$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="6"/>
+          <order val="6"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201609'!$G$1:$M$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201609'!$M$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Sample Bar Chart for BV to BY</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201609'!$BV$1:$BY$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201609'!$BV$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201609'!$BV$1:$BY$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201609'!$BW$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201609'!$BV$1:$BY$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201609'!$BX$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201609'!$BV$1:$BY$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201609'!$BY$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Usage Share by Gender</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201503'!$D$1:$F$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201503'!$D$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201503'!$D$1:$F$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201503'!$E$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201503'!$D$1:$F$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201503'!$F$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Usage Share by Age</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201503'!$G$1:$M$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201503'!$G$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201503'!$G$1:$M$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201503'!$H$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201503'!$G$1:$M$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201503'!$I$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201503'!$G$1:$M$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201503'!$J$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201503'!$G$1:$M$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201503'!$K$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201503'!$G$1:$M$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201503'!$L$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="6"/>
+          <order val="6"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201503'!$G$1:$M$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201503'!$M$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Sample Bar Chart for BV to BY</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201503'!$BV$1:$BY$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201503'!$BV$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201503'!$BV$1:$BY$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201503'!$BW$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201503'!$BV$1:$BY$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201503'!$BX$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201503'!$BV$1:$BY$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201503'!$BY$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Usage Share by Gender</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201510'!$D$1:$F$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201510'!$D$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201510'!$D$1:$F$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201510'!$E$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201510'!$D$1:$F$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201510'!$F$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Usage Share by Age</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201510'!$G$1:$M$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201510'!$G$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201510'!$G$1:$M$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201510'!$H$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201510'!$G$1:$M$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201510'!$I$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201510'!$G$1:$M$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201510'!$J$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201510'!$G$1:$M$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201510'!$K$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201510'!$G$1:$M$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201510'!$L$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="6"/>
+          <order val="6"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201510'!$G$1:$M$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201510'!$M$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Sample Bar Chart for BV to BY</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201510'!$BV$1:$BY$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201510'!$BV$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201510'!$BV$1:$BY$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201510'!$BW$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201510'!$BV$1:$BY$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201510'!$BX$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'201510'!$BV$1:$BY$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'201510'!$BY$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>37</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="3600000" cy="4320000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>13</col>
+      <colOff>0</colOff>
+      <row>37</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="3600000" cy="4320000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>49</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="3600000" cy="4320000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>37</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="3600000" cy="4320000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>13</col>
+      <colOff>0</colOff>
+      <row>37</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="3600000" cy="4320000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>49</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="3600000" cy="4320000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>37</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="3600000" cy="4320000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>13</col>
+      <colOff>0</colOff>
+      <row>37</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="3600000" cy="4320000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>49</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="3600000" cy="4320000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -484,12 +2117,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BY17"/>
+  <dimension ref="A1:BY62"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,7 +2130,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row hidden="1" r="1">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>year_month</t>
@@ -884,7 +2517,7 @@
         </is>
       </c>
     </row>
-    <row hidden="1" r="2">
+    <row r="2">
       <c r="A2" t="inlineStr">
         <is>
           <t>201609</t>
@@ -1159,314 +2792,1759 @@
         <v>26.38</v>
       </c>
     </row>
-    <row r="3">
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>Hubway Dashboard</t>
-        </is>
-      </c>
-    </row>
-    <row r="4"/>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>hubway-data</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="n"/>
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="3" t="n"/>
+      <c r="M5" s="3" t="n"/>
+      <c r="N5" s="3" t="n"/>
+      <c r="O5" s="3" t="n"/>
+      <c r="P5" s="3" t="n"/>
+      <c r="Q5" s="3" t="n"/>
+      <c r="R5" s="3" t="n"/>
+      <c r="S5" s="3" t="n"/>
+      <c r="T5" s="3" t="n"/>
+      <c r="U5" s="3" t="n"/>
+      <c r="V5" s="3" t="n"/>
+      <c r="W5" s="3" t="n"/>
+      <c r="X5" s="3" t="n"/>
+      <c r="Y5" s="4" t="n"/>
+    </row>
     <row r="6">
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>Total Trips: 201609</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>Average Trip Duration: 15</t>
-        </is>
-      </c>
-      <c r="K6" s="3" t="inlineStr">
-        <is>
-          <t>Average Distance: 1.86467273097248</t>
-        </is>
-      </c>
-    </row>
-    <row r="7"/>
-    <row r="8"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="Y6" s="6" t="n"/>
+    </row>
+    <row r="7">
+      <c r="D7" s="7" t="n"/>
+      <c r="E7" s="8" t="n"/>
+      <c r="F7" s="8" t="n"/>
+      <c r="G7" s="8" t="n"/>
+      <c r="H7" s="8" t="n"/>
+      <c r="I7" s="8" t="n"/>
+      <c r="J7" s="8" t="n"/>
+      <c r="K7" s="8" t="n"/>
+      <c r="L7" s="8" t="n"/>
+      <c r="M7" s="8" t="n"/>
+      <c r="N7" s="8" t="n"/>
+      <c r="O7" s="8" t="n"/>
+      <c r="P7" s="8" t="n"/>
+      <c r="Q7" s="8" t="n"/>
+      <c r="R7" s="8" t="n"/>
+      <c r="S7" s="8" t="n"/>
+      <c r="T7" s="8" t="n"/>
+      <c r="U7" s="8" t="n"/>
+      <c r="V7" s="8" t="n"/>
+      <c r="W7" s="8" t="n"/>
+      <c r="X7" s="8" t="n"/>
+      <c r="Y7" s="9" t="n"/>
+    </row>
+    <row r="8">
+      <c r="D8" s="7" t="n"/>
+      <c r="E8" s="10" t="inlineStr">
+        <is>
+          <t>201609</t>
+        </is>
+      </c>
+      <c r="F8" s="11" t="n"/>
+      <c r="G8" s="11" t="n"/>
+      <c r="H8" s="12" t="n"/>
+      <c r="I8" s="8" t="n"/>
+      <c r="J8" s="8" t="n"/>
+      <c r="K8" s="8" t="n"/>
+      <c r="L8" s="8" t="n"/>
+      <c r="M8" s="8" t="n"/>
+      <c r="N8" s="8" t="n"/>
+      <c r="O8" s="8" t="n"/>
+      <c r="P8" s="8" t="n"/>
+      <c r="Q8" s="8" t="n"/>
+      <c r="R8" s="8" t="n"/>
+      <c r="S8" s="8" t="n"/>
+      <c r="T8" s="8" t="n"/>
+      <c r="U8" s="8" t="n"/>
+      <c r="V8" s="8" t="n"/>
+      <c r="W8" s="8" t="n"/>
+      <c r="X8" s="8" t="n"/>
+      <c r="Y8" s="9" t="n"/>
+    </row>
+    <row r="9">
+      <c r="D9" s="7" t="n"/>
+      <c r="E9" s="7" t="n"/>
+      <c r="H9" s="9" t="n"/>
+      <c r="I9" s="8" t="n"/>
+      <c r="J9" s="8" t="n"/>
+      <c r="K9" s="8" t="n"/>
+      <c r="L9" s="8" t="n"/>
+      <c r="M9" s="8" t="n"/>
+      <c r="N9" s="8" t="n"/>
+      <c r="O9" s="8" t="n"/>
+      <c r="P9" s="8" t="n"/>
+      <c r="Q9" s="8" t="n"/>
+      <c r="R9" s="8" t="n"/>
+      <c r="S9" s="8" t="n"/>
+      <c r="T9" s="8" t="n"/>
+      <c r="U9" s="8" t="n"/>
+      <c r="V9" s="8" t="n"/>
+      <c r="W9" s="8" t="n"/>
+      <c r="X9" s="8" t="n"/>
+      <c r="Y9" s="9" t="n"/>
+    </row>
     <row r="10">
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>Usage by Gender</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="5" t="n"/>
-      <c r="H10" s="5" t="n"/>
-      <c r="I10" s="5" t="n"/>
-      <c r="J10" s="5" t="n"/>
-      <c r="K10" s="4" t="inlineStr">
-        <is>
-          <t>Usage by Age Group</t>
-        </is>
-      </c>
-      <c r="L10" s="5" t="n"/>
-      <c r="M10" s="5" t="n"/>
-      <c r="N10" s="5" t="n"/>
-      <c r="O10" s="5" t="n"/>
-      <c r="P10" s="5" t="n"/>
-      <c r="Q10" s="5" t="n"/>
-      <c r="R10" s="5" t="n"/>
-      <c r="S10" s="4" t="inlineStr">
-        <is>
-          <t>Sample BV to BY</t>
-        </is>
-      </c>
-      <c r="T10" s="5" t="n"/>
-      <c r="U10" s="5" t="n"/>
-      <c r="V10" s="5" t="n"/>
-      <c r="W10" s="5" t="n"/>
-      <c r="X10" s="5" t="n"/>
-      <c r="Y10" s="5" t="n"/>
-      <c r="Z10" s="5" t="n"/>
+      <c r="D10" s="7" t="n"/>
+      <c r="E10" s="7" t="n"/>
+      <c r="H10" s="9" t="n"/>
+      <c r="I10" s="8" t="n"/>
+      <c r="J10" s="8" t="n"/>
+      <c r="K10" s="8" t="n"/>
+      <c r="L10" s="8" t="n"/>
+      <c r="M10" s="8" t="n"/>
+      <c r="N10" s="8" t="n"/>
+      <c r="O10" s="8" t="n"/>
+      <c r="P10" s="8" t="n"/>
+      <c r="Q10" s="8" t="n"/>
+      <c r="R10" s="8" t="n"/>
+      <c r="S10" s="8" t="n"/>
+      <c r="T10" s="8" t="n"/>
+      <c r="U10" s="8" t="n"/>
+      <c r="V10" s="8" t="n"/>
+      <c r="W10" s="8" t="n"/>
+      <c r="X10" s="8" t="n"/>
+      <c r="Y10" s="9" t="n"/>
     </row>
     <row r="11">
-      <c r="C11" s="6" t="inlineStr">
-        <is>
-          <t>gender_share_m</t>
-        </is>
-      </c>
-      <c r="D11" s="7" t="n">
-        <v>60.36280850498499</v>
-      </c>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
-      <c r="I11" s="5" t="n"/>
-      <c r="J11" s="5" t="n"/>
-      <c r="K11" s="6" t="inlineStr">
-        <is>
-          <t>silent_generation</t>
-        </is>
-      </c>
-      <c r="L11" s="7" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="M11" s="5" t="n"/>
-      <c r="N11" s="5" t="n"/>
-      <c r="O11" s="5" t="n"/>
-      <c r="P11" s="5" t="n"/>
-      <c r="Q11" s="5" t="n"/>
-      <c r="R11" s="5" t="n"/>
-      <c r="S11" s="6" t="inlineStr">
-        <is>
-          <t>time_slots_0</t>
-        </is>
-      </c>
-      <c r="T11" s="7" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="U11" s="5" t="n"/>
-      <c r="V11" s="5" t="n"/>
-      <c r="W11" s="5" t="n"/>
-      <c r="X11" s="5" t="n"/>
-      <c r="Y11" s="5" t="n"/>
-      <c r="Z11" s="5" t="n"/>
+      <c r="D11" s="7" t="n"/>
+      <c r="E11" s="7" t="n"/>
+      <c r="H11" s="9" t="n"/>
+      <c r="I11" s="8" t="n"/>
+      <c r="J11" s="8" t="n"/>
+      <c r="K11" s="13" t="inlineStr">
+        <is>
+          <t>Bike ID and Anzahl Nutzung</t>
+        </is>
+      </c>
+      <c r="O11" s="8" t="n"/>
+      <c r="P11" s="8" t="n"/>
+      <c r="Q11" s="13" t="inlineStr">
+        <is>
+          <t>Top 10 most start stations and Anzahl Nutzung</t>
+        </is>
+      </c>
+      <c r="U11" s="8" t="n"/>
+      <c r="V11" s="8" t="n"/>
+      <c r="W11" s="13" t="inlineStr">
+        <is>
+          <t>Top 10 most end stations and Anzahl Nutzung</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>gender_share_w</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="n">
-        <v>20.36570710822056</v>
-      </c>
-      <c r="E12" s="5" t="n"/>
-      <c r="F12" s="5" t="n"/>
-      <c r="G12" s="5" t="n"/>
-      <c r="H12" s="5" t="n"/>
-      <c r="I12" s="5" t="n"/>
-      <c r="J12" s="5" t="n"/>
-      <c r="K12" s="6" t="inlineStr">
-        <is>
-          <t>generation_x</t>
-        </is>
-      </c>
-      <c r="L12" s="7" t="n">
-        <v>16.65</v>
-      </c>
-      <c r="M12" s="5" t="n"/>
-      <c r="N12" s="5" t="n"/>
-      <c r="O12" s="5" t="n"/>
-      <c r="P12" s="5" t="n"/>
-      <c r="Q12" s="5" t="n"/>
-      <c r="R12" s="5" t="n"/>
-      <c r="S12" s="6" t="inlineStr">
-        <is>
-          <t>time_slots_1</t>
-        </is>
-      </c>
-      <c r="T12" s="7" t="n">
-        <v>30.56</v>
-      </c>
-      <c r="U12" s="5" t="n"/>
-      <c r="V12" s="5" t="n"/>
-      <c r="W12" s="5" t="n"/>
-      <c r="X12" s="5" t="n"/>
-      <c r="Y12" s="5" t="n"/>
-      <c r="Z12" s="5" t="n"/>
+      <c r="D12" s="7" t="n"/>
+      <c r="E12" s="7" t="n"/>
+      <c r="H12" s="9" t="n"/>
+      <c r="I12" s="8" t="n"/>
+      <c r="J12" s="8" t="n"/>
+      <c r="O12" s="8" t="n"/>
+      <c r="P12" s="8" t="n"/>
+      <c r="U12" s="8" t="n"/>
+      <c r="V12" s="8" t="n"/>
     </row>
     <row r="13">
-      <c r="C13" s="6" t="inlineStr">
-        <is>
-          <t>gender_share_na</t>
-        </is>
-      </c>
-      <c r="D13" s="7" t="n">
-        <v>19.27148438679445</v>
-      </c>
-      <c r="E13" s="5" t="n"/>
-      <c r="F13" s="5" t="n"/>
-      <c r="G13" s="5" t="n"/>
-      <c r="H13" s="5" t="n"/>
-      <c r="I13" s="5" t="n"/>
-      <c r="J13" s="5" t="n"/>
-      <c r="K13" s="6" t="inlineStr">
-        <is>
-          <t>generation_y</t>
-        </is>
-      </c>
-      <c r="L13" s="7" t="n">
-        <v>53.68</v>
-      </c>
-      <c r="M13" s="5" t="n"/>
-      <c r="N13" s="5" t="n"/>
-      <c r="O13" s="5" t="n"/>
-      <c r="P13" s="5" t="n"/>
-      <c r="Q13" s="5" t="n"/>
-      <c r="R13" s="5" t="n"/>
-      <c r="S13" s="6" t="inlineStr">
-        <is>
-          <t>time_slots_2</t>
-        </is>
-      </c>
-      <c r="T13" s="7" t="n">
-        <v>45.44</v>
-      </c>
-      <c r="U13" s="5" t="n"/>
-      <c r="V13" s="5" t="n"/>
-      <c r="W13" s="5" t="n"/>
-      <c r="X13" s="5" t="n"/>
-      <c r="Y13" s="5" t="n"/>
-      <c r="Z13" s="5" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="14" t="n"/>
+      <c r="F13" s="15" t="n"/>
+      <c r="G13" s="15" t="n"/>
+      <c r="H13" s="16" t="n"/>
+      <c r="I13" s="8" t="n"/>
+      <c r="J13" s="8" t="n"/>
+      <c r="K13" s="8" t="n"/>
+      <c r="L13" s="8" t="n"/>
+      <c r="M13" s="8" t="n"/>
+      <c r="N13" s="8" t="n"/>
+      <c r="O13" s="8" t="n"/>
+      <c r="P13" s="8" t="n"/>
+      <c r="Q13" s="8" t="n"/>
+      <c r="R13" s="8" t="n"/>
+      <c r="S13" s="8" t="n"/>
+      <c r="T13" s="8" t="n"/>
+      <c r="U13" s="8" t="n"/>
+      <c r="V13" s="8" t="n"/>
+      <c r="W13" s="8" t="n"/>
+      <c r="X13" s="8" t="n"/>
+      <c r="Y13" s="9" t="n"/>
     </row>
     <row r="14">
-      <c r="C14" s="5" t="n"/>
-      <c r="D14" s="5" t="n"/>
-      <c r="E14" s="5" t="n"/>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="5" t="n"/>
-      <c r="H14" s="5" t="n"/>
-      <c r="I14" s="5" t="n"/>
-      <c r="J14" s="5" t="n"/>
-      <c r="K14" s="6" t="inlineStr">
-        <is>
-          <t>generation_z</t>
-        </is>
-      </c>
-      <c r="L14" s="7" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="M14" s="5" t="n"/>
-      <c r="N14" s="5" t="n"/>
-      <c r="O14" s="5" t="n"/>
-      <c r="P14" s="5" t="n"/>
-      <c r="Q14" s="5" t="n"/>
-      <c r="R14" s="5" t="n"/>
-      <c r="S14" s="6" t="inlineStr">
-        <is>
-          <t>time_slots_3</t>
-        </is>
-      </c>
-      <c r="T14" s="7" t="n">
-        <v>26.38</v>
-      </c>
-      <c r="U14" s="5" t="n"/>
-      <c r="V14" s="5" t="n"/>
-      <c r="W14" s="5" t="n"/>
-      <c r="X14" s="5" t="n"/>
-      <c r="Y14" s="5" t="n"/>
-      <c r="Z14" s="5" t="n"/>
+      <c r="D14" s="7" t="n"/>
+      <c r="E14" s="8" t="n"/>
+      <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
+      <c r="H14" s="8" t="n"/>
+      <c r="I14" s="8" t="n"/>
+      <c r="J14" s="8" t="n"/>
+      <c r="K14" s="8" t="n"/>
+      <c r="L14" s="8" t="n"/>
+      <c r="M14" s="8" t="n"/>
+      <c r="N14" s="8" t="n"/>
+      <c r="O14" s="8" t="n"/>
+      <c r="P14" s="8" t="n"/>
+      <c r="Q14" s="8" t="n"/>
+      <c r="R14" s="8" t="n"/>
+      <c r="S14" s="8" t="n"/>
+      <c r="T14" s="8" t="n"/>
+      <c r="U14" s="8" t="n"/>
+      <c r="V14" s="8" t="n"/>
+      <c r="W14" s="8" t="n"/>
+      <c r="X14" s="8" t="n"/>
+      <c r="Y14" s="9" t="n"/>
     </row>
     <row r="15">
-      <c r="C15" s="5" t="n"/>
-      <c r="D15" s="5" t="n"/>
-      <c r="E15" s="5" t="n"/>
-      <c r="F15" s="5" t="n"/>
-      <c r="G15" s="5" t="n"/>
-      <c r="H15" s="5" t="n"/>
-      <c r="I15" s="5" t="n"/>
-      <c r="J15" s="5" t="n"/>
-      <c r="K15" s="6" t="inlineStr">
-        <is>
-          <t>baby_boomer</t>
-        </is>
-      </c>
-      <c r="L15" s="7" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="M15" s="5" t="n"/>
-      <c r="N15" s="5" t="n"/>
-      <c r="O15" s="5" t="n"/>
-      <c r="P15" s="5" t="n"/>
-      <c r="Q15" s="5" t="n"/>
-      <c r="R15" s="5" t="n"/>
-      <c r="S15" s="5" t="n"/>
-      <c r="T15" s="5" t="n"/>
-      <c r="U15" s="5" t="n"/>
-      <c r="V15" s="5" t="n"/>
-      <c r="W15" s="5" t="n"/>
-      <c r="X15" s="5" t="n"/>
-      <c r="Y15" s="5" t="n"/>
-      <c r="Z15" s="5" t="n"/>
+      <c r="D15" s="7" t="n"/>
+      <c r="E15" s="17" t="inlineStr">
+        <is>
+          <t>Average Trip Duration</t>
+        </is>
+      </c>
+      <c r="F15" s="11" t="n"/>
+      <c r="G15" s="11" t="n"/>
+      <c r="H15" s="12" t="n"/>
+      <c r="I15" s="8" t="n"/>
+      <c r="J15" s="8" t="n"/>
+      <c r="K15" s="13" t="inlineStr">
+        <is>
+          <t>Bike ID</t>
+        </is>
+      </c>
+      <c r="M15" s="13" t="inlineStr">
+        <is>
+          <t>Anzahl Nutzung</t>
+        </is>
+      </c>
+      <c r="O15" s="8" t="n"/>
+      <c r="P15" s="8" t="n"/>
+      <c r="Q15" s="13" t="inlineStr">
+        <is>
+          <t>Top 10 most start stations</t>
+        </is>
+      </c>
+      <c r="S15" s="13" t="inlineStr">
+        <is>
+          <t>Anzahl Nutzung</t>
+        </is>
+      </c>
+      <c r="U15" s="8" t="n"/>
+      <c r="V15" s="8" t="n"/>
+      <c r="W15" s="13" t="inlineStr">
+        <is>
+          <t>Top 10 most end stations</t>
+        </is>
+      </c>
+      <c r="Y15" s="18" t="inlineStr">
+        <is>
+          <t>Anzahl Nutzung</t>
+        </is>
+      </c>
+      <c r="Z15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="K16" s="8" t="inlineStr">
-        <is>
-          <t>generation_alpha</t>
-        </is>
-      </c>
-      <c r="L16" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="D16" s="7" t="n"/>
+      <c r="E16" s="7" t="n"/>
+      <c r="H16" s="9" t="n"/>
+      <c r="I16" s="8" t="n"/>
+      <c r="J16" s="8" t="n"/>
+      <c r="O16" s="8" t="n"/>
+      <c r="P16" s="8" t="n"/>
+      <c r="U16" s="8" t="n"/>
+      <c r="V16" s="8" t="n"/>
+      <c r="Z16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="K17" s="8" t="inlineStr">
-        <is>
-          <t>no_generation_data</t>
-        </is>
-      </c>
-      <c r="L17" s="9" t="n">
-        <v>18.99</v>
-      </c>
+      <c r="D17" s="7" t="n"/>
+      <c r="E17" s="7" t="n"/>
+      <c r="H17" s="9" t="n"/>
+      <c r="I17" s="8" t="n"/>
+      <c r="J17" s="19" t="inlineStr">
+        <is>
+          <t>Platz 1</t>
+        </is>
+      </c>
+      <c r="K17" s="19" t="n">
+        <v>1816</v>
+      </c>
+      <c r="L17" s="20" t="n"/>
+      <c r="M17" s="19" t="n">
+        <v>251</v>
+      </c>
+      <c r="N17" s="20" t="n"/>
+      <c r="O17" s="8" t="n"/>
+      <c r="P17" s="19" t="inlineStr">
+        <is>
+          <t>Platz 1</t>
+        </is>
+      </c>
+      <c r="Q17" s="19" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St</t>
+        </is>
+      </c>
+      <c r="R17" s="20" t="n"/>
+      <c r="S17" s="19" t="n">
+        <v>4794</v>
+      </c>
+      <c r="T17" s="20" t="n"/>
+      <c r="U17" s="8" t="n"/>
+      <c r="V17" s="19" t="inlineStr">
+        <is>
+          <t>Platz 1</t>
+        </is>
+      </c>
+      <c r="W17" s="19" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St</t>
+        </is>
+      </c>
+      <c r="X17" s="20" t="n"/>
+      <c r="Y17" s="19" t="n">
+        <v>4813</v>
+      </c>
+      <c r="Z17" s="20" t="n"/>
+    </row>
+    <row r="18">
+      <c r="D18" s="7" t="n"/>
+      <c r="E18" s="14" t="n"/>
+      <c r="F18" s="15" t="n"/>
+      <c r="G18" s="15" t="n"/>
+      <c r="H18" s="16" t="n"/>
+      <c r="I18" s="8" t="n"/>
+      <c r="J18" s="20" t="n"/>
+      <c r="K18" s="20" t="n"/>
+      <c r="L18" s="20" t="n"/>
+      <c r="M18" s="20" t="n"/>
+      <c r="N18" s="20" t="n"/>
+      <c r="O18" s="8" t="n"/>
+      <c r="P18" s="20" t="n"/>
+      <c r="Q18" s="20" t="n"/>
+      <c r="R18" s="20" t="n"/>
+      <c r="S18" s="20" t="n"/>
+      <c r="T18" s="20" t="n"/>
+      <c r="U18" s="8" t="n"/>
+      <c r="V18" s="20" t="n"/>
+      <c r="W18" s="20" t="n"/>
+      <c r="X18" s="20" t="n"/>
+      <c r="Y18" s="20" t="n"/>
+      <c r="Z18" s="20" t="n"/>
+    </row>
+    <row r="19">
+      <c r="D19" s="7" t="n"/>
+      <c r="E19" s="21" t="n">
+        <v>15</v>
+      </c>
+      <c r="I19" s="8" t="n"/>
+      <c r="J19" s="19" t="inlineStr">
+        <is>
+          <t>Platz 2</t>
+        </is>
+      </c>
+      <c r="K19" s="19" t="n">
+        <v>1395</v>
+      </c>
+      <c r="L19" s="20" t="n"/>
+      <c r="M19" s="19" t="n">
+        <v>248</v>
+      </c>
+      <c r="N19" s="20" t="n"/>
+      <c r="O19" s="8" t="n"/>
+      <c r="P19" s="19" t="inlineStr">
+        <is>
+          <t>Platz 2</t>
+        </is>
+      </c>
+      <c r="Q19" s="19" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave.</t>
+        </is>
+      </c>
+      <c r="R19" s="20" t="n"/>
+      <c r="S19" s="19" t="n">
+        <v>3963</v>
+      </c>
+      <c r="T19" s="20" t="n"/>
+      <c r="U19" s="8" t="n"/>
+      <c r="V19" s="19" t="inlineStr">
+        <is>
+          <t>Platz 2</t>
+        </is>
+      </c>
+      <c r="W19" s="19" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave.</t>
+        </is>
+      </c>
+      <c r="X19" s="20" t="n"/>
+      <c r="Y19" s="19" t="n">
+        <v>3897</v>
+      </c>
+      <c r="Z19" s="20" t="n"/>
+    </row>
+    <row r="20">
+      <c r="D20" s="7" t="n"/>
+      <c r="I20" s="8" t="n"/>
+      <c r="J20" s="20" t="n"/>
+      <c r="K20" s="20" t="n"/>
+      <c r="L20" s="20" t="n"/>
+      <c r="M20" s="20" t="n"/>
+      <c r="N20" s="20" t="n"/>
+      <c r="O20" s="8" t="n"/>
+      <c r="P20" s="20" t="n"/>
+      <c r="Q20" s="20" t="n"/>
+      <c r="R20" s="20" t="n"/>
+      <c r="S20" s="20" t="n"/>
+      <c r="T20" s="20" t="n"/>
+      <c r="U20" s="8" t="n"/>
+      <c r="V20" s="20" t="n"/>
+      <c r="W20" s="20" t="n"/>
+      <c r="X20" s="20" t="n"/>
+      <c r="Y20" s="20" t="n"/>
+      <c r="Z20" s="20" t="n"/>
+    </row>
+    <row r="21">
+      <c r="D21" s="7" t="n"/>
+      <c r="I21" s="8" t="n"/>
+      <c r="J21" s="19" t="inlineStr">
+        <is>
+          <t>Platz 3</t>
+        </is>
+      </c>
+      <c r="K21" s="19" t="n">
+        <v>1767</v>
+      </c>
+      <c r="L21" s="20" t="n"/>
+      <c r="M21" s="19" t="n">
+        <v>247</v>
+      </c>
+      <c r="N21" s="20" t="n"/>
+      <c r="O21" s="8" t="n"/>
+      <c r="P21" s="19" t="inlineStr">
+        <is>
+          <t>Platz 3</t>
+        </is>
+      </c>
+      <c r="Q21" s="19" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster</t>
+        </is>
+      </c>
+      <c r="R21" s="20" t="n"/>
+      <c r="S21" s="19" t="n">
+        <v>3141</v>
+      </c>
+      <c r="T21" s="20" t="n"/>
+      <c r="U21" s="8" t="n"/>
+      <c r="V21" s="19" t="inlineStr">
+        <is>
+          <t>Platz 3</t>
+        </is>
+      </c>
+      <c r="W21" s="19" t="inlineStr">
+        <is>
+          <t>MIT Stata Center at Vassar St / Main St</t>
+        </is>
+      </c>
+      <c r="X21" s="20" t="n"/>
+      <c r="Y21" s="19" t="n">
+        <v>3778</v>
+      </c>
+      <c r="Z21" s="20" t="n"/>
+    </row>
+    <row r="22">
+      <c r="D22" s="7" t="n"/>
+      <c r="I22" s="8" t="n"/>
+      <c r="J22" s="20" t="n"/>
+      <c r="K22" s="20" t="n"/>
+      <c r="L22" s="20" t="n"/>
+      <c r="M22" s="20" t="n"/>
+      <c r="N22" s="20" t="n"/>
+      <c r="O22" s="8" t="n"/>
+      <c r="P22" s="20" t="n"/>
+      <c r="Q22" s="20" t="n"/>
+      <c r="R22" s="20" t="n"/>
+      <c r="S22" s="20" t="n"/>
+      <c r="T22" s="20" t="n"/>
+      <c r="U22" s="8" t="n"/>
+      <c r="V22" s="20" t="n"/>
+      <c r="W22" s="20" t="n"/>
+      <c r="X22" s="20" t="n"/>
+      <c r="Y22" s="20" t="n"/>
+      <c r="Z22" s="20" t="n"/>
+    </row>
+    <row r="23">
+      <c r="D23" s="7" t="n"/>
+      <c r="I23" s="8" t="n"/>
+      <c r="J23" s="19" t="inlineStr">
+        <is>
+          <t>Platz 4</t>
+        </is>
+      </c>
+      <c r="K23" s="19" t="n">
+        <v>277</v>
+      </c>
+      <c r="L23" s="20" t="n"/>
+      <c r="M23" s="19" t="n">
+        <v>233</v>
+      </c>
+      <c r="N23" s="20" t="n"/>
+      <c r="O23" s="8" t="n"/>
+      <c r="P23" s="19" t="inlineStr">
+        <is>
+          <t>Platz 4</t>
+        </is>
+      </c>
+      <c r="Q23" s="19" t="inlineStr">
+        <is>
+          <t>Central Square at Mass Ave / Essex St</t>
+        </is>
+      </c>
+      <c r="R23" s="20" t="n"/>
+      <c r="S23" s="19" t="n">
+        <v>2814</v>
+      </c>
+      <c r="T23" s="20" t="n"/>
+      <c r="U23" s="8" t="n"/>
+      <c r="V23" s="19" t="inlineStr">
+        <is>
+          <t>Platz 4</t>
+        </is>
+      </c>
+      <c r="W23" s="19" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster</t>
+        </is>
+      </c>
+      <c r="X23" s="20" t="n"/>
+      <c r="Y23" s="19" t="n">
+        <v>3236</v>
+      </c>
+      <c r="Z23" s="20" t="n"/>
+    </row>
+    <row r="24">
+      <c r="D24" s="7" t="n"/>
+      <c r="I24" s="8" t="n"/>
+      <c r="J24" s="20" t="n"/>
+      <c r="K24" s="20" t="n"/>
+      <c r="L24" s="20" t="n"/>
+      <c r="M24" s="20" t="n"/>
+      <c r="N24" s="20" t="n"/>
+      <c r="O24" s="8" t="n"/>
+      <c r="P24" s="20" t="n"/>
+      <c r="Q24" s="20" t="n"/>
+      <c r="R24" s="20" t="n"/>
+      <c r="S24" s="20" t="n"/>
+      <c r="T24" s="20" t="n"/>
+      <c r="U24" s="8" t="n"/>
+      <c r="V24" s="20" t="n"/>
+      <c r="W24" s="20" t="n"/>
+      <c r="X24" s="20" t="n"/>
+      <c r="Y24" s="20" t="n"/>
+      <c r="Z24" s="20" t="n"/>
+    </row>
+    <row r="25">
+      <c r="D25" s="7" t="n"/>
+      <c r="E25" s="8" t="n"/>
+      <c r="F25" s="8" t="n"/>
+      <c r="G25" s="8" t="n"/>
+      <c r="H25" s="8" t="n"/>
+      <c r="I25" s="8" t="n"/>
+      <c r="J25" s="19" t="inlineStr">
+        <is>
+          <t>Platz 5</t>
+        </is>
+      </c>
+      <c r="K25" s="19" t="n">
+        <v>1762</v>
+      </c>
+      <c r="L25" s="20" t="n"/>
+      <c r="M25" s="19" t="n">
+        <v>229</v>
+      </c>
+      <c r="N25" s="20" t="n"/>
+      <c r="O25" s="8" t="n"/>
+      <c r="P25" s="19" t="inlineStr">
+        <is>
+          <t>Platz 5</t>
+        </is>
+      </c>
+      <c r="Q25" s="19" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave</t>
+        </is>
+      </c>
+      <c r="R25" s="20" t="n"/>
+      <c r="S25" s="19" t="n">
+        <v>2809</v>
+      </c>
+      <c r="T25" s="20" t="n"/>
+      <c r="U25" s="8" t="n"/>
+      <c r="V25" s="19" t="inlineStr">
+        <is>
+          <t>Platz 5</t>
+        </is>
+      </c>
+      <c r="W25" s="19" t="inlineStr">
+        <is>
+          <t>Central Square at Mass Ave / Essex St</t>
+        </is>
+      </c>
+      <c r="X25" s="20" t="n"/>
+      <c r="Y25" s="19" t="n">
+        <v>2750</v>
+      </c>
+      <c r="Z25" s="20" t="n"/>
+    </row>
+    <row r="26">
+      <c r="D26" s="7" t="n"/>
+      <c r="E26" s="17" t="inlineStr">
+        <is>
+          <t>Average Distance</t>
+        </is>
+      </c>
+      <c r="F26" s="11" t="n"/>
+      <c r="G26" s="11" t="n"/>
+      <c r="H26" s="12" t="n"/>
+      <c r="I26" s="8" t="n"/>
+      <c r="J26" s="20" t="n"/>
+      <c r="K26" s="20" t="n"/>
+      <c r="L26" s="20" t="n"/>
+      <c r="M26" s="20" t="n"/>
+      <c r="N26" s="20" t="n"/>
+      <c r="O26" s="8" t="n"/>
+      <c r="P26" s="20" t="n"/>
+      <c r="Q26" s="20" t="n"/>
+      <c r="R26" s="20" t="n"/>
+      <c r="S26" s="20" t="n"/>
+      <c r="T26" s="20" t="n"/>
+      <c r="U26" s="8" t="n"/>
+      <c r="V26" s="20" t="n"/>
+      <c r="W26" s="20" t="n"/>
+      <c r="X26" s="20" t="n"/>
+      <c r="Y26" s="20" t="n"/>
+      <c r="Z26" s="20" t="n"/>
+    </row>
+    <row r="27">
+      <c r="D27" s="7" t="n"/>
+      <c r="E27" s="7" t="n"/>
+      <c r="H27" s="9" t="n"/>
+      <c r="I27" s="8" t="n"/>
+      <c r="J27" s="19" t="inlineStr">
+        <is>
+          <t>Platz 6</t>
+        </is>
+      </c>
+      <c r="K27" s="19" t="n">
+        <v>1739</v>
+      </c>
+      <c r="L27" s="20" t="n"/>
+      <c r="M27" s="19" t="n">
+        <v>223</v>
+      </c>
+      <c r="N27" s="20" t="n"/>
+      <c r="O27" s="8" t="n"/>
+      <c r="P27" s="19" t="inlineStr">
+        <is>
+          <t>Platz 6</t>
+        </is>
+      </c>
+      <c r="Q27" s="19" t="inlineStr">
+        <is>
+          <t>Kendall T</t>
+        </is>
+      </c>
+      <c r="R27" s="20" t="n"/>
+      <c r="S27" s="19" t="n">
+        <v>2659</v>
+      </c>
+      <c r="T27" s="20" t="n"/>
+      <c r="U27" s="8" t="n"/>
+      <c r="V27" s="19" t="inlineStr">
+        <is>
+          <t>Platz 6</t>
+        </is>
+      </c>
+      <c r="W27" s="19" t="inlineStr">
+        <is>
+          <t>Kendall T</t>
+        </is>
+      </c>
+      <c r="X27" s="20" t="n"/>
+      <c r="Y27" s="19" t="n">
+        <v>2630</v>
+      </c>
+      <c r="Z27" s="20" t="n"/>
+    </row>
+    <row r="28">
+      <c r="D28" s="7" t="n"/>
+      <c r="E28" s="7" t="n"/>
+      <c r="H28" s="9" t="n"/>
+      <c r="I28" s="8" t="n"/>
+      <c r="J28" s="20" t="n"/>
+      <c r="K28" s="20" t="n"/>
+      <c r="L28" s="20" t="n"/>
+      <c r="M28" s="20" t="n"/>
+      <c r="N28" s="20" t="n"/>
+      <c r="O28" s="8" t="n"/>
+      <c r="P28" s="20" t="n"/>
+      <c r="Q28" s="20" t="n"/>
+      <c r="R28" s="20" t="n"/>
+      <c r="S28" s="20" t="n"/>
+      <c r="T28" s="20" t="n"/>
+      <c r="U28" s="8" t="n"/>
+      <c r="V28" s="20" t="n"/>
+      <c r="W28" s="20" t="n"/>
+      <c r="X28" s="20" t="n"/>
+      <c r="Y28" s="20" t="n"/>
+      <c r="Z28" s="20" t="n"/>
+    </row>
+    <row r="29">
+      <c r="D29" s="7" t="n"/>
+      <c r="E29" s="14" t="n"/>
+      <c r="F29" s="15" t="n"/>
+      <c r="G29" s="15" t="n"/>
+      <c r="H29" s="16" t="n"/>
+      <c r="I29" s="8" t="n"/>
+      <c r="J29" s="19" t="inlineStr">
+        <is>
+          <t>Platz 7</t>
+        </is>
+      </c>
+      <c r="K29" s="19" t="n">
+        <v>1155</v>
+      </c>
+      <c r="L29" s="20" t="n"/>
+      <c r="M29" s="19" t="n">
+        <v>222</v>
+      </c>
+      <c r="N29" s="20" t="n"/>
+      <c r="O29" s="8" t="n"/>
+      <c r="P29" s="19" t="inlineStr">
+        <is>
+          <t>Platz 7</t>
+        </is>
+      </c>
+      <c r="Q29" s="19" t="inlineStr">
+        <is>
+          <t>MIT Stata Center at Vassar St / Main St</t>
+        </is>
+      </c>
+      <c r="R29" s="20" t="n"/>
+      <c r="S29" s="19" t="n">
+        <v>2592</v>
+      </c>
+      <c r="T29" s="20" t="n"/>
+      <c r="U29" s="8" t="n"/>
+      <c r="V29" s="19" t="inlineStr">
+        <is>
+          <t>Platz 7</t>
+        </is>
+      </c>
+      <c r="W29" s="19" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St.</t>
+        </is>
+      </c>
+      <c r="X29" s="20" t="n"/>
+      <c r="Y29" s="19" t="n">
+        <v>2586</v>
+      </c>
+      <c r="Z29" s="20" t="n"/>
+    </row>
+    <row r="30">
+      <c r="D30" s="7" t="n"/>
+      <c r="E30" s="21" t="n">
+        <v>1.86467273097248</v>
+      </c>
+      <c r="I30" s="8" t="n"/>
+      <c r="J30" s="20" t="n"/>
+      <c r="K30" s="20" t="n"/>
+      <c r="L30" s="20" t="n"/>
+      <c r="M30" s="20" t="n"/>
+      <c r="N30" s="20" t="n"/>
+      <c r="O30" s="8" t="n"/>
+      <c r="P30" s="20" t="n"/>
+      <c r="Q30" s="20" t="n"/>
+      <c r="R30" s="20" t="n"/>
+      <c r="S30" s="20" t="n"/>
+      <c r="T30" s="20" t="n"/>
+      <c r="U30" s="8" t="n"/>
+      <c r="V30" s="20" t="n"/>
+      <c r="W30" s="20" t="n"/>
+      <c r="X30" s="20" t="n"/>
+      <c r="Y30" s="20" t="n"/>
+      <c r="Z30" s="20" t="n"/>
+    </row>
+    <row r="31">
+      <c r="D31" s="7" t="n"/>
+      <c r="I31" s="8" t="n"/>
+      <c r="J31" s="19" t="inlineStr">
+        <is>
+          <t>Platz 8</t>
+        </is>
+      </c>
+      <c r="K31" s="19" t="n">
+        <v>1605</v>
+      </c>
+      <c r="L31" s="20" t="n"/>
+      <c r="M31" s="19" t="n">
+        <v>221</v>
+      </c>
+      <c r="N31" s="20" t="n"/>
+      <c r="O31" s="8" t="n"/>
+      <c r="P31" s="19" t="inlineStr">
+        <is>
+          <t>Platz 8</t>
+        </is>
+      </c>
+      <c r="Q31" s="19" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St.</t>
+        </is>
+      </c>
+      <c r="R31" s="20" t="n"/>
+      <c r="S31" s="19" t="n">
+        <v>2540</v>
+      </c>
+      <c r="T31" s="20" t="n"/>
+      <c r="U31" s="8" t="n"/>
+      <c r="V31" s="19" t="inlineStr">
+        <is>
+          <t>Platz 8</t>
+        </is>
+      </c>
+      <c r="W31" s="19" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave</t>
+        </is>
+      </c>
+      <c r="X31" s="20" t="n"/>
+      <c r="Y31" s="19" t="n">
+        <v>2525</v>
+      </c>
+      <c r="Z31" s="20" t="n"/>
+    </row>
+    <row r="32">
+      <c r="D32" s="7" t="n"/>
+      <c r="I32" s="8" t="n"/>
+      <c r="J32" s="20" t="n"/>
+      <c r="K32" s="20" t="n"/>
+      <c r="L32" s="20" t="n"/>
+      <c r="M32" s="20" t="n"/>
+      <c r="N32" s="20" t="n"/>
+      <c r="O32" s="8" t="n"/>
+      <c r="P32" s="20" t="n"/>
+      <c r="Q32" s="20" t="n"/>
+      <c r="R32" s="20" t="n"/>
+      <c r="S32" s="20" t="n"/>
+      <c r="T32" s="20" t="n"/>
+      <c r="U32" s="8" t="n"/>
+      <c r="V32" s="20" t="n"/>
+      <c r="W32" s="20" t="n"/>
+      <c r="X32" s="20" t="n"/>
+      <c r="Y32" s="20" t="n"/>
+      <c r="Z32" s="20" t="n"/>
+    </row>
+    <row r="33">
+      <c r="D33" s="7" t="n"/>
+      <c r="I33" s="8" t="n"/>
+      <c r="J33" s="19" t="inlineStr">
+        <is>
+          <t>Platz 9</t>
+        </is>
+      </c>
+      <c r="K33" s="19" t="n">
+        <v>1857</v>
+      </c>
+      <c r="L33" s="20" t="n"/>
+      <c r="M33" s="19" t="n">
+        <v>221</v>
+      </c>
+      <c r="N33" s="20" t="n"/>
+      <c r="O33" s="8" t="n"/>
+      <c r="P33" s="19" t="inlineStr">
+        <is>
+          <t>Platz 9</t>
+        </is>
+      </c>
+      <c r="Q33" s="19" t="inlineStr">
+        <is>
+          <t>MIT Vassar St</t>
+        </is>
+      </c>
+      <c r="R33" s="20" t="n"/>
+      <c r="S33" s="19" t="n">
+        <v>2377</v>
+      </c>
+      <c r="T33" s="20" t="n"/>
+      <c r="U33" s="8" t="n"/>
+      <c r="V33" s="19" t="inlineStr">
+        <is>
+          <t>Platz 9</t>
+        </is>
+      </c>
+      <c r="W33" s="19" t="inlineStr">
+        <is>
+          <t>MIT Vassar St</t>
+        </is>
+      </c>
+      <c r="X33" s="20" t="n"/>
+      <c r="Y33" s="19" t="n">
+        <v>2292</v>
+      </c>
+      <c r="Z33" s="20" t="n"/>
+    </row>
+    <row r="34">
+      <c r="D34" s="7" t="n"/>
+      <c r="I34" s="8" t="n"/>
+      <c r="J34" s="20" t="n"/>
+      <c r="K34" s="20" t="n"/>
+      <c r="L34" s="20" t="n"/>
+      <c r="M34" s="20" t="n"/>
+      <c r="N34" s="20" t="n"/>
+      <c r="O34" s="8" t="n"/>
+      <c r="P34" s="20" t="n"/>
+      <c r="Q34" s="20" t="n"/>
+      <c r="R34" s="20" t="n"/>
+      <c r="S34" s="20" t="n"/>
+      <c r="T34" s="20" t="n"/>
+      <c r="U34" s="8" t="n"/>
+      <c r="V34" s="20" t="n"/>
+      <c r="W34" s="20" t="n"/>
+      <c r="X34" s="20" t="n"/>
+      <c r="Y34" s="20" t="n"/>
+      <c r="Z34" s="20" t="n"/>
+    </row>
+    <row r="35">
+      <c r="D35" s="7" t="n"/>
+      <c r="I35" s="8" t="n"/>
+      <c r="J35" s="19" t="inlineStr">
+        <is>
+          <t>Platz 10</t>
+        </is>
+      </c>
+      <c r="K35" s="19" t="n">
+        <v>1606</v>
+      </c>
+      <c r="L35" s="20" t="n"/>
+      <c r="M35" s="19" t="n">
+        <v>218</v>
+      </c>
+      <c r="N35" s="20" t="n"/>
+      <c r="O35" s="8" t="n"/>
+      <c r="P35" s="19" t="inlineStr">
+        <is>
+          <t>Platz 10</t>
+        </is>
+      </c>
+      <c r="Q35" s="19" t="inlineStr">
+        <is>
+          <t>MIT Pacific St at Purrington St</t>
+        </is>
+      </c>
+      <c r="R35" s="20" t="n"/>
+      <c r="S35" s="19" t="n">
+        <v>2287</v>
+      </c>
+      <c r="T35" s="20" t="n"/>
+      <c r="U35" s="8" t="n"/>
+      <c r="V35" s="19" t="inlineStr">
+        <is>
+          <t>Platz 10</t>
+        </is>
+      </c>
+      <c r="W35" s="19" t="inlineStr">
+        <is>
+          <t>Kenmore Sq / Comm Ave</t>
+        </is>
+      </c>
+      <c r="X35" s="20" t="n"/>
+      <c r="Y35" s="19" t="n">
+        <v>2246</v>
+      </c>
+      <c r="Z35" s="20" t="n"/>
+    </row>
+    <row r="36">
+      <c r="D36" s="7" t="n"/>
+      <c r="E36" s="8" t="n"/>
+      <c r="F36" s="8" t="n"/>
+      <c r="G36" s="8" t="n"/>
+      <c r="H36" s="8" t="n"/>
+      <c r="I36" s="8" t="n"/>
+      <c r="J36" s="20" t="n"/>
+      <c r="K36" s="20" t="n"/>
+      <c r="L36" s="20" t="n"/>
+      <c r="M36" s="20" t="n"/>
+      <c r="N36" s="20" t="n"/>
+      <c r="O36" s="8" t="n"/>
+      <c r="P36" s="20" t="n"/>
+      <c r="Q36" s="20" t="n"/>
+      <c r="R36" s="20" t="n"/>
+      <c r="S36" s="20" t="n"/>
+      <c r="T36" s="20" t="n"/>
+      <c r="U36" s="8" t="n"/>
+      <c r="V36" s="20" t="n"/>
+      <c r="W36" s="20" t="n"/>
+      <c r="X36" s="20" t="n"/>
+      <c r="Y36" s="20" t="n"/>
+      <c r="Z36" s="20" t="n"/>
+    </row>
+    <row r="37">
+      <c r="D37" s="7" t="n"/>
+      <c r="E37" s="8" t="n"/>
+      <c r="F37" s="8" t="n"/>
+      <c r="G37" s="8" t="n"/>
+      <c r="H37" s="8" t="n"/>
+      <c r="I37" s="8" t="n"/>
+      <c r="J37" s="8" t="n"/>
+      <c r="K37" s="8" t="n"/>
+      <c r="L37" s="8" t="n"/>
+      <c r="M37" s="8" t="n"/>
+      <c r="N37" s="8" t="n"/>
+      <c r="O37" s="8" t="n"/>
+      <c r="P37" s="8" t="n"/>
+      <c r="Q37" s="8" t="n"/>
+      <c r="R37" s="8" t="n"/>
+      <c r="S37" s="8" t="n"/>
+      <c r="T37" s="8" t="n"/>
+      <c r="U37" s="8" t="n"/>
+      <c r="V37" s="8" t="n"/>
+      <c r="W37" s="8" t="n"/>
+      <c r="X37" s="8" t="n"/>
+      <c r="Y37" s="9" t="n"/>
+    </row>
+    <row r="38">
+      <c r="D38" s="7" t="n"/>
+      <c r="E38" s="8" t="n"/>
+      <c r="F38" s="8" t="n"/>
+      <c r="G38" s="8" t="n"/>
+      <c r="H38" s="8" t="n"/>
+      <c r="I38" s="8" t="n"/>
+      <c r="J38" s="8" t="n"/>
+      <c r="K38" s="8" t="n"/>
+      <c r="L38" s="8" t="n"/>
+      <c r="M38" s="8" t="n"/>
+      <c r="N38" s="8" t="n"/>
+      <c r="O38" s="8" t="n"/>
+      <c r="P38" s="8" t="n"/>
+      <c r="Q38" s="8" t="n"/>
+      <c r="R38" s="8" t="n"/>
+      <c r="S38" s="8" t="n"/>
+      <c r="T38" s="8" t="n"/>
+      <c r="U38" s="8" t="n"/>
+      <c r="V38" s="8" t="n"/>
+      <c r="W38" s="8" t="n"/>
+      <c r="X38" s="8" t="n"/>
+      <c r="Y38" s="9" t="n"/>
+    </row>
+    <row r="39">
+      <c r="D39" s="7" t="n"/>
+      <c r="E39" s="8" t="n"/>
+      <c r="F39" s="8" t="n"/>
+      <c r="G39" s="8" t="n"/>
+      <c r="H39" s="8" t="n"/>
+      <c r="I39" s="8" t="n"/>
+      <c r="J39" s="8" t="n"/>
+      <c r="K39" s="8" t="n"/>
+      <c r="L39" s="8" t="n"/>
+      <c r="M39" s="8" t="n"/>
+      <c r="N39" s="8" t="n"/>
+      <c r="O39" s="8" t="n"/>
+      <c r="P39" s="8" t="n"/>
+      <c r="Q39" s="8" t="n"/>
+      <c r="R39" s="8" t="n"/>
+      <c r="S39" s="8" t="n"/>
+      <c r="T39" s="8" t="n"/>
+      <c r="U39" s="8" t="n"/>
+      <c r="V39" s="8" t="n"/>
+      <c r="W39" s="8" t="n"/>
+      <c r="X39" s="8" t="n"/>
+      <c r="Y39" s="9" t="n"/>
+    </row>
+    <row r="40">
+      <c r="D40" s="7" t="n"/>
+      <c r="E40" s="8" t="n"/>
+      <c r="F40" s="8" t="n"/>
+      <c r="G40" s="8" t="n"/>
+      <c r="H40" s="8" t="n"/>
+      <c r="I40" s="8" t="n"/>
+      <c r="J40" s="8" t="n"/>
+      <c r="K40" s="8" t="n"/>
+      <c r="L40" s="8" t="n"/>
+      <c r="M40" s="8" t="n"/>
+      <c r="N40" s="8" t="n"/>
+      <c r="O40" s="8" t="n"/>
+      <c r="P40" s="8" t="n"/>
+      <c r="Q40" s="8" t="n"/>
+      <c r="R40" s="8" t="n"/>
+      <c r="S40" s="8" t="n"/>
+      <c r="T40" s="8" t="n"/>
+      <c r="U40" s="8" t="n"/>
+      <c r="V40" s="8" t="n"/>
+      <c r="W40" s="8" t="n"/>
+      <c r="X40" s="8" t="n"/>
+      <c r="Y40" s="9" t="n"/>
+    </row>
+    <row r="41">
+      <c r="D41" s="7" t="n"/>
+      <c r="E41" s="8" t="n"/>
+      <c r="F41" s="8" t="n"/>
+      <c r="G41" s="8" t="n"/>
+      <c r="H41" s="8" t="n"/>
+      <c r="I41" s="8" t="n"/>
+      <c r="J41" s="8" t="n"/>
+      <c r="K41" s="8" t="n"/>
+      <c r="L41" s="8" t="n"/>
+      <c r="M41" s="8" t="n"/>
+      <c r="N41" s="8" t="n"/>
+      <c r="O41" s="8" t="n"/>
+      <c r="P41" s="8" t="n"/>
+      <c r="Q41" s="8" t="n"/>
+      <c r="R41" s="8" t="n"/>
+      <c r="S41" s="8" t="n"/>
+      <c r="T41" s="8" t="n"/>
+      <c r="U41" s="8" t="n"/>
+      <c r="V41" s="8" t="n"/>
+      <c r="W41" s="8" t="n"/>
+      <c r="X41" s="8" t="n"/>
+      <c r="Y41" s="9" t="n"/>
+    </row>
+    <row r="42">
+      <c r="D42" s="7" t="n"/>
+      <c r="E42" s="8" t="n"/>
+      <c r="F42" s="8" t="n"/>
+      <c r="G42" s="8" t="n"/>
+      <c r="H42" s="8" t="n"/>
+      <c r="I42" s="8" t="n"/>
+      <c r="J42" s="8" t="n"/>
+      <c r="K42" s="8" t="n"/>
+      <c r="L42" s="8" t="n"/>
+      <c r="M42" s="8" t="n"/>
+      <c r="N42" s="8" t="n"/>
+      <c r="O42" s="8" t="n"/>
+      <c r="P42" s="8" t="n"/>
+      <c r="Q42" s="8" t="n"/>
+      <c r="R42" s="8" t="n"/>
+      <c r="S42" s="8" t="n"/>
+      <c r="T42" s="8" t="n"/>
+      <c r="U42" s="8" t="n"/>
+      <c r="V42" s="8" t="n"/>
+      <c r="W42" s="8" t="n"/>
+      <c r="X42" s="8" t="n"/>
+      <c r="Y42" s="9" t="n"/>
+    </row>
+    <row r="43">
+      <c r="D43" s="7" t="n"/>
+      <c r="E43" s="8" t="n"/>
+      <c r="F43" s="8" t="n"/>
+      <c r="G43" s="8" t="n"/>
+      <c r="H43" s="8" t="n"/>
+      <c r="I43" s="8" t="n"/>
+      <c r="J43" s="8" t="n"/>
+      <c r="K43" s="8" t="n"/>
+      <c r="L43" s="8" t="n"/>
+      <c r="M43" s="8" t="n"/>
+      <c r="N43" s="8" t="n"/>
+      <c r="O43" s="8" t="n"/>
+      <c r="P43" s="8" t="n"/>
+      <c r="Q43" s="8" t="n"/>
+      <c r="R43" s="8" t="n"/>
+      <c r="S43" s="8" t="n"/>
+      <c r="T43" s="8" t="n"/>
+      <c r="U43" s="8" t="n"/>
+      <c r="V43" s="8" t="n"/>
+      <c r="W43" s="8" t="n"/>
+      <c r="X43" s="8" t="n"/>
+      <c r="Y43" s="9" t="n"/>
+    </row>
+    <row r="44">
+      <c r="D44" s="7" t="n"/>
+      <c r="E44" s="8" t="n"/>
+      <c r="F44" s="8" t="n"/>
+      <c r="G44" s="8" t="n"/>
+      <c r="H44" s="8" t="n"/>
+      <c r="I44" s="8" t="n"/>
+      <c r="J44" s="8" t="n"/>
+      <c r="K44" s="8" t="n"/>
+      <c r="L44" s="8" t="n"/>
+      <c r="M44" s="8" t="n"/>
+      <c r="N44" s="8" t="n"/>
+      <c r="O44" s="8" t="n"/>
+      <c r="P44" s="8" t="n"/>
+      <c r="Q44" s="8" t="n"/>
+      <c r="R44" s="8" t="n"/>
+      <c r="S44" s="8" t="n"/>
+      <c r="T44" s="8" t="n"/>
+      <c r="U44" s="8" t="n"/>
+      <c r="V44" s="8" t="n"/>
+      <c r="W44" s="8" t="n"/>
+      <c r="X44" s="8" t="n"/>
+      <c r="Y44" s="9" t="n"/>
+    </row>
+    <row r="45">
+      <c r="D45" s="7" t="n"/>
+      <c r="E45" s="8" t="n"/>
+      <c r="F45" s="8" t="n"/>
+      <c r="G45" s="8" t="n"/>
+      <c r="H45" s="8" t="n"/>
+      <c r="I45" s="8" t="n"/>
+      <c r="J45" s="8" t="n"/>
+      <c r="K45" s="8" t="n"/>
+      <c r="L45" s="8" t="n"/>
+      <c r="M45" s="8" t="n"/>
+      <c r="N45" s="8" t="n"/>
+      <c r="O45" s="8" t="n"/>
+      <c r="P45" s="8" t="n"/>
+      <c r="Q45" s="8" t="n"/>
+      <c r="R45" s="8" t="n"/>
+      <c r="S45" s="8" t="n"/>
+      <c r="T45" s="8" t="n"/>
+      <c r="U45" s="8" t="n"/>
+      <c r="V45" s="8" t="n"/>
+      <c r="W45" s="8" t="n"/>
+      <c r="X45" s="8" t="n"/>
+      <c r="Y45" s="9" t="n"/>
+    </row>
+    <row r="46">
+      <c r="D46" s="7" t="n"/>
+      <c r="E46" s="8" t="n"/>
+      <c r="F46" s="8" t="n"/>
+      <c r="G46" s="8" t="n"/>
+      <c r="H46" s="8" t="n"/>
+      <c r="I46" s="8" t="n"/>
+      <c r="J46" s="8" t="n"/>
+      <c r="K46" s="8" t="n"/>
+      <c r="L46" s="8" t="n"/>
+      <c r="M46" s="8" t="n"/>
+      <c r="N46" s="8" t="n"/>
+      <c r="O46" s="8" t="n"/>
+      <c r="P46" s="8" t="n"/>
+      <c r="Q46" s="8" t="n"/>
+      <c r="R46" s="8" t="n"/>
+      <c r="S46" s="8" t="n"/>
+      <c r="T46" s="8" t="n"/>
+      <c r="U46" s="8" t="n"/>
+      <c r="V46" s="8" t="n"/>
+      <c r="W46" s="8" t="n"/>
+      <c r="X46" s="8" t="n"/>
+      <c r="Y46" s="9" t="n"/>
+    </row>
+    <row r="47">
+      <c r="D47" s="7" t="n"/>
+      <c r="E47" s="8" t="n"/>
+      <c r="F47" s="8" t="n"/>
+      <c r="G47" s="8" t="n"/>
+      <c r="H47" s="8" t="n"/>
+      <c r="I47" s="8" t="n"/>
+      <c r="J47" s="8" t="n"/>
+      <c r="K47" s="8" t="n"/>
+      <c r="L47" s="8" t="n"/>
+      <c r="M47" s="8" t="n"/>
+      <c r="N47" s="8" t="n"/>
+      <c r="O47" s="8" t="n"/>
+      <c r="P47" s="8" t="n"/>
+      <c r="Q47" s="8" t="n"/>
+      <c r="R47" s="8" t="n"/>
+      <c r="S47" s="8" t="n"/>
+      <c r="T47" s="8" t="n"/>
+      <c r="U47" s="8" t="n"/>
+      <c r="V47" s="8" t="n"/>
+      <c r="W47" s="8" t="n"/>
+      <c r="X47" s="8" t="n"/>
+      <c r="Y47" s="9" t="n"/>
+    </row>
+    <row r="48">
+      <c r="D48" s="7" t="n"/>
+      <c r="E48" s="8" t="n"/>
+      <c r="F48" s="8" t="n"/>
+      <c r="G48" s="8" t="n"/>
+      <c r="H48" s="8" t="n"/>
+      <c r="I48" s="8" t="n"/>
+      <c r="J48" s="8" t="n"/>
+      <c r="K48" s="8" t="n"/>
+      <c r="L48" s="8" t="n"/>
+      <c r="M48" s="8" t="n"/>
+      <c r="N48" s="8" t="n"/>
+      <c r="O48" s="8" t="n"/>
+      <c r="P48" s="8" t="n"/>
+      <c r="Q48" s="8" t="n"/>
+      <c r="R48" s="8" t="n"/>
+      <c r="S48" s="8" t="n"/>
+      <c r="T48" s="8" t="n"/>
+      <c r="U48" s="8" t="n"/>
+      <c r="V48" s="8" t="n"/>
+      <c r="W48" s="8" t="n"/>
+      <c r="X48" s="8" t="n"/>
+      <c r="Y48" s="9" t="n"/>
+    </row>
+    <row r="49">
+      <c r="D49" s="7" t="n"/>
+      <c r="E49" s="8" t="n"/>
+      <c r="F49" s="8" t="n"/>
+      <c r="G49" s="8" t="n"/>
+      <c r="H49" s="8" t="n"/>
+      <c r="I49" s="8" t="n"/>
+      <c r="J49" s="8" t="n"/>
+      <c r="K49" s="8" t="n"/>
+      <c r="L49" s="8" t="n"/>
+      <c r="M49" s="8" t="n"/>
+      <c r="N49" s="8" t="n"/>
+      <c r="O49" s="8" t="n"/>
+      <c r="P49" s="8" t="n"/>
+      <c r="Q49" s="8" t="n"/>
+      <c r="R49" s="8" t="n"/>
+      <c r="S49" s="8" t="n"/>
+      <c r="T49" s="8" t="n"/>
+      <c r="U49" s="8" t="n"/>
+      <c r="V49" s="8" t="n"/>
+      <c r="W49" s="8" t="n"/>
+      <c r="X49" s="8" t="n"/>
+      <c r="Y49" s="9" t="n"/>
+    </row>
+    <row r="50">
+      <c r="D50" s="7" t="n"/>
+      <c r="E50" s="8" t="n"/>
+      <c r="F50" s="8" t="n"/>
+      <c r="G50" s="8" t="n"/>
+      <c r="H50" s="8" t="n"/>
+      <c r="I50" s="8" t="n"/>
+      <c r="J50" s="8" t="n"/>
+      <c r="K50" s="8" t="n"/>
+      <c r="L50" s="8" t="n"/>
+      <c r="M50" s="8" t="n"/>
+      <c r="N50" s="8" t="n"/>
+      <c r="O50" s="8" t="n"/>
+      <c r="P50" s="8" t="n"/>
+      <c r="Q50" s="8" t="n"/>
+      <c r="R50" s="8" t="n"/>
+      <c r="S50" s="8" t="n"/>
+      <c r="T50" s="8" t="n"/>
+      <c r="U50" s="8" t="n"/>
+      <c r="V50" s="8" t="n"/>
+      <c r="W50" s="8" t="n"/>
+      <c r="X50" s="8" t="n"/>
+      <c r="Y50" s="9" t="n"/>
+    </row>
+    <row r="51">
+      <c r="D51" s="7" t="n"/>
+      <c r="E51" s="8" t="n"/>
+      <c r="F51" s="8" t="n"/>
+      <c r="G51" s="8" t="n"/>
+      <c r="H51" s="8" t="n"/>
+      <c r="I51" s="8" t="n"/>
+      <c r="J51" s="8" t="n"/>
+      <c r="K51" s="8" t="n"/>
+      <c r="L51" s="8" t="n"/>
+      <c r="M51" s="8" t="n"/>
+      <c r="N51" s="8" t="n"/>
+      <c r="O51" s="8" t="n"/>
+      <c r="P51" s="8" t="n"/>
+      <c r="Q51" s="8" t="n"/>
+      <c r="R51" s="8" t="n"/>
+      <c r="S51" s="8" t="n"/>
+      <c r="T51" s="8" t="n"/>
+      <c r="U51" s="8" t="n"/>
+      <c r="V51" s="8" t="n"/>
+      <c r="W51" s="8" t="n"/>
+      <c r="X51" s="8" t="n"/>
+      <c r="Y51" s="9" t="n"/>
+    </row>
+    <row r="52">
+      <c r="D52" s="7" t="n"/>
+      <c r="E52" s="8" t="n"/>
+      <c r="F52" s="8" t="n"/>
+      <c r="G52" s="8" t="n"/>
+      <c r="H52" s="8" t="n"/>
+      <c r="I52" s="8" t="n"/>
+      <c r="J52" s="8" t="n"/>
+      <c r="K52" s="8" t="n"/>
+      <c r="L52" s="8" t="n"/>
+      <c r="M52" s="8" t="n"/>
+      <c r="N52" s="8" t="n"/>
+      <c r="O52" s="8" t="n"/>
+      <c r="P52" s="8" t="n"/>
+      <c r="Q52" s="8" t="n"/>
+      <c r="R52" s="8" t="n"/>
+      <c r="S52" s="8" t="n"/>
+      <c r="T52" s="8" t="n"/>
+      <c r="U52" s="8" t="n"/>
+      <c r="V52" s="8" t="n"/>
+      <c r="W52" s="8" t="n"/>
+      <c r="X52" s="8" t="n"/>
+      <c r="Y52" s="9" t="n"/>
+    </row>
+    <row r="53">
+      <c r="D53" s="7" t="n"/>
+      <c r="E53" s="8" t="n"/>
+      <c r="F53" s="8" t="n"/>
+      <c r="G53" s="8" t="n"/>
+      <c r="H53" s="8" t="n"/>
+      <c r="I53" s="8" t="n"/>
+      <c r="J53" s="8" t="n"/>
+      <c r="K53" s="8" t="n"/>
+      <c r="L53" s="8" t="n"/>
+      <c r="M53" s="8" t="n"/>
+      <c r="N53" s="8" t="n"/>
+      <c r="O53" s="8" t="n"/>
+      <c r="P53" s="8" t="n"/>
+      <c r="Q53" s="8" t="n"/>
+      <c r="R53" s="8" t="n"/>
+      <c r="S53" s="8" t="n"/>
+      <c r="T53" s="8" t="n"/>
+      <c r="U53" s="8" t="n"/>
+      <c r="V53" s="8" t="n"/>
+      <c r="W53" s="8" t="n"/>
+      <c r="X53" s="8" t="n"/>
+      <c r="Y53" s="9" t="n"/>
+    </row>
+    <row r="54">
+      <c r="D54" s="7" t="n"/>
+      <c r="E54" s="8" t="n"/>
+      <c r="F54" s="8" t="n"/>
+      <c r="G54" s="8" t="n"/>
+      <c r="H54" s="8" t="n"/>
+      <c r="I54" s="8" t="n"/>
+      <c r="J54" s="8" t="n"/>
+      <c r="K54" s="8" t="n"/>
+      <c r="L54" s="8" t="n"/>
+      <c r="M54" s="8" t="n"/>
+      <c r="N54" s="8" t="n"/>
+      <c r="O54" s="8" t="n"/>
+      <c r="P54" s="8" t="n"/>
+      <c r="Q54" s="8" t="n"/>
+      <c r="R54" s="8" t="n"/>
+      <c r="S54" s="8" t="n"/>
+      <c r="T54" s="8" t="n"/>
+      <c r="U54" s="8" t="n"/>
+      <c r="V54" s="8" t="n"/>
+      <c r="W54" s="8" t="n"/>
+      <c r="X54" s="8" t="n"/>
+      <c r="Y54" s="9" t="n"/>
+    </row>
+    <row r="55">
+      <c r="D55" s="7" t="n"/>
+      <c r="E55" s="8" t="n"/>
+      <c r="F55" s="8" t="n"/>
+      <c r="G55" s="8" t="n"/>
+      <c r="H55" s="8" t="n"/>
+      <c r="I55" s="8" t="n"/>
+      <c r="J55" s="8" t="n"/>
+      <c r="K55" s="8" t="n"/>
+      <c r="L55" s="8" t="n"/>
+      <c r="M55" s="8" t="n"/>
+      <c r="N55" s="8" t="n"/>
+      <c r="O55" s="8" t="n"/>
+      <c r="P55" s="8" t="n"/>
+      <c r="Q55" s="8" t="n"/>
+      <c r="R55" s="8" t="n"/>
+      <c r="S55" s="8" t="n"/>
+      <c r="T55" s="8" t="n"/>
+      <c r="U55" s="8" t="n"/>
+      <c r="V55" s="8" t="n"/>
+      <c r="W55" s="8" t="n"/>
+      <c r="X55" s="8" t="n"/>
+      <c r="Y55" s="9" t="n"/>
+    </row>
+    <row r="56">
+      <c r="D56" s="7" t="n"/>
+      <c r="E56" s="8" t="n"/>
+      <c r="F56" s="8" t="n"/>
+      <c r="G56" s="8" t="n"/>
+      <c r="H56" s="8" t="n"/>
+      <c r="I56" s="8" t="n"/>
+      <c r="J56" s="8" t="n"/>
+      <c r="K56" s="8" t="n"/>
+      <c r="L56" s="8" t="n"/>
+      <c r="M56" s="8" t="n"/>
+      <c r="N56" s="8" t="n"/>
+      <c r="O56" s="8" t="n"/>
+      <c r="P56" s="8" t="n"/>
+      <c r="Q56" s="8" t="n"/>
+      <c r="R56" s="8" t="n"/>
+      <c r="S56" s="8" t="n"/>
+      <c r="T56" s="8" t="n"/>
+      <c r="U56" s="8" t="n"/>
+      <c r="V56" s="8" t="n"/>
+      <c r="W56" s="8" t="n"/>
+      <c r="X56" s="8" t="n"/>
+      <c r="Y56" s="9" t="n"/>
+    </row>
+    <row r="57">
+      <c r="D57" s="7" t="n"/>
+      <c r="E57" s="8" t="n"/>
+      <c r="F57" s="8" t="n"/>
+      <c r="G57" s="8" t="n"/>
+      <c r="H57" s="8" t="n"/>
+      <c r="I57" s="8" t="n"/>
+      <c r="J57" s="8" t="n"/>
+      <c r="K57" s="8" t="n"/>
+      <c r="L57" s="8" t="n"/>
+      <c r="M57" s="8" t="n"/>
+      <c r="N57" s="8" t="n"/>
+      <c r="O57" s="8" t="n"/>
+      <c r="P57" s="8" t="n"/>
+      <c r="Q57" s="8" t="n"/>
+      <c r="R57" s="8" t="n"/>
+      <c r="S57" s="8" t="n"/>
+      <c r="T57" s="8" t="n"/>
+      <c r="U57" s="8" t="n"/>
+      <c r="V57" s="8" t="n"/>
+      <c r="W57" s="8" t="n"/>
+      <c r="X57" s="8" t="n"/>
+      <c r="Y57" s="9" t="n"/>
+    </row>
+    <row r="58">
+      <c r="D58" s="7" t="n"/>
+      <c r="E58" s="8" t="n"/>
+      <c r="F58" s="8" t="n"/>
+      <c r="G58" s="8" t="n"/>
+      <c r="H58" s="8" t="n"/>
+      <c r="I58" s="8" t="n"/>
+      <c r="J58" s="8" t="n"/>
+      <c r="K58" s="8" t="n"/>
+      <c r="L58" s="8" t="n"/>
+      <c r="M58" s="8" t="n"/>
+      <c r="N58" s="8" t="n"/>
+      <c r="O58" s="8" t="n"/>
+      <c r="P58" s="8" t="n"/>
+      <c r="Q58" s="8" t="n"/>
+      <c r="R58" s="8" t="n"/>
+      <c r="S58" s="8" t="n"/>
+      <c r="T58" s="8" t="n"/>
+      <c r="U58" s="8" t="n"/>
+      <c r="V58" s="8" t="n"/>
+      <c r="W58" s="8" t="n"/>
+      <c r="X58" s="8" t="n"/>
+      <c r="Y58" s="9" t="n"/>
+    </row>
+    <row r="59">
+      <c r="D59" s="7" t="n"/>
+      <c r="E59" s="8" t="n"/>
+      <c r="F59" s="8" t="n"/>
+      <c r="G59" s="8" t="n"/>
+      <c r="H59" s="8" t="n"/>
+      <c r="I59" s="8" t="n"/>
+      <c r="J59" s="8" t="n"/>
+      <c r="K59" s="8" t="n"/>
+      <c r="L59" s="8" t="n"/>
+      <c r="M59" s="8" t="n"/>
+      <c r="N59" s="8" t="n"/>
+      <c r="O59" s="8" t="n"/>
+      <c r="P59" s="8" t="n"/>
+      <c r="Q59" s="8" t="n"/>
+      <c r="R59" s="8" t="n"/>
+      <c r="S59" s="8" t="n"/>
+      <c r="T59" s="8" t="n"/>
+      <c r="U59" s="8" t="n"/>
+      <c r="V59" s="8" t="n"/>
+      <c r="W59" s="8" t="n"/>
+      <c r="X59" s="8" t="n"/>
+      <c r="Y59" s="9" t="n"/>
+    </row>
+    <row r="60">
+      <c r="D60" s="7" t="n"/>
+      <c r="E60" s="8" t="n"/>
+      <c r="F60" s="8" t="n"/>
+      <c r="G60" s="8" t="n"/>
+      <c r="H60" s="8" t="n"/>
+      <c r="I60" s="8" t="n"/>
+      <c r="J60" s="8" t="n"/>
+      <c r="K60" s="8" t="n"/>
+      <c r="L60" s="8" t="n"/>
+      <c r="M60" s="8" t="n"/>
+      <c r="N60" s="8" t="n"/>
+      <c r="O60" s="8" t="n"/>
+      <c r="P60" s="8" t="n"/>
+      <c r="Q60" s="8" t="n"/>
+      <c r="R60" s="8" t="n"/>
+      <c r="S60" s="8" t="n"/>
+      <c r="T60" s="8" t="n"/>
+      <c r="U60" s="8" t="n"/>
+      <c r="V60" s="8" t="n"/>
+      <c r="W60" s="8" t="n"/>
+      <c r="X60" s="8" t="n"/>
+      <c r="Y60" s="9" t="n"/>
+    </row>
+    <row r="61">
+      <c r="D61" s="7" t="n"/>
+      <c r="E61" s="8" t="n"/>
+      <c r="F61" s="8" t="n"/>
+      <c r="G61" s="8" t="n"/>
+      <c r="H61" s="8" t="n"/>
+      <c r="I61" s="8" t="n"/>
+      <c r="J61" s="8" t="n"/>
+      <c r="K61" s="8" t="n"/>
+      <c r="L61" s="8" t="n"/>
+      <c r="M61" s="8" t="n"/>
+      <c r="N61" s="8" t="n"/>
+      <c r="O61" s="8" t="n"/>
+      <c r="P61" s="8" t="n"/>
+      <c r="Q61" s="8" t="n"/>
+      <c r="R61" s="8" t="n"/>
+      <c r="S61" s="8" t="n"/>
+      <c r="T61" s="8" t="n"/>
+      <c r="U61" s="8" t="n"/>
+      <c r="V61" s="8" t="n"/>
+      <c r="W61" s="8" t="n"/>
+      <c r="X61" s="8" t="n"/>
+      <c r="Y61" s="9" t="n"/>
+    </row>
+    <row r="62">
+      <c r="D62" s="14" t="n"/>
+      <c r="E62" s="15" t="n"/>
+      <c r="F62" s="15" t="n"/>
+      <c r="G62" s="15" t="n"/>
+      <c r="H62" s="15" t="n"/>
+      <c r="I62" s="15" t="n"/>
+      <c r="J62" s="15" t="n"/>
+      <c r="K62" s="15" t="n"/>
+      <c r="L62" s="15" t="n"/>
+      <c r="M62" s="15" t="n"/>
+      <c r="N62" s="15" t="n"/>
+      <c r="O62" s="15" t="n"/>
+      <c r="P62" s="15" t="n"/>
+      <c r="Q62" s="15" t="n"/>
+      <c r="R62" s="15" t="n"/>
+      <c r="S62" s="15" t="n"/>
+      <c r="T62" s="15" t="n"/>
+      <c r="U62" s="15" t="n"/>
+      <c r="V62" s="15" t="n"/>
+      <c r="W62" s="15" t="n"/>
+      <c r="X62" s="15" t="n"/>
+      <c r="Y62" s="16" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K6:N8"/>
-    <mergeCell ref="G6:J8"/>
-    <mergeCell ref="C3:M4"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C6:F8"/>
-    <mergeCell ref="S10:W10"/>
+  <mergeCells count="105">
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="M25:N26"/>
+    <mergeCell ref="Q15:R16"/>
+    <mergeCell ref="Y31:Z32"/>
+    <mergeCell ref="W19:X20"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="V31:V32"/>
+    <mergeCell ref="K27:L28"/>
+    <mergeCell ref="Q19:R20"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Y15:Z16"/>
+    <mergeCell ref="K29:L30"/>
+    <mergeCell ref="W17:X18"/>
+    <mergeCell ref="W33:X34"/>
+    <mergeCell ref="S23:T24"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="K31:L32"/>
+    <mergeCell ref="Y19:Z20"/>
+    <mergeCell ref="E15:H18"/>
+    <mergeCell ref="S27:T28"/>
+    <mergeCell ref="M19:N20"/>
+    <mergeCell ref="V21:V22"/>
+    <mergeCell ref="W11:Z12"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="S31:T32"/>
+    <mergeCell ref="V35:V36"/>
+    <mergeCell ref="K19:L20"/>
+    <mergeCell ref="S17:T18"/>
+    <mergeCell ref="S33:T34"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="S15:T16"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W25:X26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="W35:X36"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="S19:T20"/>
+    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="K33:L34"/>
+    <mergeCell ref="S25:T26"/>
+    <mergeCell ref="W29:X30"/>
+    <mergeCell ref="Q35:R36"/>
+    <mergeCell ref="W31:X32"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="K11:N12"/>
+    <mergeCell ref="M23:N24"/>
+    <mergeCell ref="Y35:Z36"/>
+    <mergeCell ref="M29:N30"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="W15:X16"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="M35:N36"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="M31:N32"/>
+    <mergeCell ref="W21:X22"/>
+    <mergeCell ref="Q11:T12"/>
+    <mergeCell ref="K35:L36"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="M15:N16"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="E19:H24"/>
+    <mergeCell ref="V33:V34"/>
+    <mergeCell ref="M21:N22"/>
+    <mergeCell ref="S35:T36"/>
+    <mergeCell ref="M17:N18"/>
+    <mergeCell ref="M33:N34"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="K25:L26"/>
+    <mergeCell ref="Q29:R30"/>
+    <mergeCell ref="S29:T30"/>
+    <mergeCell ref="Y17:Z18"/>
+    <mergeCell ref="Y33:Z34"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="Y29:Z30"/>
+    <mergeCell ref="E26:H29"/>
+    <mergeCell ref="Q17:R18"/>
+    <mergeCell ref="Q33:R34"/>
+    <mergeCell ref="Q23:R24"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="E30:H35"/>
+    <mergeCell ref="Y25:Z26"/>
+    <mergeCell ref="Q27:R28"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="Y23:Z24"/>
+    <mergeCell ref="Q25:R26"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="Q21:R22"/>
+    <mergeCell ref="S21:T22"/>
+    <mergeCell ref="D5:Y6"/>
+    <mergeCell ref="Q31:R32"/>
+    <mergeCell ref="Y27:Z28"/>
+    <mergeCell ref="E8:H13"/>
+    <mergeCell ref="M27:N28"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="V29:V30"/>
+    <mergeCell ref="Y21:Z22"/>
+    <mergeCell ref="V17:V18"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BY17"/>
+  <dimension ref="A1:BY62"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1474,7 +4552,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row hidden="1" r="1">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>year_month</t>
@@ -1861,7 +4939,7 @@
         </is>
       </c>
     </row>
-    <row hidden="1" r="2">
+    <row r="2">
       <c r="A2" t="inlineStr">
         <is>
           <t>201503</t>
@@ -1940,7 +5018,7 @@
         <v>59</v>
       </c>
       <c r="Z2" t="n">
-        <v>771</v>
+        <v>1081</v>
       </c>
       <c r="AA2" t="n">
         <v>59</v>
@@ -1952,13 +5030,13 @@
         <v>59</v>
       </c>
       <c r="AD2" t="n">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="AE2" t="n">
         <v>59</v>
       </c>
       <c r="AF2" t="n">
-        <v>900</v>
+        <v>769</v>
       </c>
       <c r="AG2" t="n">
         <v>58</v>
@@ -2136,314 +5214,1759 @@
         <v>27.51</v>
       </c>
     </row>
-    <row r="3">
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>Hubway Dashboard</t>
-        </is>
-      </c>
-    </row>
-    <row r="4"/>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>hubway-data</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="n"/>
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="3" t="n"/>
+      <c r="M5" s="3" t="n"/>
+      <c r="N5" s="3" t="n"/>
+      <c r="O5" s="3" t="n"/>
+      <c r="P5" s="3" t="n"/>
+      <c r="Q5" s="3" t="n"/>
+      <c r="R5" s="3" t="n"/>
+      <c r="S5" s="3" t="n"/>
+      <c r="T5" s="3" t="n"/>
+      <c r="U5" s="3" t="n"/>
+      <c r="V5" s="3" t="n"/>
+      <c r="W5" s="3" t="n"/>
+      <c r="X5" s="3" t="n"/>
+      <c r="Y5" s="4" t="n"/>
+    </row>
     <row r="6">
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>Total Trips: 201503</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>Average Trip Duration: 9</t>
-        </is>
-      </c>
-      <c r="K6" s="3" t="inlineStr">
-        <is>
-          <t>Average Distance: 1.381539898720113</t>
-        </is>
-      </c>
-    </row>
-    <row r="7"/>
-    <row r="8"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="Y6" s="6" t="n"/>
+    </row>
+    <row r="7">
+      <c r="D7" s="7" t="n"/>
+      <c r="E7" s="8" t="n"/>
+      <c r="F7" s="8" t="n"/>
+      <c r="G7" s="8" t="n"/>
+      <c r="H7" s="8" t="n"/>
+      <c r="I7" s="8" t="n"/>
+      <c r="J7" s="8" t="n"/>
+      <c r="K7" s="8" t="n"/>
+      <c r="L7" s="8" t="n"/>
+      <c r="M7" s="8" t="n"/>
+      <c r="N7" s="8" t="n"/>
+      <c r="O7" s="8" t="n"/>
+      <c r="P7" s="8" t="n"/>
+      <c r="Q7" s="8" t="n"/>
+      <c r="R7" s="8" t="n"/>
+      <c r="S7" s="8" t="n"/>
+      <c r="T7" s="8" t="n"/>
+      <c r="U7" s="8" t="n"/>
+      <c r="V7" s="8" t="n"/>
+      <c r="W7" s="8" t="n"/>
+      <c r="X7" s="8" t="n"/>
+      <c r="Y7" s="9" t="n"/>
+    </row>
+    <row r="8">
+      <c r="D8" s="7" t="n"/>
+      <c r="E8" s="10" t="inlineStr">
+        <is>
+          <t>201503</t>
+        </is>
+      </c>
+      <c r="F8" s="11" t="n"/>
+      <c r="G8" s="11" t="n"/>
+      <c r="H8" s="12" t="n"/>
+      <c r="I8" s="8" t="n"/>
+      <c r="J8" s="8" t="n"/>
+      <c r="K8" s="8" t="n"/>
+      <c r="L8" s="8" t="n"/>
+      <c r="M8" s="8" t="n"/>
+      <c r="N8" s="8" t="n"/>
+      <c r="O8" s="8" t="n"/>
+      <c r="P8" s="8" t="n"/>
+      <c r="Q8" s="8" t="n"/>
+      <c r="R8" s="8" t="n"/>
+      <c r="S8" s="8" t="n"/>
+      <c r="T8" s="8" t="n"/>
+      <c r="U8" s="8" t="n"/>
+      <c r="V8" s="8" t="n"/>
+      <c r="W8" s="8" t="n"/>
+      <c r="X8" s="8" t="n"/>
+      <c r="Y8" s="9" t="n"/>
+    </row>
+    <row r="9">
+      <c r="D9" s="7" t="n"/>
+      <c r="E9" s="7" t="n"/>
+      <c r="H9" s="9" t="n"/>
+      <c r="I9" s="8" t="n"/>
+      <c r="J9" s="8" t="n"/>
+      <c r="K9" s="8" t="n"/>
+      <c r="L9" s="8" t="n"/>
+      <c r="M9" s="8" t="n"/>
+      <c r="N9" s="8" t="n"/>
+      <c r="O9" s="8" t="n"/>
+      <c r="P9" s="8" t="n"/>
+      <c r="Q9" s="8" t="n"/>
+      <c r="R9" s="8" t="n"/>
+      <c r="S9" s="8" t="n"/>
+      <c r="T9" s="8" t="n"/>
+      <c r="U9" s="8" t="n"/>
+      <c r="V9" s="8" t="n"/>
+      <c r="W9" s="8" t="n"/>
+      <c r="X9" s="8" t="n"/>
+      <c r="Y9" s="9" t="n"/>
+    </row>
     <row r="10">
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>Usage by Gender</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="5" t="n"/>
-      <c r="H10" s="5" t="n"/>
-      <c r="I10" s="5" t="n"/>
-      <c r="J10" s="5" t="n"/>
-      <c r="K10" s="4" t="inlineStr">
-        <is>
-          <t>Usage by Age Group</t>
-        </is>
-      </c>
-      <c r="L10" s="5" t="n"/>
-      <c r="M10" s="5" t="n"/>
-      <c r="N10" s="5" t="n"/>
-      <c r="O10" s="5" t="n"/>
-      <c r="P10" s="5" t="n"/>
-      <c r="Q10" s="5" t="n"/>
-      <c r="R10" s="5" t="n"/>
-      <c r="S10" s="4" t="inlineStr">
-        <is>
-          <t>Sample BV to BY</t>
-        </is>
-      </c>
-      <c r="T10" s="5" t="n"/>
-      <c r="U10" s="5" t="n"/>
-      <c r="V10" s="5" t="n"/>
-      <c r="W10" s="5" t="n"/>
-      <c r="X10" s="5" t="n"/>
-      <c r="Y10" s="5" t="n"/>
-      <c r="Z10" s="5" t="n"/>
+      <c r="D10" s="7" t="n"/>
+      <c r="E10" s="7" t="n"/>
+      <c r="H10" s="9" t="n"/>
+      <c r="I10" s="8" t="n"/>
+      <c r="J10" s="8" t="n"/>
+      <c r="K10" s="8" t="n"/>
+      <c r="L10" s="8" t="n"/>
+      <c r="M10" s="8" t="n"/>
+      <c r="N10" s="8" t="n"/>
+      <c r="O10" s="8" t="n"/>
+      <c r="P10" s="8" t="n"/>
+      <c r="Q10" s="8" t="n"/>
+      <c r="R10" s="8" t="n"/>
+      <c r="S10" s="8" t="n"/>
+      <c r="T10" s="8" t="n"/>
+      <c r="U10" s="8" t="n"/>
+      <c r="V10" s="8" t="n"/>
+      <c r="W10" s="8" t="n"/>
+      <c r="X10" s="8" t="n"/>
+      <c r="Y10" s="9" t="n"/>
     </row>
     <row r="11">
-      <c r="C11" s="6" t="inlineStr">
-        <is>
-          <t>gender_share_m</t>
-        </is>
-      </c>
-      <c r="D11" s="7" t="n">
-        <v>71.52746960149108</v>
-      </c>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
-      <c r="I11" s="5" t="n"/>
-      <c r="J11" s="5" t="n"/>
-      <c r="K11" s="6" t="inlineStr">
-        <is>
-          <t>silent_generation</t>
-        </is>
-      </c>
-      <c r="L11" s="7" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="M11" s="5" t="n"/>
-      <c r="N11" s="5" t="n"/>
-      <c r="O11" s="5" t="n"/>
-      <c r="P11" s="5" t="n"/>
-      <c r="Q11" s="5" t="n"/>
-      <c r="R11" s="5" t="n"/>
-      <c r="S11" s="6" t="inlineStr">
-        <is>
-          <t>time_slots_0</t>
-        </is>
-      </c>
-      <c r="T11" s="7" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="U11" s="5" t="n"/>
-      <c r="V11" s="5" t="n"/>
-      <c r="W11" s="5" t="n"/>
-      <c r="X11" s="5" t="n"/>
-      <c r="Y11" s="5" t="n"/>
-      <c r="Z11" s="5" t="n"/>
+      <c r="D11" s="7" t="n"/>
+      <c r="E11" s="7" t="n"/>
+      <c r="H11" s="9" t="n"/>
+      <c r="I11" s="8" t="n"/>
+      <c r="J11" s="8" t="n"/>
+      <c r="K11" s="13" t="inlineStr">
+        <is>
+          <t>Bike ID and Anzahl Nutzung</t>
+        </is>
+      </c>
+      <c r="O11" s="8" t="n"/>
+      <c r="P11" s="8" t="n"/>
+      <c r="Q11" s="13" t="inlineStr">
+        <is>
+          <t>Top 10 most start stations and Anzahl Nutzung</t>
+        </is>
+      </c>
+      <c r="U11" s="8" t="n"/>
+      <c r="V11" s="8" t="n"/>
+      <c r="W11" s="13" t="inlineStr">
+        <is>
+          <t>Top 10 most end stations and Anzahl Nutzung</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>gender_share_w</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="n">
-        <v>22.65021744918789</v>
-      </c>
-      <c r="E12" s="5" t="n"/>
-      <c r="F12" s="5" t="n"/>
-      <c r="G12" s="5" t="n"/>
-      <c r="H12" s="5" t="n"/>
-      <c r="I12" s="5" t="n"/>
-      <c r="J12" s="5" t="n"/>
-      <c r="K12" s="6" t="inlineStr">
-        <is>
-          <t>generation_x</t>
-        </is>
-      </c>
-      <c r="L12" s="7" t="n">
-        <v>21.82</v>
-      </c>
-      <c r="M12" s="5" t="n"/>
-      <c r="N12" s="5" t="n"/>
-      <c r="O12" s="5" t="n"/>
-      <c r="P12" s="5" t="n"/>
-      <c r="Q12" s="5" t="n"/>
-      <c r="R12" s="5" t="n"/>
-      <c r="S12" s="6" t="inlineStr">
-        <is>
-          <t>time_slots_1</t>
-        </is>
-      </c>
-      <c r="T12" s="7" t="n">
-        <v>33.78</v>
-      </c>
-      <c r="U12" s="5" t="n"/>
-      <c r="V12" s="5" t="n"/>
-      <c r="W12" s="5" t="n"/>
-      <c r="X12" s="5" t="n"/>
-      <c r="Y12" s="5" t="n"/>
-      <c r="Z12" s="5" t="n"/>
+      <c r="D12" s="7" t="n"/>
+      <c r="E12" s="7" t="n"/>
+      <c r="H12" s="9" t="n"/>
+      <c r="I12" s="8" t="n"/>
+      <c r="J12" s="8" t="n"/>
+      <c r="O12" s="8" t="n"/>
+      <c r="P12" s="8" t="n"/>
+      <c r="U12" s="8" t="n"/>
+      <c r="V12" s="8" t="n"/>
     </row>
     <row r="13">
-      <c r="C13" s="6" t="inlineStr">
-        <is>
-          <t>gender_share_na</t>
-        </is>
-      </c>
-      <c r="D13" s="7" t="n">
-        <v>5.822312949321026</v>
-      </c>
-      <c r="E13" s="5" t="n"/>
-      <c r="F13" s="5" t="n"/>
-      <c r="G13" s="5" t="n"/>
-      <c r="H13" s="5" t="n"/>
-      <c r="I13" s="5" t="n"/>
-      <c r="J13" s="5" t="n"/>
-      <c r="K13" s="6" t="inlineStr">
-        <is>
-          <t>generation_y</t>
-        </is>
-      </c>
-      <c r="L13" s="7" t="n">
-        <v>64.97</v>
-      </c>
-      <c r="M13" s="5" t="n"/>
-      <c r="N13" s="5" t="n"/>
-      <c r="O13" s="5" t="n"/>
-      <c r="P13" s="5" t="n"/>
-      <c r="Q13" s="5" t="n"/>
-      <c r="R13" s="5" t="n"/>
-      <c r="S13" s="6" t="inlineStr">
-        <is>
-          <t>time_slots_2</t>
-        </is>
-      </c>
-      <c r="T13" s="7" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="U13" s="5" t="n"/>
-      <c r="V13" s="5" t="n"/>
-      <c r="W13" s="5" t="n"/>
-      <c r="X13" s="5" t="n"/>
-      <c r="Y13" s="5" t="n"/>
-      <c r="Z13" s="5" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="14" t="n"/>
+      <c r="F13" s="15" t="n"/>
+      <c r="G13" s="15" t="n"/>
+      <c r="H13" s="16" t="n"/>
+      <c r="I13" s="8" t="n"/>
+      <c r="J13" s="8" t="n"/>
+      <c r="K13" s="8" t="n"/>
+      <c r="L13" s="8" t="n"/>
+      <c r="M13" s="8" t="n"/>
+      <c r="N13" s="8" t="n"/>
+      <c r="O13" s="8" t="n"/>
+      <c r="P13" s="8" t="n"/>
+      <c r="Q13" s="8" t="n"/>
+      <c r="R13" s="8" t="n"/>
+      <c r="S13" s="8" t="n"/>
+      <c r="T13" s="8" t="n"/>
+      <c r="U13" s="8" t="n"/>
+      <c r="V13" s="8" t="n"/>
+      <c r="W13" s="8" t="n"/>
+      <c r="X13" s="8" t="n"/>
+      <c r="Y13" s="9" t="n"/>
     </row>
     <row r="14">
-      <c r="C14" s="5" t="n"/>
-      <c r="D14" s="5" t="n"/>
-      <c r="E14" s="5" t="n"/>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="5" t="n"/>
-      <c r="H14" s="5" t="n"/>
-      <c r="I14" s="5" t="n"/>
-      <c r="J14" s="5" t="n"/>
-      <c r="K14" s="6" t="inlineStr">
-        <is>
-          <t>generation_z</t>
-        </is>
-      </c>
-      <c r="L14" s="7" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="M14" s="5" t="n"/>
-      <c r="N14" s="5" t="n"/>
-      <c r="O14" s="5" t="n"/>
-      <c r="P14" s="5" t="n"/>
-      <c r="Q14" s="5" t="n"/>
-      <c r="R14" s="5" t="n"/>
-      <c r="S14" s="6" t="inlineStr">
-        <is>
-          <t>time_slots_3</t>
-        </is>
-      </c>
-      <c r="T14" s="7" t="n">
-        <v>27.51</v>
-      </c>
-      <c r="U14" s="5" t="n"/>
-      <c r="V14" s="5" t="n"/>
-      <c r="W14" s="5" t="n"/>
-      <c r="X14" s="5" t="n"/>
-      <c r="Y14" s="5" t="n"/>
-      <c r="Z14" s="5" t="n"/>
+      <c r="D14" s="7" t="n"/>
+      <c r="E14" s="8" t="n"/>
+      <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
+      <c r="H14" s="8" t="n"/>
+      <c r="I14" s="8" t="n"/>
+      <c r="J14" s="8" t="n"/>
+      <c r="K14" s="8" t="n"/>
+      <c r="L14" s="8" t="n"/>
+      <c r="M14" s="8" t="n"/>
+      <c r="N14" s="8" t="n"/>
+      <c r="O14" s="8" t="n"/>
+      <c r="P14" s="8" t="n"/>
+      <c r="Q14" s="8" t="n"/>
+      <c r="R14" s="8" t="n"/>
+      <c r="S14" s="8" t="n"/>
+      <c r="T14" s="8" t="n"/>
+      <c r="U14" s="8" t="n"/>
+      <c r="V14" s="8" t="n"/>
+      <c r="W14" s="8" t="n"/>
+      <c r="X14" s="8" t="n"/>
+      <c r="Y14" s="9" t="n"/>
     </row>
     <row r="15">
-      <c r="C15" s="5" t="n"/>
-      <c r="D15" s="5" t="n"/>
-      <c r="E15" s="5" t="n"/>
-      <c r="F15" s="5" t="n"/>
-      <c r="G15" s="5" t="n"/>
-      <c r="H15" s="5" t="n"/>
-      <c r="I15" s="5" t="n"/>
-      <c r="J15" s="5" t="n"/>
-      <c r="K15" s="6" t="inlineStr">
-        <is>
-          <t>baby_boomer</t>
-        </is>
-      </c>
-      <c r="L15" s="7" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="M15" s="5" t="n"/>
-      <c r="N15" s="5" t="n"/>
-      <c r="O15" s="5" t="n"/>
-      <c r="P15" s="5" t="n"/>
-      <c r="Q15" s="5" t="n"/>
-      <c r="R15" s="5" t="n"/>
-      <c r="S15" s="5" t="n"/>
-      <c r="T15" s="5" t="n"/>
-      <c r="U15" s="5" t="n"/>
-      <c r="V15" s="5" t="n"/>
-      <c r="W15" s="5" t="n"/>
-      <c r="X15" s="5" t="n"/>
-      <c r="Y15" s="5" t="n"/>
-      <c r="Z15" s="5" t="n"/>
+      <c r="D15" s="7" t="n"/>
+      <c r="E15" s="17" t="inlineStr">
+        <is>
+          <t>Average Trip Duration</t>
+        </is>
+      </c>
+      <c r="F15" s="11" t="n"/>
+      <c r="G15" s="11" t="n"/>
+      <c r="H15" s="12" t="n"/>
+      <c r="I15" s="8" t="n"/>
+      <c r="J15" s="8" t="n"/>
+      <c r="K15" s="13" t="inlineStr">
+        <is>
+          <t>Bike ID</t>
+        </is>
+      </c>
+      <c r="M15" s="13" t="inlineStr">
+        <is>
+          <t>Anzahl Nutzung</t>
+        </is>
+      </c>
+      <c r="O15" s="8" t="n"/>
+      <c r="P15" s="8" t="n"/>
+      <c r="Q15" s="13" t="inlineStr">
+        <is>
+          <t>Top 10 most start stations</t>
+        </is>
+      </c>
+      <c r="S15" s="13" t="inlineStr">
+        <is>
+          <t>Anzahl Nutzung</t>
+        </is>
+      </c>
+      <c r="U15" s="8" t="n"/>
+      <c r="V15" s="8" t="n"/>
+      <c r="W15" s="13" t="inlineStr">
+        <is>
+          <t>Top 10 most end stations</t>
+        </is>
+      </c>
+      <c r="Y15" s="18" t="inlineStr">
+        <is>
+          <t>Anzahl Nutzung</t>
+        </is>
+      </c>
+      <c r="Z15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="K16" s="8" t="inlineStr">
-        <is>
-          <t>generation_alpha</t>
-        </is>
-      </c>
-      <c r="L16" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="D16" s="7" t="n"/>
+      <c r="E16" s="7" t="n"/>
+      <c r="H16" s="9" t="n"/>
+      <c r="I16" s="8" t="n"/>
+      <c r="J16" s="8" t="n"/>
+      <c r="O16" s="8" t="n"/>
+      <c r="P16" s="8" t="n"/>
+      <c r="U16" s="8" t="n"/>
+      <c r="V16" s="8" t="n"/>
+      <c r="Z16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="K17" s="8" t="inlineStr">
-        <is>
-          <t>no_generation_data</t>
-        </is>
-      </c>
-      <c r="L17" s="9" t="n">
-        <v>5.82</v>
-      </c>
+      <c r="D17" s="7" t="n"/>
+      <c r="E17" s="7" t="n"/>
+      <c r="H17" s="9" t="n"/>
+      <c r="I17" s="8" t="n"/>
+      <c r="J17" s="19" t="inlineStr">
+        <is>
+          <t>Platz 1</t>
+        </is>
+      </c>
+      <c r="K17" s="19" t="n">
+        <v>1098</v>
+      </c>
+      <c r="L17" s="20" t="n"/>
+      <c r="M17" s="19" t="n">
+        <v>72</v>
+      </c>
+      <c r="N17" s="20" t="n"/>
+      <c r="O17" s="8" t="n"/>
+      <c r="P17" s="19" t="inlineStr">
+        <is>
+          <t>Platz 1</t>
+        </is>
+      </c>
+      <c r="Q17" s="19" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St</t>
+        </is>
+      </c>
+      <c r="R17" s="20" t="n"/>
+      <c r="S17" s="19" t="n">
+        <v>904</v>
+      </c>
+      <c r="T17" s="20" t="n"/>
+      <c r="U17" s="8" t="n"/>
+      <c r="V17" s="19" t="inlineStr">
+        <is>
+          <t>Platz 1</t>
+        </is>
+      </c>
+      <c r="W17" s="19" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St</t>
+        </is>
+      </c>
+      <c r="X17" s="20" t="n"/>
+      <c r="Y17" s="19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z17" s="20" t="n"/>
+    </row>
+    <row r="18">
+      <c r="D18" s="7" t="n"/>
+      <c r="E18" s="14" t="n"/>
+      <c r="F18" s="15" t="n"/>
+      <c r="G18" s="15" t="n"/>
+      <c r="H18" s="16" t="n"/>
+      <c r="I18" s="8" t="n"/>
+      <c r="J18" s="20" t="n"/>
+      <c r="K18" s="20" t="n"/>
+      <c r="L18" s="20" t="n"/>
+      <c r="M18" s="20" t="n"/>
+      <c r="N18" s="20" t="n"/>
+      <c r="O18" s="8" t="n"/>
+      <c r="P18" s="20" t="n"/>
+      <c r="Q18" s="20" t="n"/>
+      <c r="R18" s="20" t="n"/>
+      <c r="S18" s="20" t="n"/>
+      <c r="T18" s="20" t="n"/>
+      <c r="U18" s="8" t="n"/>
+      <c r="V18" s="20" t="n"/>
+      <c r="W18" s="20" t="n"/>
+      <c r="X18" s="20" t="n"/>
+      <c r="Y18" s="20" t="n"/>
+      <c r="Z18" s="20" t="n"/>
+    </row>
+    <row r="19">
+      <c r="D19" s="7" t="n"/>
+      <c r="E19" s="21" t="n">
+        <v>9</v>
+      </c>
+      <c r="I19" s="8" t="n"/>
+      <c r="J19" s="19" t="inlineStr">
+        <is>
+          <t>Platz 2</t>
+        </is>
+      </c>
+      <c r="K19" s="19" t="n">
+        <v>883</v>
+      </c>
+      <c r="L19" s="20" t="n"/>
+      <c r="M19" s="19" t="n">
+        <v>64</v>
+      </c>
+      <c r="N19" s="20" t="n"/>
+      <c r="O19" s="8" t="n"/>
+      <c r="P19" s="19" t="inlineStr">
+        <is>
+          <t>Platz 2</t>
+        </is>
+      </c>
+      <c r="Q19" s="19" t="inlineStr">
+        <is>
+          <t>Central Square at Mass Ave / Essex St</t>
+        </is>
+      </c>
+      <c r="R19" s="20" t="n"/>
+      <c r="S19" s="19" t="n">
+        <v>701</v>
+      </c>
+      <c r="T19" s="20" t="n"/>
+      <c r="U19" s="8" t="n"/>
+      <c r="V19" s="19" t="inlineStr">
+        <is>
+          <t>Platz 2</t>
+        </is>
+      </c>
+      <c r="W19" s="19" t="inlineStr">
+        <is>
+          <t>Ames St at Main St</t>
+        </is>
+      </c>
+      <c r="X19" s="20" t="n"/>
+      <c r="Y19" s="19" t="n">
+        <v>741</v>
+      </c>
+      <c r="Z19" s="20" t="n"/>
+    </row>
+    <row r="20">
+      <c r="D20" s="7" t="n"/>
+      <c r="I20" s="8" t="n"/>
+      <c r="J20" s="20" t="n"/>
+      <c r="K20" s="20" t="n"/>
+      <c r="L20" s="20" t="n"/>
+      <c r="M20" s="20" t="n"/>
+      <c r="N20" s="20" t="n"/>
+      <c r="O20" s="8" t="n"/>
+      <c r="P20" s="20" t="n"/>
+      <c r="Q20" s="20" t="n"/>
+      <c r="R20" s="20" t="n"/>
+      <c r="S20" s="20" t="n"/>
+      <c r="T20" s="20" t="n"/>
+      <c r="U20" s="8" t="n"/>
+      <c r="V20" s="20" t="n"/>
+      <c r="W20" s="20" t="n"/>
+      <c r="X20" s="20" t="n"/>
+      <c r="Y20" s="20" t="n"/>
+      <c r="Z20" s="20" t="n"/>
+    </row>
+    <row r="21">
+      <c r="D21" s="7" t="n"/>
+      <c r="I21" s="8" t="n"/>
+      <c r="J21" s="19" t="inlineStr">
+        <is>
+          <t>Platz 3</t>
+        </is>
+      </c>
+      <c r="K21" s="19" t="n">
+        <v>1302</v>
+      </c>
+      <c r="L21" s="20" t="n"/>
+      <c r="M21" s="19" t="n">
+        <v>61</v>
+      </c>
+      <c r="N21" s="20" t="n"/>
+      <c r="O21" s="8" t="n"/>
+      <c r="P21" s="19" t="inlineStr">
+        <is>
+          <t>Platz 3</t>
+        </is>
+      </c>
+      <c r="Q21" s="19" t="inlineStr">
+        <is>
+          <t>Ames St at Main St</t>
+        </is>
+      </c>
+      <c r="R21" s="20" t="n"/>
+      <c r="S21" s="19" t="n">
+        <v>695</v>
+      </c>
+      <c r="T21" s="20" t="n"/>
+      <c r="U21" s="8" t="n"/>
+      <c r="V21" s="19" t="inlineStr">
+        <is>
+          <t>Platz 3</t>
+        </is>
+      </c>
+      <c r="W21" s="19" t="inlineStr">
+        <is>
+          <t>MIT Stata Center at Vassar St / Main St</t>
+        </is>
+      </c>
+      <c r="X21" s="20" t="n"/>
+      <c r="Y21" s="19" t="n">
+        <v>685</v>
+      </c>
+      <c r="Z21" s="20" t="n"/>
+    </row>
+    <row r="22">
+      <c r="D22" s="7" t="n"/>
+      <c r="I22" s="8" t="n"/>
+      <c r="J22" s="20" t="n"/>
+      <c r="K22" s="20" t="n"/>
+      <c r="L22" s="20" t="n"/>
+      <c r="M22" s="20" t="n"/>
+      <c r="N22" s="20" t="n"/>
+      <c r="O22" s="8" t="n"/>
+      <c r="P22" s="20" t="n"/>
+      <c r="Q22" s="20" t="n"/>
+      <c r="R22" s="20" t="n"/>
+      <c r="S22" s="20" t="n"/>
+      <c r="T22" s="20" t="n"/>
+      <c r="U22" s="8" t="n"/>
+      <c r="V22" s="20" t="n"/>
+      <c r="W22" s="20" t="n"/>
+      <c r="X22" s="20" t="n"/>
+      <c r="Y22" s="20" t="n"/>
+      <c r="Z22" s="20" t="n"/>
+    </row>
+    <row r="23">
+      <c r="D23" s="7" t="n"/>
+      <c r="I23" s="8" t="n"/>
+      <c r="J23" s="19" t="inlineStr">
+        <is>
+          <t>Platz 4</t>
+        </is>
+      </c>
+      <c r="K23" s="19" t="n">
+        <v>660</v>
+      </c>
+      <c r="L23" s="20" t="n"/>
+      <c r="M23" s="19" t="n">
+        <v>61</v>
+      </c>
+      <c r="N23" s="20" t="n"/>
+      <c r="O23" s="8" t="n"/>
+      <c r="P23" s="19" t="inlineStr">
+        <is>
+          <t>Platz 4</t>
+        </is>
+      </c>
+      <c r="Q23" s="19" t="inlineStr">
+        <is>
+          <t>MIT Stata Center at Vassar St / Main St</t>
+        </is>
+      </c>
+      <c r="R23" s="20" t="n"/>
+      <c r="S23" s="19" t="n">
+        <v>605</v>
+      </c>
+      <c r="T23" s="20" t="n"/>
+      <c r="U23" s="8" t="n"/>
+      <c r="V23" s="19" t="inlineStr">
+        <is>
+          <t>Platz 4</t>
+        </is>
+      </c>
+      <c r="W23" s="19" t="inlineStr">
+        <is>
+          <t>Central Square at Mass Ave / Essex St</t>
+        </is>
+      </c>
+      <c r="X23" s="20" t="n"/>
+      <c r="Y23" s="19" t="n">
+        <v>632</v>
+      </c>
+      <c r="Z23" s="20" t="n"/>
+    </row>
+    <row r="24">
+      <c r="D24" s="7" t="n"/>
+      <c r="I24" s="8" t="n"/>
+      <c r="J24" s="20" t="n"/>
+      <c r="K24" s="20" t="n"/>
+      <c r="L24" s="20" t="n"/>
+      <c r="M24" s="20" t="n"/>
+      <c r="N24" s="20" t="n"/>
+      <c r="O24" s="8" t="n"/>
+      <c r="P24" s="20" t="n"/>
+      <c r="Q24" s="20" t="n"/>
+      <c r="R24" s="20" t="n"/>
+      <c r="S24" s="20" t="n"/>
+      <c r="T24" s="20" t="n"/>
+      <c r="U24" s="8" t="n"/>
+      <c r="V24" s="20" t="n"/>
+      <c r="W24" s="20" t="n"/>
+      <c r="X24" s="20" t="n"/>
+      <c r="Y24" s="20" t="n"/>
+      <c r="Z24" s="20" t="n"/>
+    </row>
+    <row r="25">
+      <c r="D25" s="7" t="n"/>
+      <c r="E25" s="8" t="n"/>
+      <c r="F25" s="8" t="n"/>
+      <c r="G25" s="8" t="n"/>
+      <c r="H25" s="8" t="n"/>
+      <c r="I25" s="8" t="n"/>
+      <c r="J25" s="19" t="inlineStr">
+        <is>
+          <t>Platz 5</t>
+        </is>
+      </c>
+      <c r="K25" s="19" t="n">
+        <v>1086</v>
+      </c>
+      <c r="L25" s="20" t="n"/>
+      <c r="M25" s="19" t="n">
+        <v>60</v>
+      </c>
+      <c r="N25" s="20" t="n"/>
+      <c r="O25" s="8" t="n"/>
+      <c r="P25" s="19" t="inlineStr">
+        <is>
+          <t>Platz 5</t>
+        </is>
+      </c>
+      <c r="Q25" s="19" t="inlineStr">
+        <is>
+          <t>Inman Square at Vellucci Plaza / Hampshire St</t>
+        </is>
+      </c>
+      <c r="R25" s="20" t="n"/>
+      <c r="S25" s="19" t="n">
+        <v>597</v>
+      </c>
+      <c r="T25" s="20" t="n"/>
+      <c r="U25" s="8" t="n"/>
+      <c r="V25" s="19" t="inlineStr">
+        <is>
+          <t>Platz 5</t>
+        </is>
+      </c>
+      <c r="W25" s="19" t="inlineStr">
+        <is>
+          <t>Central Sq Post Office / Cambridge City Hall at Mass Ave / Pleasant St</t>
+        </is>
+      </c>
+      <c r="X25" s="20" t="n"/>
+      <c r="Y25" s="19" t="n">
+        <v>620</v>
+      </c>
+      <c r="Z25" s="20" t="n"/>
+    </row>
+    <row r="26">
+      <c r="D26" s="7" t="n"/>
+      <c r="E26" s="17" t="inlineStr">
+        <is>
+          <t>Average Distance</t>
+        </is>
+      </c>
+      <c r="F26" s="11" t="n"/>
+      <c r="G26" s="11" t="n"/>
+      <c r="H26" s="12" t="n"/>
+      <c r="I26" s="8" t="n"/>
+      <c r="J26" s="20" t="n"/>
+      <c r="K26" s="20" t="n"/>
+      <c r="L26" s="20" t="n"/>
+      <c r="M26" s="20" t="n"/>
+      <c r="N26" s="20" t="n"/>
+      <c r="O26" s="8" t="n"/>
+      <c r="P26" s="20" t="n"/>
+      <c r="Q26" s="20" t="n"/>
+      <c r="R26" s="20" t="n"/>
+      <c r="S26" s="20" t="n"/>
+      <c r="T26" s="20" t="n"/>
+      <c r="U26" s="8" t="n"/>
+      <c r="V26" s="20" t="n"/>
+      <c r="W26" s="20" t="n"/>
+      <c r="X26" s="20" t="n"/>
+      <c r="Y26" s="20" t="n"/>
+      <c r="Z26" s="20" t="n"/>
+    </row>
+    <row r="27">
+      <c r="D27" s="7" t="n"/>
+      <c r="E27" s="7" t="n"/>
+      <c r="H27" s="9" t="n"/>
+      <c r="I27" s="8" t="n"/>
+      <c r="J27" s="19" t="inlineStr">
+        <is>
+          <t>Platz 6</t>
+        </is>
+      </c>
+      <c r="K27" s="19" t="n">
+        <v>1096</v>
+      </c>
+      <c r="L27" s="20" t="n"/>
+      <c r="M27" s="19" t="n">
+        <v>59</v>
+      </c>
+      <c r="N27" s="20" t="n"/>
+      <c r="O27" s="8" t="n"/>
+      <c r="P27" s="19" t="inlineStr">
+        <is>
+          <t>Platz 6</t>
+        </is>
+      </c>
+      <c r="Q27" s="19" t="inlineStr">
+        <is>
+          <t>Central Sq Post Office / Cambridge City Hall at Mass Ave / Pleasant St</t>
+        </is>
+      </c>
+      <c r="R27" s="20" t="n"/>
+      <c r="S27" s="19" t="n">
+        <v>566</v>
+      </c>
+      <c r="T27" s="20" t="n"/>
+      <c r="U27" s="8" t="n"/>
+      <c r="V27" s="19" t="inlineStr">
+        <is>
+          <t>Platz 6</t>
+        </is>
+      </c>
+      <c r="W27" s="19" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster</t>
+        </is>
+      </c>
+      <c r="X27" s="20" t="n"/>
+      <c r="Y27" s="19" t="n">
+        <v>551</v>
+      </c>
+      <c r="Z27" s="20" t="n"/>
+    </row>
+    <row r="28">
+      <c r="D28" s="7" t="n"/>
+      <c r="E28" s="7" t="n"/>
+      <c r="H28" s="9" t="n"/>
+      <c r="I28" s="8" t="n"/>
+      <c r="J28" s="20" t="n"/>
+      <c r="K28" s="20" t="n"/>
+      <c r="L28" s="20" t="n"/>
+      <c r="M28" s="20" t="n"/>
+      <c r="N28" s="20" t="n"/>
+      <c r="O28" s="8" t="n"/>
+      <c r="P28" s="20" t="n"/>
+      <c r="Q28" s="20" t="n"/>
+      <c r="R28" s="20" t="n"/>
+      <c r="S28" s="20" t="n"/>
+      <c r="T28" s="20" t="n"/>
+      <c r="U28" s="8" t="n"/>
+      <c r="V28" s="20" t="n"/>
+      <c r="W28" s="20" t="n"/>
+      <c r="X28" s="20" t="n"/>
+      <c r="Y28" s="20" t="n"/>
+      <c r="Z28" s="20" t="n"/>
+    </row>
+    <row r="29">
+      <c r="D29" s="7" t="n"/>
+      <c r="E29" s="14" t="n"/>
+      <c r="F29" s="15" t="n"/>
+      <c r="G29" s="15" t="n"/>
+      <c r="H29" s="16" t="n"/>
+      <c r="I29" s="8" t="n"/>
+      <c r="J29" s="19" t="inlineStr">
+        <is>
+          <t>Platz 7</t>
+        </is>
+      </c>
+      <c r="K29" s="19" t="n">
+        <v>1081</v>
+      </c>
+      <c r="L29" s="20" t="n"/>
+      <c r="M29" s="19" t="n">
+        <v>59</v>
+      </c>
+      <c r="N29" s="20" t="n"/>
+      <c r="O29" s="8" t="n"/>
+      <c r="P29" s="19" t="inlineStr">
+        <is>
+          <t>Platz 7</t>
+        </is>
+      </c>
+      <c r="Q29" s="19" t="inlineStr">
+        <is>
+          <t>One Kendall Square at Hampshire St / Portland St</t>
+        </is>
+      </c>
+      <c r="R29" s="20" t="n"/>
+      <c r="S29" s="19" t="n">
+        <v>555</v>
+      </c>
+      <c r="T29" s="20" t="n"/>
+      <c r="U29" s="8" t="n"/>
+      <c r="V29" s="19" t="inlineStr">
+        <is>
+          <t>Platz 7</t>
+        </is>
+      </c>
+      <c r="W29" s="19" t="inlineStr">
+        <is>
+          <t>Inman Square at Vellucci Plaza / Hampshire St</t>
+        </is>
+      </c>
+      <c r="X29" s="20" t="n"/>
+      <c r="Y29" s="19" t="n">
+        <v>530</v>
+      </c>
+      <c r="Z29" s="20" t="n"/>
+    </row>
+    <row r="30">
+      <c r="D30" s="7" t="n"/>
+      <c r="E30" s="21" t="n">
+        <v>1.381539898720113</v>
+      </c>
+      <c r="I30" s="8" t="n"/>
+      <c r="J30" s="20" t="n"/>
+      <c r="K30" s="20" t="n"/>
+      <c r="L30" s="20" t="n"/>
+      <c r="M30" s="20" t="n"/>
+      <c r="N30" s="20" t="n"/>
+      <c r="O30" s="8" t="n"/>
+      <c r="P30" s="20" t="n"/>
+      <c r="Q30" s="20" t="n"/>
+      <c r="R30" s="20" t="n"/>
+      <c r="S30" s="20" t="n"/>
+      <c r="T30" s="20" t="n"/>
+      <c r="U30" s="8" t="n"/>
+      <c r="V30" s="20" t="n"/>
+      <c r="W30" s="20" t="n"/>
+      <c r="X30" s="20" t="n"/>
+      <c r="Y30" s="20" t="n"/>
+      <c r="Z30" s="20" t="n"/>
+    </row>
+    <row r="31">
+      <c r="D31" s="7" t="n"/>
+      <c r="I31" s="8" t="n"/>
+      <c r="J31" s="19" t="inlineStr">
+        <is>
+          <t>Platz 8</t>
+        </is>
+      </c>
+      <c r="K31" s="19" t="n">
+        <v>1096</v>
+      </c>
+      <c r="L31" s="20" t="n"/>
+      <c r="M31" s="19" t="n">
+        <v>59</v>
+      </c>
+      <c r="N31" s="20" t="n"/>
+      <c r="O31" s="8" t="n"/>
+      <c r="P31" s="19" t="inlineStr">
+        <is>
+          <t>Platz 8</t>
+        </is>
+      </c>
+      <c r="Q31" s="19" t="inlineStr">
+        <is>
+          <t>Lafayette Square at Mass Ave / Main St / Columbia St</t>
+        </is>
+      </c>
+      <c r="R31" s="20" t="n"/>
+      <c r="S31" s="19" t="n">
+        <v>498</v>
+      </c>
+      <c r="T31" s="20" t="n"/>
+      <c r="U31" s="8" t="n"/>
+      <c r="V31" s="19" t="inlineStr">
+        <is>
+          <t>Platz 8</t>
+        </is>
+      </c>
+      <c r="W31" s="19" t="inlineStr">
+        <is>
+          <t>One Kendall Square at Hampshire St / Portland St</t>
+        </is>
+      </c>
+      <c r="X31" s="20" t="n"/>
+      <c r="Y31" s="19" t="n">
+        <v>497</v>
+      </c>
+      <c r="Z31" s="20" t="n"/>
+    </row>
+    <row r="32">
+      <c r="D32" s="7" t="n"/>
+      <c r="I32" s="8" t="n"/>
+      <c r="J32" s="20" t="n"/>
+      <c r="K32" s="20" t="n"/>
+      <c r="L32" s="20" t="n"/>
+      <c r="M32" s="20" t="n"/>
+      <c r="N32" s="20" t="n"/>
+      <c r="O32" s="8" t="n"/>
+      <c r="P32" s="20" t="n"/>
+      <c r="Q32" s="20" t="n"/>
+      <c r="R32" s="20" t="n"/>
+      <c r="S32" s="20" t="n"/>
+      <c r="T32" s="20" t="n"/>
+      <c r="U32" s="8" t="n"/>
+      <c r="V32" s="20" t="n"/>
+      <c r="W32" s="20" t="n"/>
+      <c r="X32" s="20" t="n"/>
+      <c r="Y32" s="20" t="n"/>
+      <c r="Z32" s="20" t="n"/>
+    </row>
+    <row r="33">
+      <c r="D33" s="7" t="n"/>
+      <c r="I33" s="8" t="n"/>
+      <c r="J33" s="19" t="inlineStr">
+        <is>
+          <t>Platz 9</t>
+        </is>
+      </c>
+      <c r="K33" s="19" t="n">
+        <v>773</v>
+      </c>
+      <c r="L33" s="20" t="n"/>
+      <c r="M33" s="19" t="n">
+        <v>59</v>
+      </c>
+      <c r="N33" s="20" t="n"/>
+      <c r="O33" s="8" t="n"/>
+      <c r="P33" s="19" t="inlineStr">
+        <is>
+          <t>Platz 9</t>
+        </is>
+      </c>
+      <c r="Q33" s="19" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster</t>
+        </is>
+      </c>
+      <c r="R33" s="20" t="n"/>
+      <c r="S33" s="19" t="n">
+        <v>495</v>
+      </c>
+      <c r="T33" s="20" t="n"/>
+      <c r="U33" s="8" t="n"/>
+      <c r="V33" s="19" t="inlineStr">
+        <is>
+          <t>Platz 9</t>
+        </is>
+      </c>
+      <c r="W33" s="19" t="inlineStr">
+        <is>
+          <t>Lafayette Square at Mass Ave / Main St / Columbia St</t>
+        </is>
+      </c>
+      <c r="X33" s="20" t="n"/>
+      <c r="Y33" s="19" t="n">
+        <v>476</v>
+      </c>
+      <c r="Z33" s="20" t="n"/>
+    </row>
+    <row r="34">
+      <c r="D34" s="7" t="n"/>
+      <c r="I34" s="8" t="n"/>
+      <c r="J34" s="20" t="n"/>
+      <c r="K34" s="20" t="n"/>
+      <c r="L34" s="20" t="n"/>
+      <c r="M34" s="20" t="n"/>
+      <c r="N34" s="20" t="n"/>
+      <c r="O34" s="8" t="n"/>
+      <c r="P34" s="20" t="n"/>
+      <c r="Q34" s="20" t="n"/>
+      <c r="R34" s="20" t="n"/>
+      <c r="S34" s="20" t="n"/>
+      <c r="T34" s="20" t="n"/>
+      <c r="U34" s="8" t="n"/>
+      <c r="V34" s="20" t="n"/>
+      <c r="W34" s="20" t="n"/>
+      <c r="X34" s="20" t="n"/>
+      <c r="Y34" s="20" t="n"/>
+      <c r="Z34" s="20" t="n"/>
+    </row>
+    <row r="35">
+      <c r="D35" s="7" t="n"/>
+      <c r="I35" s="8" t="n"/>
+      <c r="J35" s="19" t="inlineStr">
+        <is>
+          <t>Platz 10</t>
+        </is>
+      </c>
+      <c r="K35" s="19" t="n">
+        <v>769</v>
+      </c>
+      <c r="L35" s="20" t="n"/>
+      <c r="M35" s="19" t="n">
+        <v>58</v>
+      </c>
+      <c r="N35" s="20" t="n"/>
+      <c r="O35" s="8" t="n"/>
+      <c r="P35" s="19" t="inlineStr">
+        <is>
+          <t>Platz 10</t>
+        </is>
+      </c>
+      <c r="Q35" s="19" t="inlineStr">
+        <is>
+          <t>Cambridge Main Library at Broadway / Trowbridge St</t>
+        </is>
+      </c>
+      <c r="R35" s="20" t="n"/>
+      <c r="S35" s="19" t="n">
+        <v>453</v>
+      </c>
+      <c r="T35" s="20" t="n"/>
+      <c r="U35" s="8" t="n"/>
+      <c r="V35" s="19" t="inlineStr">
+        <is>
+          <t>Platz 10</t>
+        </is>
+      </c>
+      <c r="W35" s="19" t="inlineStr">
+        <is>
+          <t>Cambridge Main Library at Broadway / Trowbridge St</t>
+        </is>
+      </c>
+      <c r="X35" s="20" t="n"/>
+      <c r="Y35" s="19" t="n">
+        <v>395</v>
+      </c>
+      <c r="Z35" s="20" t="n"/>
+    </row>
+    <row r="36">
+      <c r="D36" s="7" t="n"/>
+      <c r="E36" s="8" t="n"/>
+      <c r="F36" s="8" t="n"/>
+      <c r="G36" s="8" t="n"/>
+      <c r="H36" s="8" t="n"/>
+      <c r="I36" s="8" t="n"/>
+      <c r="J36" s="20" t="n"/>
+      <c r="K36" s="20" t="n"/>
+      <c r="L36" s="20" t="n"/>
+      <c r="M36" s="20" t="n"/>
+      <c r="N36" s="20" t="n"/>
+      <c r="O36" s="8" t="n"/>
+      <c r="P36" s="20" t="n"/>
+      <c r="Q36" s="20" t="n"/>
+      <c r="R36" s="20" t="n"/>
+      <c r="S36" s="20" t="n"/>
+      <c r="T36" s="20" t="n"/>
+      <c r="U36" s="8" t="n"/>
+      <c r="V36" s="20" t="n"/>
+      <c r="W36" s="20" t="n"/>
+      <c r="X36" s="20" t="n"/>
+      <c r="Y36" s="20" t="n"/>
+      <c r="Z36" s="20" t="n"/>
+    </row>
+    <row r="37">
+      <c r="D37" s="7" t="n"/>
+      <c r="E37" s="8" t="n"/>
+      <c r="F37" s="8" t="n"/>
+      <c r="G37" s="8" t="n"/>
+      <c r="H37" s="8" t="n"/>
+      <c r="I37" s="8" t="n"/>
+      <c r="J37" s="8" t="n"/>
+      <c r="K37" s="8" t="n"/>
+      <c r="L37" s="8" t="n"/>
+      <c r="M37" s="8" t="n"/>
+      <c r="N37" s="8" t="n"/>
+      <c r="O37" s="8" t="n"/>
+      <c r="P37" s="8" t="n"/>
+      <c r="Q37" s="8" t="n"/>
+      <c r="R37" s="8" t="n"/>
+      <c r="S37" s="8" t="n"/>
+      <c r="T37" s="8" t="n"/>
+      <c r="U37" s="8" t="n"/>
+      <c r="V37" s="8" t="n"/>
+      <c r="W37" s="8" t="n"/>
+      <c r="X37" s="8" t="n"/>
+      <c r="Y37" s="9" t="n"/>
+    </row>
+    <row r="38">
+      <c r="D38" s="7" t="n"/>
+      <c r="E38" s="8" t="n"/>
+      <c r="F38" s="8" t="n"/>
+      <c r="G38" s="8" t="n"/>
+      <c r="H38" s="8" t="n"/>
+      <c r="I38" s="8" t="n"/>
+      <c r="J38" s="8" t="n"/>
+      <c r="K38" s="8" t="n"/>
+      <c r="L38" s="8" t="n"/>
+      <c r="M38" s="8" t="n"/>
+      <c r="N38" s="8" t="n"/>
+      <c r="O38" s="8" t="n"/>
+      <c r="P38" s="8" t="n"/>
+      <c r="Q38" s="8" t="n"/>
+      <c r="R38" s="8" t="n"/>
+      <c r="S38" s="8" t="n"/>
+      <c r="T38" s="8" t="n"/>
+      <c r="U38" s="8" t="n"/>
+      <c r="V38" s="8" t="n"/>
+      <c r="W38" s="8" t="n"/>
+      <c r="X38" s="8" t="n"/>
+      <c r="Y38" s="9" t="n"/>
+    </row>
+    <row r="39">
+      <c r="D39" s="7" t="n"/>
+      <c r="E39" s="8" t="n"/>
+      <c r="F39" s="8" t="n"/>
+      <c r="G39" s="8" t="n"/>
+      <c r="H39" s="8" t="n"/>
+      <c r="I39" s="8" t="n"/>
+      <c r="J39" s="8" t="n"/>
+      <c r="K39" s="8" t="n"/>
+      <c r="L39" s="8" t="n"/>
+      <c r="M39" s="8" t="n"/>
+      <c r="N39" s="8" t="n"/>
+      <c r="O39" s="8" t="n"/>
+      <c r="P39" s="8" t="n"/>
+      <c r="Q39" s="8" t="n"/>
+      <c r="R39" s="8" t="n"/>
+      <c r="S39" s="8" t="n"/>
+      <c r="T39" s="8" t="n"/>
+      <c r="U39" s="8" t="n"/>
+      <c r="V39" s="8" t="n"/>
+      <c r="W39" s="8" t="n"/>
+      <c r="X39" s="8" t="n"/>
+      <c r="Y39" s="9" t="n"/>
+    </row>
+    <row r="40">
+      <c r="D40" s="7" t="n"/>
+      <c r="E40" s="8" t="n"/>
+      <c r="F40" s="8" t="n"/>
+      <c r="G40" s="8" t="n"/>
+      <c r="H40" s="8" t="n"/>
+      <c r="I40" s="8" t="n"/>
+      <c r="J40" s="8" t="n"/>
+      <c r="K40" s="8" t="n"/>
+      <c r="L40" s="8" t="n"/>
+      <c r="M40" s="8" t="n"/>
+      <c r="N40" s="8" t="n"/>
+      <c r="O40" s="8" t="n"/>
+      <c r="P40" s="8" t="n"/>
+      <c r="Q40" s="8" t="n"/>
+      <c r="R40" s="8" t="n"/>
+      <c r="S40" s="8" t="n"/>
+      <c r="T40" s="8" t="n"/>
+      <c r="U40" s="8" t="n"/>
+      <c r="V40" s="8" t="n"/>
+      <c r="W40" s="8" t="n"/>
+      <c r="X40" s="8" t="n"/>
+      <c r="Y40" s="9" t="n"/>
+    </row>
+    <row r="41">
+      <c r="D41" s="7" t="n"/>
+      <c r="E41" s="8" t="n"/>
+      <c r="F41" s="8" t="n"/>
+      <c r="G41" s="8" t="n"/>
+      <c r="H41" s="8" t="n"/>
+      <c r="I41" s="8" t="n"/>
+      <c r="J41" s="8" t="n"/>
+      <c r="K41" s="8" t="n"/>
+      <c r="L41" s="8" t="n"/>
+      <c r="M41" s="8" t="n"/>
+      <c r="N41" s="8" t="n"/>
+      <c r="O41" s="8" t="n"/>
+      <c r="P41" s="8" t="n"/>
+      <c r="Q41" s="8" t="n"/>
+      <c r="R41" s="8" t="n"/>
+      <c r="S41" s="8" t="n"/>
+      <c r="T41" s="8" t="n"/>
+      <c r="U41" s="8" t="n"/>
+      <c r="V41" s="8" t="n"/>
+      <c r="W41" s="8" t="n"/>
+      <c r="X41" s="8" t="n"/>
+      <c r="Y41" s="9" t="n"/>
+    </row>
+    <row r="42">
+      <c r="D42" s="7" t="n"/>
+      <c r="E42" s="8" t="n"/>
+      <c r="F42" s="8" t="n"/>
+      <c r="G42" s="8" t="n"/>
+      <c r="H42" s="8" t="n"/>
+      <c r="I42" s="8" t="n"/>
+      <c r="J42" s="8" t="n"/>
+      <c r="K42" s="8" t="n"/>
+      <c r="L42" s="8" t="n"/>
+      <c r="M42" s="8" t="n"/>
+      <c r="N42" s="8" t="n"/>
+      <c r="O42" s="8" t="n"/>
+      <c r="P42" s="8" t="n"/>
+      <c r="Q42" s="8" t="n"/>
+      <c r="R42" s="8" t="n"/>
+      <c r="S42" s="8" t="n"/>
+      <c r="T42" s="8" t="n"/>
+      <c r="U42" s="8" t="n"/>
+      <c r="V42" s="8" t="n"/>
+      <c r="W42" s="8" t="n"/>
+      <c r="X42" s="8" t="n"/>
+      <c r="Y42" s="9" t="n"/>
+    </row>
+    <row r="43">
+      <c r="D43" s="7" t="n"/>
+      <c r="E43" s="8" t="n"/>
+      <c r="F43" s="8" t="n"/>
+      <c r="G43" s="8" t="n"/>
+      <c r="H43" s="8" t="n"/>
+      <c r="I43" s="8" t="n"/>
+      <c r="J43" s="8" t="n"/>
+      <c r="K43" s="8" t="n"/>
+      <c r="L43" s="8" t="n"/>
+      <c r="M43" s="8" t="n"/>
+      <c r="N43" s="8" t="n"/>
+      <c r="O43" s="8" t="n"/>
+      <c r="P43" s="8" t="n"/>
+      <c r="Q43" s="8" t="n"/>
+      <c r="R43" s="8" t="n"/>
+      <c r="S43" s="8" t="n"/>
+      <c r="T43" s="8" t="n"/>
+      <c r="U43" s="8" t="n"/>
+      <c r="V43" s="8" t="n"/>
+      <c r="W43" s="8" t="n"/>
+      <c r="X43" s="8" t="n"/>
+      <c r="Y43" s="9" t="n"/>
+    </row>
+    <row r="44">
+      <c r="D44" s="7" t="n"/>
+      <c r="E44" s="8" t="n"/>
+      <c r="F44" s="8" t="n"/>
+      <c r="G44" s="8" t="n"/>
+      <c r="H44" s="8" t="n"/>
+      <c r="I44" s="8" t="n"/>
+      <c r="J44" s="8" t="n"/>
+      <c r="K44" s="8" t="n"/>
+      <c r="L44" s="8" t="n"/>
+      <c r="M44" s="8" t="n"/>
+      <c r="N44" s="8" t="n"/>
+      <c r="O44" s="8" t="n"/>
+      <c r="P44" s="8" t="n"/>
+      <c r="Q44" s="8" t="n"/>
+      <c r="R44" s="8" t="n"/>
+      <c r="S44" s="8" t="n"/>
+      <c r="T44" s="8" t="n"/>
+      <c r="U44" s="8" t="n"/>
+      <c r="V44" s="8" t="n"/>
+      <c r="W44" s="8" t="n"/>
+      <c r="X44" s="8" t="n"/>
+      <c r="Y44" s="9" t="n"/>
+    </row>
+    <row r="45">
+      <c r="D45" s="7" t="n"/>
+      <c r="E45" s="8" t="n"/>
+      <c r="F45" s="8" t="n"/>
+      <c r="G45" s="8" t="n"/>
+      <c r="H45" s="8" t="n"/>
+      <c r="I45" s="8" t="n"/>
+      <c r="J45" s="8" t="n"/>
+      <c r="K45" s="8" t="n"/>
+      <c r="L45" s="8" t="n"/>
+      <c r="M45" s="8" t="n"/>
+      <c r="N45" s="8" t="n"/>
+      <c r="O45" s="8" t="n"/>
+      <c r="P45" s="8" t="n"/>
+      <c r="Q45" s="8" t="n"/>
+      <c r="R45" s="8" t="n"/>
+      <c r="S45" s="8" t="n"/>
+      <c r="T45" s="8" t="n"/>
+      <c r="U45" s="8" t="n"/>
+      <c r="V45" s="8" t="n"/>
+      <c r="W45" s="8" t="n"/>
+      <c r="X45" s="8" t="n"/>
+      <c r="Y45" s="9" t="n"/>
+    </row>
+    <row r="46">
+      <c r="D46" s="7" t="n"/>
+      <c r="E46" s="8" t="n"/>
+      <c r="F46" s="8" t="n"/>
+      <c r="G46" s="8" t="n"/>
+      <c r="H46" s="8" t="n"/>
+      <c r="I46" s="8" t="n"/>
+      <c r="J46" s="8" t="n"/>
+      <c r="K46" s="8" t="n"/>
+      <c r="L46" s="8" t="n"/>
+      <c r="M46" s="8" t="n"/>
+      <c r="N46" s="8" t="n"/>
+      <c r="O46" s="8" t="n"/>
+      <c r="P46" s="8" t="n"/>
+      <c r="Q46" s="8" t="n"/>
+      <c r="R46" s="8" t="n"/>
+      <c r="S46" s="8" t="n"/>
+      <c r="T46" s="8" t="n"/>
+      <c r="U46" s="8" t="n"/>
+      <c r="V46" s="8" t="n"/>
+      <c r="W46" s="8" t="n"/>
+      <c r="X46" s="8" t="n"/>
+      <c r="Y46" s="9" t="n"/>
+    </row>
+    <row r="47">
+      <c r="D47" s="7" t="n"/>
+      <c r="E47" s="8" t="n"/>
+      <c r="F47" s="8" t="n"/>
+      <c r="G47" s="8" t="n"/>
+      <c r="H47" s="8" t="n"/>
+      <c r="I47" s="8" t="n"/>
+      <c r="J47" s="8" t="n"/>
+      <c r="K47" s="8" t="n"/>
+      <c r="L47" s="8" t="n"/>
+      <c r="M47" s="8" t="n"/>
+      <c r="N47" s="8" t="n"/>
+      <c r="O47" s="8" t="n"/>
+      <c r="P47" s="8" t="n"/>
+      <c r="Q47" s="8" t="n"/>
+      <c r="R47" s="8" t="n"/>
+      <c r="S47" s="8" t="n"/>
+      <c r="T47" s="8" t="n"/>
+      <c r="U47" s="8" t="n"/>
+      <c r="V47" s="8" t="n"/>
+      <c r="W47" s="8" t="n"/>
+      <c r="X47" s="8" t="n"/>
+      <c r="Y47" s="9" t="n"/>
+    </row>
+    <row r="48">
+      <c r="D48" s="7" t="n"/>
+      <c r="E48" s="8" t="n"/>
+      <c r="F48" s="8" t="n"/>
+      <c r="G48" s="8" t="n"/>
+      <c r="H48" s="8" t="n"/>
+      <c r="I48" s="8" t="n"/>
+      <c r="J48" s="8" t="n"/>
+      <c r="K48" s="8" t="n"/>
+      <c r="L48" s="8" t="n"/>
+      <c r="M48" s="8" t="n"/>
+      <c r="N48" s="8" t="n"/>
+      <c r="O48" s="8" t="n"/>
+      <c r="P48" s="8" t="n"/>
+      <c r="Q48" s="8" t="n"/>
+      <c r="R48" s="8" t="n"/>
+      <c r="S48" s="8" t="n"/>
+      <c r="T48" s="8" t="n"/>
+      <c r="U48" s="8" t="n"/>
+      <c r="V48" s="8" t="n"/>
+      <c r="W48" s="8" t="n"/>
+      <c r="X48" s="8" t="n"/>
+      <c r="Y48" s="9" t="n"/>
+    </row>
+    <row r="49">
+      <c r="D49" s="7" t="n"/>
+      <c r="E49" s="8" t="n"/>
+      <c r="F49" s="8" t="n"/>
+      <c r="G49" s="8" t="n"/>
+      <c r="H49" s="8" t="n"/>
+      <c r="I49" s="8" t="n"/>
+      <c r="J49" s="8" t="n"/>
+      <c r="K49" s="8" t="n"/>
+      <c r="L49" s="8" t="n"/>
+      <c r="M49" s="8" t="n"/>
+      <c r="N49" s="8" t="n"/>
+      <c r="O49" s="8" t="n"/>
+      <c r="P49" s="8" t="n"/>
+      <c r="Q49" s="8" t="n"/>
+      <c r="R49" s="8" t="n"/>
+      <c r="S49" s="8" t="n"/>
+      <c r="T49" s="8" t="n"/>
+      <c r="U49" s="8" t="n"/>
+      <c r="V49" s="8" t="n"/>
+      <c r="W49" s="8" t="n"/>
+      <c r="X49" s="8" t="n"/>
+      <c r="Y49" s="9" t="n"/>
+    </row>
+    <row r="50">
+      <c r="D50" s="7" t="n"/>
+      <c r="E50" s="8" t="n"/>
+      <c r="F50" s="8" t="n"/>
+      <c r="G50" s="8" t="n"/>
+      <c r="H50" s="8" t="n"/>
+      <c r="I50" s="8" t="n"/>
+      <c r="J50" s="8" t="n"/>
+      <c r="K50" s="8" t="n"/>
+      <c r="L50" s="8" t="n"/>
+      <c r="M50" s="8" t="n"/>
+      <c r="N50" s="8" t="n"/>
+      <c r="O50" s="8" t="n"/>
+      <c r="P50" s="8" t="n"/>
+      <c r="Q50" s="8" t="n"/>
+      <c r="R50" s="8" t="n"/>
+      <c r="S50" s="8" t="n"/>
+      <c r="T50" s="8" t="n"/>
+      <c r="U50" s="8" t="n"/>
+      <c r="V50" s="8" t="n"/>
+      <c r="W50" s="8" t="n"/>
+      <c r="X50" s="8" t="n"/>
+      <c r="Y50" s="9" t="n"/>
+    </row>
+    <row r="51">
+      <c r="D51" s="7" t="n"/>
+      <c r="E51" s="8" t="n"/>
+      <c r="F51" s="8" t="n"/>
+      <c r="G51" s="8" t="n"/>
+      <c r="H51" s="8" t="n"/>
+      <c r="I51" s="8" t="n"/>
+      <c r="J51" s="8" t="n"/>
+      <c r="K51" s="8" t="n"/>
+      <c r="L51" s="8" t="n"/>
+      <c r="M51" s="8" t="n"/>
+      <c r="N51" s="8" t="n"/>
+      <c r="O51" s="8" t="n"/>
+      <c r="P51" s="8" t="n"/>
+      <c r="Q51" s="8" t="n"/>
+      <c r="R51" s="8" t="n"/>
+      <c r="S51" s="8" t="n"/>
+      <c r="T51" s="8" t="n"/>
+      <c r="U51" s="8" t="n"/>
+      <c r="V51" s="8" t="n"/>
+      <c r="W51" s="8" t="n"/>
+      <c r="X51" s="8" t="n"/>
+      <c r="Y51" s="9" t="n"/>
+    </row>
+    <row r="52">
+      <c r="D52" s="7" t="n"/>
+      <c r="E52" s="8" t="n"/>
+      <c r="F52" s="8" t="n"/>
+      <c r="G52" s="8" t="n"/>
+      <c r="H52" s="8" t="n"/>
+      <c r="I52" s="8" t="n"/>
+      <c r="J52" s="8" t="n"/>
+      <c r="K52" s="8" t="n"/>
+      <c r="L52" s="8" t="n"/>
+      <c r="M52" s="8" t="n"/>
+      <c r="N52" s="8" t="n"/>
+      <c r="O52" s="8" t="n"/>
+      <c r="P52" s="8" t="n"/>
+      <c r="Q52" s="8" t="n"/>
+      <c r="R52" s="8" t="n"/>
+      <c r="S52" s="8" t="n"/>
+      <c r="T52" s="8" t="n"/>
+      <c r="U52" s="8" t="n"/>
+      <c r="V52" s="8" t="n"/>
+      <c r="W52" s="8" t="n"/>
+      <c r="X52" s="8" t="n"/>
+      <c r="Y52" s="9" t="n"/>
+    </row>
+    <row r="53">
+      <c r="D53" s="7" t="n"/>
+      <c r="E53" s="8" t="n"/>
+      <c r="F53" s="8" t="n"/>
+      <c r="G53" s="8" t="n"/>
+      <c r="H53" s="8" t="n"/>
+      <c r="I53" s="8" t="n"/>
+      <c r="J53" s="8" t="n"/>
+      <c r="K53" s="8" t="n"/>
+      <c r="L53" s="8" t="n"/>
+      <c r="M53" s="8" t="n"/>
+      <c r="N53" s="8" t="n"/>
+      <c r="O53" s="8" t="n"/>
+      <c r="P53" s="8" t="n"/>
+      <c r="Q53" s="8" t="n"/>
+      <c r="R53" s="8" t="n"/>
+      <c r="S53" s="8" t="n"/>
+      <c r="T53" s="8" t="n"/>
+      <c r="U53" s="8" t="n"/>
+      <c r="V53" s="8" t="n"/>
+      <c r="W53" s="8" t="n"/>
+      <c r="X53" s="8" t="n"/>
+      <c r="Y53" s="9" t="n"/>
+    </row>
+    <row r="54">
+      <c r="D54" s="7" t="n"/>
+      <c r="E54" s="8" t="n"/>
+      <c r="F54" s="8" t="n"/>
+      <c r="G54" s="8" t="n"/>
+      <c r="H54" s="8" t="n"/>
+      <c r="I54" s="8" t="n"/>
+      <c r="J54" s="8" t="n"/>
+      <c r="K54" s="8" t="n"/>
+      <c r="L54" s="8" t="n"/>
+      <c r="M54" s="8" t="n"/>
+      <c r="N54" s="8" t="n"/>
+      <c r="O54" s="8" t="n"/>
+      <c r="P54" s="8" t="n"/>
+      <c r="Q54" s="8" t="n"/>
+      <c r="R54" s="8" t="n"/>
+      <c r="S54" s="8" t="n"/>
+      <c r="T54" s="8" t="n"/>
+      <c r="U54" s="8" t="n"/>
+      <c r="V54" s="8" t="n"/>
+      <c r="W54" s="8" t="n"/>
+      <c r="X54" s="8" t="n"/>
+      <c r="Y54" s="9" t="n"/>
+    </row>
+    <row r="55">
+      <c r="D55" s="7" t="n"/>
+      <c r="E55" s="8" t="n"/>
+      <c r="F55" s="8" t="n"/>
+      <c r="G55" s="8" t="n"/>
+      <c r="H55" s="8" t="n"/>
+      <c r="I55" s="8" t="n"/>
+      <c r="J55" s="8" t="n"/>
+      <c r="K55" s="8" t="n"/>
+      <c r="L55" s="8" t="n"/>
+      <c r="M55" s="8" t="n"/>
+      <c r="N55" s="8" t="n"/>
+      <c r="O55" s="8" t="n"/>
+      <c r="P55" s="8" t="n"/>
+      <c r="Q55" s="8" t="n"/>
+      <c r="R55" s="8" t="n"/>
+      <c r="S55" s="8" t="n"/>
+      <c r="T55" s="8" t="n"/>
+      <c r="U55" s="8" t="n"/>
+      <c r="V55" s="8" t="n"/>
+      <c r="W55" s="8" t="n"/>
+      <c r="X55" s="8" t="n"/>
+      <c r="Y55" s="9" t="n"/>
+    </row>
+    <row r="56">
+      <c r="D56" s="7" t="n"/>
+      <c r="E56" s="8" t="n"/>
+      <c r="F56" s="8" t="n"/>
+      <c r="G56" s="8" t="n"/>
+      <c r="H56" s="8" t="n"/>
+      <c r="I56" s="8" t="n"/>
+      <c r="J56" s="8" t="n"/>
+      <c r="K56" s="8" t="n"/>
+      <c r="L56" s="8" t="n"/>
+      <c r="M56" s="8" t="n"/>
+      <c r="N56" s="8" t="n"/>
+      <c r="O56" s="8" t="n"/>
+      <c r="P56" s="8" t="n"/>
+      <c r="Q56" s="8" t="n"/>
+      <c r="R56" s="8" t="n"/>
+      <c r="S56" s="8" t="n"/>
+      <c r="T56" s="8" t="n"/>
+      <c r="U56" s="8" t="n"/>
+      <c r="V56" s="8" t="n"/>
+      <c r="W56" s="8" t="n"/>
+      <c r="X56" s="8" t="n"/>
+      <c r="Y56" s="9" t="n"/>
+    </row>
+    <row r="57">
+      <c r="D57" s="7" t="n"/>
+      <c r="E57" s="8" t="n"/>
+      <c r="F57" s="8" t="n"/>
+      <c r="G57" s="8" t="n"/>
+      <c r="H57" s="8" t="n"/>
+      <c r="I57" s="8" t="n"/>
+      <c r="J57" s="8" t="n"/>
+      <c r="K57" s="8" t="n"/>
+      <c r="L57" s="8" t="n"/>
+      <c r="M57" s="8" t="n"/>
+      <c r="N57" s="8" t="n"/>
+      <c r="O57" s="8" t="n"/>
+      <c r="P57" s="8" t="n"/>
+      <c r="Q57" s="8" t="n"/>
+      <c r="R57" s="8" t="n"/>
+      <c r="S57" s="8" t="n"/>
+      <c r="T57" s="8" t="n"/>
+      <c r="U57" s="8" t="n"/>
+      <c r="V57" s="8" t="n"/>
+      <c r="W57" s="8" t="n"/>
+      <c r="X57" s="8" t="n"/>
+      <c r="Y57" s="9" t="n"/>
+    </row>
+    <row r="58">
+      <c r="D58" s="7" t="n"/>
+      <c r="E58" s="8" t="n"/>
+      <c r="F58" s="8" t="n"/>
+      <c r="G58" s="8" t="n"/>
+      <c r="H58" s="8" t="n"/>
+      <c r="I58" s="8" t="n"/>
+      <c r="J58" s="8" t="n"/>
+      <c r="K58" s="8" t="n"/>
+      <c r="L58" s="8" t="n"/>
+      <c r="M58" s="8" t="n"/>
+      <c r="N58" s="8" t="n"/>
+      <c r="O58" s="8" t="n"/>
+      <c r="P58" s="8" t="n"/>
+      <c r="Q58" s="8" t="n"/>
+      <c r="R58" s="8" t="n"/>
+      <c r="S58" s="8" t="n"/>
+      <c r="T58" s="8" t="n"/>
+      <c r="U58" s="8" t="n"/>
+      <c r="V58" s="8" t="n"/>
+      <c r="W58" s="8" t="n"/>
+      <c r="X58" s="8" t="n"/>
+      <c r="Y58" s="9" t="n"/>
+    </row>
+    <row r="59">
+      <c r="D59" s="7" t="n"/>
+      <c r="E59" s="8" t="n"/>
+      <c r="F59" s="8" t="n"/>
+      <c r="G59" s="8" t="n"/>
+      <c r="H59" s="8" t="n"/>
+      <c r="I59" s="8" t="n"/>
+      <c r="J59" s="8" t="n"/>
+      <c r="K59" s="8" t="n"/>
+      <c r="L59" s="8" t="n"/>
+      <c r="M59" s="8" t="n"/>
+      <c r="N59" s="8" t="n"/>
+      <c r="O59" s="8" t="n"/>
+      <c r="P59" s="8" t="n"/>
+      <c r="Q59" s="8" t="n"/>
+      <c r="R59" s="8" t="n"/>
+      <c r="S59" s="8" t="n"/>
+      <c r="T59" s="8" t="n"/>
+      <c r="U59" s="8" t="n"/>
+      <c r="V59" s="8" t="n"/>
+      <c r="W59" s="8" t="n"/>
+      <c r="X59" s="8" t="n"/>
+      <c r="Y59" s="9" t="n"/>
+    </row>
+    <row r="60">
+      <c r="D60" s="7" t="n"/>
+      <c r="E60" s="8" t="n"/>
+      <c r="F60" s="8" t="n"/>
+      <c r="G60" s="8" t="n"/>
+      <c r="H60" s="8" t="n"/>
+      <c r="I60" s="8" t="n"/>
+      <c r="J60" s="8" t="n"/>
+      <c r="K60" s="8" t="n"/>
+      <c r="L60" s="8" t="n"/>
+      <c r="M60" s="8" t="n"/>
+      <c r="N60" s="8" t="n"/>
+      <c r="O60" s="8" t="n"/>
+      <c r="P60" s="8" t="n"/>
+      <c r="Q60" s="8" t="n"/>
+      <c r="R60" s="8" t="n"/>
+      <c r="S60" s="8" t="n"/>
+      <c r="T60" s="8" t="n"/>
+      <c r="U60" s="8" t="n"/>
+      <c r="V60" s="8" t="n"/>
+      <c r="W60" s="8" t="n"/>
+      <c r="X60" s="8" t="n"/>
+      <c r="Y60" s="9" t="n"/>
+    </row>
+    <row r="61">
+      <c r="D61" s="7" t="n"/>
+      <c r="E61" s="8" t="n"/>
+      <c r="F61" s="8" t="n"/>
+      <c r="G61" s="8" t="n"/>
+      <c r="H61" s="8" t="n"/>
+      <c r="I61" s="8" t="n"/>
+      <c r="J61" s="8" t="n"/>
+      <c r="K61" s="8" t="n"/>
+      <c r="L61" s="8" t="n"/>
+      <c r="M61" s="8" t="n"/>
+      <c r="N61" s="8" t="n"/>
+      <c r="O61" s="8" t="n"/>
+      <c r="P61" s="8" t="n"/>
+      <c r="Q61" s="8" t="n"/>
+      <c r="R61" s="8" t="n"/>
+      <c r="S61" s="8" t="n"/>
+      <c r="T61" s="8" t="n"/>
+      <c r="U61" s="8" t="n"/>
+      <c r="V61" s="8" t="n"/>
+      <c r="W61" s="8" t="n"/>
+      <c r="X61" s="8" t="n"/>
+      <c r="Y61" s="9" t="n"/>
+    </row>
+    <row r="62">
+      <c r="D62" s="14" t="n"/>
+      <c r="E62" s="15" t="n"/>
+      <c r="F62" s="15" t="n"/>
+      <c r="G62" s="15" t="n"/>
+      <c r="H62" s="15" t="n"/>
+      <c r="I62" s="15" t="n"/>
+      <c r="J62" s="15" t="n"/>
+      <c r="K62" s="15" t="n"/>
+      <c r="L62" s="15" t="n"/>
+      <c r="M62" s="15" t="n"/>
+      <c r="N62" s="15" t="n"/>
+      <c r="O62" s="15" t="n"/>
+      <c r="P62" s="15" t="n"/>
+      <c r="Q62" s="15" t="n"/>
+      <c r="R62" s="15" t="n"/>
+      <c r="S62" s="15" t="n"/>
+      <c r="T62" s="15" t="n"/>
+      <c r="U62" s="15" t="n"/>
+      <c r="V62" s="15" t="n"/>
+      <c r="W62" s="15" t="n"/>
+      <c r="X62" s="15" t="n"/>
+      <c r="Y62" s="16" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K6:N8"/>
-    <mergeCell ref="G6:J8"/>
-    <mergeCell ref="C3:M4"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C6:F8"/>
-    <mergeCell ref="S10:W10"/>
+  <mergeCells count="105">
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="M25:N26"/>
+    <mergeCell ref="Q15:R16"/>
+    <mergeCell ref="Y31:Z32"/>
+    <mergeCell ref="W19:X20"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="V31:V32"/>
+    <mergeCell ref="K27:L28"/>
+    <mergeCell ref="Q19:R20"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Y15:Z16"/>
+    <mergeCell ref="K29:L30"/>
+    <mergeCell ref="W17:X18"/>
+    <mergeCell ref="W33:X34"/>
+    <mergeCell ref="S23:T24"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="K31:L32"/>
+    <mergeCell ref="Y19:Z20"/>
+    <mergeCell ref="E15:H18"/>
+    <mergeCell ref="S27:T28"/>
+    <mergeCell ref="M19:N20"/>
+    <mergeCell ref="V21:V22"/>
+    <mergeCell ref="W11:Z12"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="S31:T32"/>
+    <mergeCell ref="V35:V36"/>
+    <mergeCell ref="K19:L20"/>
+    <mergeCell ref="S17:T18"/>
+    <mergeCell ref="S33:T34"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="S15:T16"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W25:X26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="W35:X36"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="S19:T20"/>
+    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="K33:L34"/>
+    <mergeCell ref="S25:T26"/>
+    <mergeCell ref="W29:X30"/>
+    <mergeCell ref="Q35:R36"/>
+    <mergeCell ref="W31:X32"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="K11:N12"/>
+    <mergeCell ref="M23:N24"/>
+    <mergeCell ref="Y35:Z36"/>
+    <mergeCell ref="M29:N30"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="W15:X16"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="M35:N36"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="M31:N32"/>
+    <mergeCell ref="W21:X22"/>
+    <mergeCell ref="Q11:T12"/>
+    <mergeCell ref="K35:L36"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="M15:N16"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="E19:H24"/>
+    <mergeCell ref="V33:V34"/>
+    <mergeCell ref="M21:N22"/>
+    <mergeCell ref="S35:T36"/>
+    <mergeCell ref="M17:N18"/>
+    <mergeCell ref="M33:N34"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="K25:L26"/>
+    <mergeCell ref="Q29:R30"/>
+    <mergeCell ref="S29:T30"/>
+    <mergeCell ref="Y17:Z18"/>
+    <mergeCell ref="Y33:Z34"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="Y29:Z30"/>
+    <mergeCell ref="E26:H29"/>
+    <mergeCell ref="Q17:R18"/>
+    <mergeCell ref="Q33:R34"/>
+    <mergeCell ref="Q23:R24"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="E30:H35"/>
+    <mergeCell ref="Y25:Z26"/>
+    <mergeCell ref="Q27:R28"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="Y23:Z24"/>
+    <mergeCell ref="Q25:R26"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="Q21:R22"/>
+    <mergeCell ref="S21:T22"/>
+    <mergeCell ref="D5:Y6"/>
+    <mergeCell ref="Q31:R32"/>
+    <mergeCell ref="Y27:Z28"/>
+    <mergeCell ref="E8:H13"/>
+    <mergeCell ref="M27:N28"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="V29:V30"/>
+    <mergeCell ref="Y21:Z22"/>
+    <mergeCell ref="V17:V18"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BY17"/>
+  <dimension ref="A1:BY62"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2451,7 +6974,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row hidden="1" r="1">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>year_month</t>
@@ -2838,7 +7361,7 @@
         </is>
       </c>
     </row>
-    <row hidden="1" r="2">
+    <row r="2">
       <c r="A2" t="inlineStr">
         <is>
           <t>201510</t>
@@ -3113,303 +7636,1748 @@
         <v>24.03</v>
       </c>
     </row>
-    <row r="3">
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>Hubway Dashboard</t>
-        </is>
-      </c>
-    </row>
-    <row r="4"/>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>hubway-data</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="n"/>
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="3" t="n"/>
+      <c r="M5" s="3" t="n"/>
+      <c r="N5" s="3" t="n"/>
+      <c r="O5" s="3" t="n"/>
+      <c r="P5" s="3" t="n"/>
+      <c r="Q5" s="3" t="n"/>
+      <c r="R5" s="3" t="n"/>
+      <c r="S5" s="3" t="n"/>
+      <c r="T5" s="3" t="n"/>
+      <c r="U5" s="3" t="n"/>
+      <c r="V5" s="3" t="n"/>
+      <c r="W5" s="3" t="n"/>
+      <c r="X5" s="3" t="n"/>
+      <c r="Y5" s="4" t="n"/>
+    </row>
     <row r="6">
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>Total Trips: 201510</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>Average Trip Duration: 15</t>
-        </is>
-      </c>
-      <c r="K6" s="3" t="inlineStr">
-        <is>
-          <t>Average Distance: 1.855262851725005</t>
-        </is>
-      </c>
-    </row>
-    <row r="7"/>
-    <row r="8"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="Y6" s="6" t="n"/>
+    </row>
+    <row r="7">
+      <c r="D7" s="7" t="n"/>
+      <c r="E7" s="8" t="n"/>
+      <c r="F7" s="8" t="n"/>
+      <c r="G7" s="8" t="n"/>
+      <c r="H7" s="8" t="n"/>
+      <c r="I7" s="8" t="n"/>
+      <c r="J7" s="8" t="n"/>
+      <c r="K7" s="8" t="n"/>
+      <c r="L7" s="8" t="n"/>
+      <c r="M7" s="8" t="n"/>
+      <c r="N7" s="8" t="n"/>
+      <c r="O7" s="8" t="n"/>
+      <c r="P7" s="8" t="n"/>
+      <c r="Q7" s="8" t="n"/>
+      <c r="R7" s="8" t="n"/>
+      <c r="S7" s="8" t="n"/>
+      <c r="T7" s="8" t="n"/>
+      <c r="U7" s="8" t="n"/>
+      <c r="V7" s="8" t="n"/>
+      <c r="W7" s="8" t="n"/>
+      <c r="X7" s="8" t="n"/>
+      <c r="Y7" s="9" t="n"/>
+    </row>
+    <row r="8">
+      <c r="D8" s="7" t="n"/>
+      <c r="E8" s="10" t="inlineStr">
+        <is>
+          <t>201510</t>
+        </is>
+      </c>
+      <c r="F8" s="11" t="n"/>
+      <c r="G8" s="11" t="n"/>
+      <c r="H8" s="12" t="n"/>
+      <c r="I8" s="8" t="n"/>
+      <c r="J8" s="8" t="n"/>
+      <c r="K8" s="8" t="n"/>
+      <c r="L8" s="8" t="n"/>
+      <c r="M8" s="8" t="n"/>
+      <c r="N8" s="8" t="n"/>
+      <c r="O8" s="8" t="n"/>
+      <c r="P8" s="8" t="n"/>
+      <c r="Q8" s="8" t="n"/>
+      <c r="R8" s="8" t="n"/>
+      <c r="S8" s="8" t="n"/>
+      <c r="T8" s="8" t="n"/>
+      <c r="U8" s="8" t="n"/>
+      <c r="V8" s="8" t="n"/>
+      <c r="W8" s="8" t="n"/>
+      <c r="X8" s="8" t="n"/>
+      <c r="Y8" s="9" t="n"/>
+    </row>
+    <row r="9">
+      <c r="D9" s="7" t="n"/>
+      <c r="E9" s="7" t="n"/>
+      <c r="H9" s="9" t="n"/>
+      <c r="I9" s="8" t="n"/>
+      <c r="J9" s="8" t="n"/>
+      <c r="K9" s="8" t="n"/>
+      <c r="L9" s="8" t="n"/>
+      <c r="M9" s="8" t="n"/>
+      <c r="N9" s="8" t="n"/>
+      <c r="O9" s="8" t="n"/>
+      <c r="P9" s="8" t="n"/>
+      <c r="Q9" s="8" t="n"/>
+      <c r="R9" s="8" t="n"/>
+      <c r="S9" s="8" t="n"/>
+      <c r="T9" s="8" t="n"/>
+      <c r="U9" s="8" t="n"/>
+      <c r="V9" s="8" t="n"/>
+      <c r="W9" s="8" t="n"/>
+      <c r="X9" s="8" t="n"/>
+      <c r="Y9" s="9" t="n"/>
+    </row>
     <row r="10">
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>Usage by Gender</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="5" t="n"/>
-      <c r="H10" s="5" t="n"/>
-      <c r="I10" s="5" t="n"/>
-      <c r="J10" s="5" t="n"/>
-      <c r="K10" s="4" t="inlineStr">
-        <is>
-          <t>Usage by Age Group</t>
-        </is>
-      </c>
-      <c r="L10" s="5" t="n"/>
-      <c r="M10" s="5" t="n"/>
-      <c r="N10" s="5" t="n"/>
-      <c r="O10" s="5" t="n"/>
-      <c r="P10" s="5" t="n"/>
-      <c r="Q10" s="5" t="n"/>
-      <c r="R10" s="5" t="n"/>
-      <c r="S10" s="4" t="inlineStr">
-        <is>
-          <t>Sample BV to BY</t>
-        </is>
-      </c>
-      <c r="T10" s="5" t="n"/>
-      <c r="U10" s="5" t="n"/>
-      <c r="V10" s="5" t="n"/>
-      <c r="W10" s="5" t="n"/>
-      <c r="X10" s="5" t="n"/>
-      <c r="Y10" s="5" t="n"/>
-      <c r="Z10" s="5" t="n"/>
+      <c r="D10" s="7" t="n"/>
+      <c r="E10" s="7" t="n"/>
+      <c r="H10" s="9" t="n"/>
+      <c r="I10" s="8" t="n"/>
+      <c r="J10" s="8" t="n"/>
+      <c r="K10" s="8" t="n"/>
+      <c r="L10" s="8" t="n"/>
+      <c r="M10" s="8" t="n"/>
+      <c r="N10" s="8" t="n"/>
+      <c r="O10" s="8" t="n"/>
+      <c r="P10" s="8" t="n"/>
+      <c r="Q10" s="8" t="n"/>
+      <c r="R10" s="8" t="n"/>
+      <c r="S10" s="8" t="n"/>
+      <c r="T10" s="8" t="n"/>
+      <c r="U10" s="8" t="n"/>
+      <c r="V10" s="8" t="n"/>
+      <c r="W10" s="8" t="n"/>
+      <c r="X10" s="8" t="n"/>
+      <c r="Y10" s="9" t="n"/>
     </row>
     <row r="11">
-      <c r="C11" s="6" t="inlineStr">
-        <is>
-          <t>gender_share_m</t>
-        </is>
-      </c>
-      <c r="D11" s="7" t="n">
-        <v>63.16700522459432</v>
-      </c>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
-      <c r="I11" s="5" t="n"/>
-      <c r="J11" s="5" t="n"/>
-      <c r="K11" s="6" t="inlineStr">
-        <is>
-          <t>silent_generation</t>
-        </is>
-      </c>
-      <c r="L11" s="7" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="M11" s="5" t="n"/>
-      <c r="N11" s="5" t="n"/>
-      <c r="O11" s="5" t="n"/>
-      <c r="P11" s="5" t="n"/>
-      <c r="Q11" s="5" t="n"/>
-      <c r="R11" s="5" t="n"/>
-      <c r="S11" s="6" t="inlineStr">
-        <is>
-          <t>time_slots_0</t>
-        </is>
-      </c>
-      <c r="T11" s="7" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="U11" s="5" t="n"/>
-      <c r="V11" s="5" t="n"/>
-      <c r="W11" s="5" t="n"/>
-      <c r="X11" s="5" t="n"/>
-      <c r="Y11" s="5" t="n"/>
-      <c r="Z11" s="5" t="n"/>
+      <c r="D11" s="7" t="n"/>
+      <c r="E11" s="7" t="n"/>
+      <c r="H11" s="9" t="n"/>
+      <c r="I11" s="8" t="n"/>
+      <c r="J11" s="8" t="n"/>
+      <c r="K11" s="13" t="inlineStr">
+        <is>
+          <t>Bike ID and Anzahl Nutzung</t>
+        </is>
+      </c>
+      <c r="O11" s="8" t="n"/>
+      <c r="P11" s="8" t="n"/>
+      <c r="Q11" s="13" t="inlineStr">
+        <is>
+          <t>Top 10 most start stations and Anzahl Nutzung</t>
+        </is>
+      </c>
+      <c r="U11" s="8" t="n"/>
+      <c r="V11" s="8" t="n"/>
+      <c r="W11" s="13" t="inlineStr">
+        <is>
+          <t>Top 10 most end stations and Anzahl Nutzung</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>gender_share_w</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="n">
-        <v>21.81920216255523</v>
-      </c>
-      <c r="E12" s="5" t="n"/>
-      <c r="F12" s="5" t="n"/>
-      <c r="G12" s="5" t="n"/>
-      <c r="H12" s="5" t="n"/>
-      <c r="I12" s="5" t="n"/>
-      <c r="J12" s="5" t="n"/>
-      <c r="K12" s="6" t="inlineStr">
-        <is>
-          <t>generation_x</t>
-        </is>
-      </c>
-      <c r="L12" s="7" t="n">
-        <v>19.01</v>
-      </c>
-      <c r="M12" s="5" t="n"/>
-      <c r="N12" s="5" t="n"/>
-      <c r="O12" s="5" t="n"/>
-      <c r="P12" s="5" t="n"/>
-      <c r="Q12" s="5" t="n"/>
-      <c r="R12" s="5" t="n"/>
-      <c r="S12" s="6" t="inlineStr">
-        <is>
-          <t>time_slots_1</t>
-        </is>
-      </c>
-      <c r="T12" s="7" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="U12" s="5" t="n"/>
-      <c r="V12" s="5" t="n"/>
-      <c r="W12" s="5" t="n"/>
-      <c r="X12" s="5" t="n"/>
-      <c r="Y12" s="5" t="n"/>
-      <c r="Z12" s="5" t="n"/>
+      <c r="D12" s="7" t="n"/>
+      <c r="E12" s="7" t="n"/>
+      <c r="H12" s="9" t="n"/>
+      <c r="I12" s="8" t="n"/>
+      <c r="J12" s="8" t="n"/>
+      <c r="O12" s="8" t="n"/>
+      <c r="P12" s="8" t="n"/>
+      <c r="U12" s="8" t="n"/>
+      <c r="V12" s="8" t="n"/>
     </row>
     <row r="13">
-      <c r="C13" s="6" t="inlineStr">
-        <is>
-          <t>gender_share_na</t>
-        </is>
-      </c>
-      <c r="D13" s="7" t="n">
-        <v>15.01379261285045</v>
-      </c>
-      <c r="E13" s="5" t="n"/>
-      <c r="F13" s="5" t="n"/>
-      <c r="G13" s="5" t="n"/>
-      <c r="H13" s="5" t="n"/>
-      <c r="I13" s="5" t="n"/>
-      <c r="J13" s="5" t="n"/>
-      <c r="K13" s="6" t="inlineStr">
-        <is>
-          <t>generation_y</t>
-        </is>
-      </c>
-      <c r="L13" s="7" t="n">
-        <v>55.18</v>
-      </c>
-      <c r="M13" s="5" t="n"/>
-      <c r="N13" s="5" t="n"/>
-      <c r="O13" s="5" t="n"/>
-      <c r="P13" s="5" t="n"/>
-      <c r="Q13" s="5" t="n"/>
-      <c r="R13" s="5" t="n"/>
-      <c r="S13" s="6" t="inlineStr">
-        <is>
-          <t>time_slots_2</t>
-        </is>
-      </c>
-      <c r="T13" s="7" t="n">
-        <v>44.93</v>
-      </c>
-      <c r="U13" s="5" t="n"/>
-      <c r="V13" s="5" t="n"/>
-      <c r="W13" s="5" t="n"/>
-      <c r="X13" s="5" t="n"/>
-      <c r="Y13" s="5" t="n"/>
-      <c r="Z13" s="5" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="14" t="n"/>
+      <c r="F13" s="15" t="n"/>
+      <c r="G13" s="15" t="n"/>
+      <c r="H13" s="16" t="n"/>
+      <c r="I13" s="8" t="n"/>
+      <c r="J13" s="8" t="n"/>
+      <c r="K13" s="8" t="n"/>
+      <c r="L13" s="8" t="n"/>
+      <c r="M13" s="8" t="n"/>
+      <c r="N13" s="8" t="n"/>
+      <c r="O13" s="8" t="n"/>
+      <c r="P13" s="8" t="n"/>
+      <c r="Q13" s="8" t="n"/>
+      <c r="R13" s="8" t="n"/>
+      <c r="S13" s="8" t="n"/>
+      <c r="T13" s="8" t="n"/>
+      <c r="U13" s="8" t="n"/>
+      <c r="V13" s="8" t="n"/>
+      <c r="W13" s="8" t="n"/>
+      <c r="X13" s="8" t="n"/>
+      <c r="Y13" s="9" t="n"/>
     </row>
     <row r="14">
-      <c r="C14" s="5" t="n"/>
-      <c r="D14" s="5" t="n"/>
-      <c r="E14" s="5" t="n"/>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="5" t="n"/>
-      <c r="H14" s="5" t="n"/>
-      <c r="I14" s="5" t="n"/>
-      <c r="J14" s="5" t="n"/>
-      <c r="K14" s="6" t="inlineStr">
-        <is>
-          <t>generation_z</t>
-        </is>
-      </c>
-      <c r="L14" s="7" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M14" s="5" t="n"/>
-      <c r="N14" s="5" t="n"/>
-      <c r="O14" s="5" t="n"/>
-      <c r="P14" s="5" t="n"/>
-      <c r="Q14" s="5" t="n"/>
-      <c r="R14" s="5" t="n"/>
-      <c r="S14" s="6" t="inlineStr">
-        <is>
-          <t>time_slots_3</t>
-        </is>
-      </c>
-      <c r="T14" s="7" t="n">
-        <v>24.03</v>
-      </c>
-      <c r="U14" s="5" t="n"/>
-      <c r="V14" s="5" t="n"/>
-      <c r="W14" s="5" t="n"/>
-      <c r="X14" s="5" t="n"/>
-      <c r="Y14" s="5" t="n"/>
-      <c r="Z14" s="5" t="n"/>
+      <c r="D14" s="7" t="n"/>
+      <c r="E14" s="8" t="n"/>
+      <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
+      <c r="H14" s="8" t="n"/>
+      <c r="I14" s="8" t="n"/>
+      <c r="J14" s="8" t="n"/>
+      <c r="K14" s="8" t="n"/>
+      <c r="L14" s="8" t="n"/>
+      <c r="M14" s="8" t="n"/>
+      <c r="N14" s="8" t="n"/>
+      <c r="O14" s="8" t="n"/>
+      <c r="P14" s="8" t="n"/>
+      <c r="Q14" s="8" t="n"/>
+      <c r="R14" s="8" t="n"/>
+      <c r="S14" s="8" t="n"/>
+      <c r="T14" s="8" t="n"/>
+      <c r="U14" s="8" t="n"/>
+      <c r="V14" s="8" t="n"/>
+      <c r="W14" s="8" t="n"/>
+      <c r="X14" s="8" t="n"/>
+      <c r="Y14" s="9" t="n"/>
     </row>
     <row r="15">
-      <c r="C15" s="5" t="n"/>
-      <c r="D15" s="5" t="n"/>
-      <c r="E15" s="5" t="n"/>
-      <c r="F15" s="5" t="n"/>
-      <c r="G15" s="5" t="n"/>
-      <c r="H15" s="5" t="n"/>
-      <c r="I15" s="5" t="n"/>
-      <c r="J15" s="5" t="n"/>
-      <c r="K15" s="6" t="inlineStr">
-        <is>
-          <t>baby_boomer</t>
-        </is>
-      </c>
-      <c r="L15" s="7" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="M15" s="5" t="n"/>
-      <c r="N15" s="5" t="n"/>
-      <c r="O15" s="5" t="n"/>
-      <c r="P15" s="5" t="n"/>
-      <c r="Q15" s="5" t="n"/>
-      <c r="R15" s="5" t="n"/>
-      <c r="S15" s="5" t="n"/>
-      <c r="T15" s="5" t="n"/>
-      <c r="U15" s="5" t="n"/>
-      <c r="V15" s="5" t="n"/>
-      <c r="W15" s="5" t="n"/>
-      <c r="X15" s="5" t="n"/>
-      <c r="Y15" s="5" t="n"/>
-      <c r="Z15" s="5" t="n"/>
+      <c r="D15" s="7" t="n"/>
+      <c r="E15" s="17" t="inlineStr">
+        <is>
+          <t>Average Trip Duration</t>
+        </is>
+      </c>
+      <c r="F15" s="11" t="n"/>
+      <c r="G15" s="11" t="n"/>
+      <c r="H15" s="12" t="n"/>
+      <c r="I15" s="8" t="n"/>
+      <c r="J15" s="8" t="n"/>
+      <c r="K15" s="13" t="inlineStr">
+        <is>
+          <t>Bike ID</t>
+        </is>
+      </c>
+      <c r="M15" s="13" t="inlineStr">
+        <is>
+          <t>Anzahl Nutzung</t>
+        </is>
+      </c>
+      <c r="O15" s="8" t="n"/>
+      <c r="P15" s="8" t="n"/>
+      <c r="Q15" s="13" t="inlineStr">
+        <is>
+          <t>Top 10 most start stations</t>
+        </is>
+      </c>
+      <c r="S15" s="13" t="inlineStr">
+        <is>
+          <t>Anzahl Nutzung</t>
+        </is>
+      </c>
+      <c r="U15" s="8" t="n"/>
+      <c r="V15" s="8" t="n"/>
+      <c r="W15" s="13" t="inlineStr">
+        <is>
+          <t>Top 10 most end stations</t>
+        </is>
+      </c>
+      <c r="Y15" s="18" t="inlineStr">
+        <is>
+          <t>Anzahl Nutzung</t>
+        </is>
+      </c>
+      <c r="Z15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="K16" s="8" t="inlineStr">
-        <is>
-          <t>generation_alpha</t>
-        </is>
-      </c>
-      <c r="L16" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="D16" s="7" t="n"/>
+      <c r="E16" s="7" t="n"/>
+      <c r="H16" s="9" t="n"/>
+      <c r="I16" s="8" t="n"/>
+      <c r="J16" s="8" t="n"/>
+      <c r="O16" s="8" t="n"/>
+      <c r="P16" s="8" t="n"/>
+      <c r="U16" s="8" t="n"/>
+      <c r="V16" s="8" t="n"/>
+      <c r="Z16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="K17" s="8" t="inlineStr">
-        <is>
-          <t>no_generation_data</t>
-        </is>
-      </c>
-      <c r="L17" s="9" t="n">
-        <v>14.89</v>
-      </c>
+      <c r="D17" s="7" t="n"/>
+      <c r="E17" s="7" t="n"/>
+      <c r="H17" s="9" t="n"/>
+      <c r="I17" s="8" t="n"/>
+      <c r="J17" s="19" t="inlineStr">
+        <is>
+          <t>Platz 1</t>
+        </is>
+      </c>
+      <c r="K17" s="19" t="n">
+        <v>1416</v>
+      </c>
+      <c r="L17" s="20" t="n"/>
+      <c r="M17" s="19" t="n">
+        <v>221</v>
+      </c>
+      <c r="N17" s="20" t="n"/>
+      <c r="O17" s="8" t="n"/>
+      <c r="P17" s="19" t="inlineStr">
+        <is>
+          <t>Platz 1</t>
+        </is>
+      </c>
+      <c r="Q17" s="19" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave.</t>
+        </is>
+      </c>
+      <c r="R17" s="20" t="n"/>
+      <c r="S17" s="19" t="n">
+        <v>3415</v>
+      </c>
+      <c r="T17" s="20" t="n"/>
+      <c r="U17" s="8" t="n"/>
+      <c r="V17" s="19" t="inlineStr">
+        <is>
+          <t>Platz 1</t>
+        </is>
+      </c>
+      <c r="W17" s="19" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave.</t>
+        </is>
+      </c>
+      <c r="X17" s="20" t="n"/>
+      <c r="Y17" s="19" t="n">
+        <v>3549</v>
+      </c>
+      <c r="Z17" s="20" t="n"/>
+    </row>
+    <row r="18">
+      <c r="D18" s="7" t="n"/>
+      <c r="E18" s="14" t="n"/>
+      <c r="F18" s="15" t="n"/>
+      <c r="G18" s="15" t="n"/>
+      <c r="H18" s="16" t="n"/>
+      <c r="I18" s="8" t="n"/>
+      <c r="J18" s="20" t="n"/>
+      <c r="K18" s="20" t="n"/>
+      <c r="L18" s="20" t="n"/>
+      <c r="M18" s="20" t="n"/>
+      <c r="N18" s="20" t="n"/>
+      <c r="O18" s="8" t="n"/>
+      <c r="P18" s="20" t="n"/>
+      <c r="Q18" s="20" t="n"/>
+      <c r="R18" s="20" t="n"/>
+      <c r="S18" s="20" t="n"/>
+      <c r="T18" s="20" t="n"/>
+      <c r="U18" s="8" t="n"/>
+      <c r="V18" s="20" t="n"/>
+      <c r="W18" s="20" t="n"/>
+      <c r="X18" s="20" t="n"/>
+      <c r="Y18" s="20" t="n"/>
+      <c r="Z18" s="20" t="n"/>
+    </row>
+    <row r="19">
+      <c r="D19" s="7" t="n"/>
+      <c r="E19" s="21" t="n">
+        <v>15</v>
+      </c>
+      <c r="I19" s="8" t="n"/>
+      <c r="J19" s="19" t="inlineStr">
+        <is>
+          <t>Platz 2</t>
+        </is>
+      </c>
+      <c r="K19" s="19" t="n">
+        <v>1390</v>
+      </c>
+      <c r="L19" s="20" t="n"/>
+      <c r="M19" s="19" t="n">
+        <v>217</v>
+      </c>
+      <c r="N19" s="20" t="n"/>
+      <c r="O19" s="8" t="n"/>
+      <c r="P19" s="19" t="inlineStr">
+        <is>
+          <t>Platz 2</t>
+        </is>
+      </c>
+      <c r="Q19" s="19" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St</t>
+        </is>
+      </c>
+      <c r="R19" s="20" t="n"/>
+      <c r="S19" s="19" t="n">
+        <v>3120</v>
+      </c>
+      <c r="T19" s="20" t="n"/>
+      <c r="U19" s="8" t="n"/>
+      <c r="V19" s="19" t="inlineStr">
+        <is>
+          <t>Platz 2</t>
+        </is>
+      </c>
+      <c r="W19" s="19" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St</t>
+        </is>
+      </c>
+      <c r="X19" s="20" t="n"/>
+      <c r="Y19" s="19" t="n">
+        <v>3145</v>
+      </c>
+      <c r="Z19" s="20" t="n"/>
+    </row>
+    <row r="20">
+      <c r="D20" s="7" t="n"/>
+      <c r="I20" s="8" t="n"/>
+      <c r="J20" s="20" t="n"/>
+      <c r="K20" s="20" t="n"/>
+      <c r="L20" s="20" t="n"/>
+      <c r="M20" s="20" t="n"/>
+      <c r="N20" s="20" t="n"/>
+      <c r="O20" s="8" t="n"/>
+      <c r="P20" s="20" t="n"/>
+      <c r="Q20" s="20" t="n"/>
+      <c r="R20" s="20" t="n"/>
+      <c r="S20" s="20" t="n"/>
+      <c r="T20" s="20" t="n"/>
+      <c r="U20" s="8" t="n"/>
+      <c r="V20" s="20" t="n"/>
+      <c r="W20" s="20" t="n"/>
+      <c r="X20" s="20" t="n"/>
+      <c r="Y20" s="20" t="n"/>
+      <c r="Z20" s="20" t="n"/>
+    </row>
+    <row r="21">
+      <c r="D21" s="7" t="n"/>
+      <c r="I21" s="8" t="n"/>
+      <c r="J21" s="19" t="inlineStr">
+        <is>
+          <t>Platz 3</t>
+        </is>
+      </c>
+      <c r="K21" s="19" t="n">
+        <v>1392</v>
+      </c>
+      <c r="L21" s="20" t="n"/>
+      <c r="M21" s="19" t="n">
+        <v>203</v>
+      </c>
+      <c r="N21" s="20" t="n"/>
+      <c r="O21" s="8" t="n"/>
+      <c r="P21" s="19" t="inlineStr">
+        <is>
+          <t>Platz 3</t>
+        </is>
+      </c>
+      <c r="Q21" s="19" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster</t>
+        </is>
+      </c>
+      <c r="R21" s="20" t="n"/>
+      <c r="S21" s="19" t="n">
+        <v>2388</v>
+      </c>
+      <c r="T21" s="20" t="n"/>
+      <c r="U21" s="8" t="n"/>
+      <c r="V21" s="19" t="inlineStr">
+        <is>
+          <t>Platz 3</t>
+        </is>
+      </c>
+      <c r="W21" s="19" t="inlineStr">
+        <is>
+          <t>MIT Stata Center at Vassar St / Main St</t>
+        </is>
+      </c>
+      <c r="X21" s="20" t="n"/>
+      <c r="Y21" s="19" t="n">
+        <v>2876</v>
+      </c>
+      <c r="Z21" s="20" t="n"/>
+    </row>
+    <row r="22">
+      <c r="D22" s="7" t="n"/>
+      <c r="I22" s="8" t="n"/>
+      <c r="J22" s="20" t="n"/>
+      <c r="K22" s="20" t="n"/>
+      <c r="L22" s="20" t="n"/>
+      <c r="M22" s="20" t="n"/>
+      <c r="N22" s="20" t="n"/>
+      <c r="O22" s="8" t="n"/>
+      <c r="P22" s="20" t="n"/>
+      <c r="Q22" s="20" t="n"/>
+      <c r="R22" s="20" t="n"/>
+      <c r="S22" s="20" t="n"/>
+      <c r="T22" s="20" t="n"/>
+      <c r="U22" s="8" t="n"/>
+      <c r="V22" s="20" t="n"/>
+      <c r="W22" s="20" t="n"/>
+      <c r="X22" s="20" t="n"/>
+      <c r="Y22" s="20" t="n"/>
+      <c r="Z22" s="20" t="n"/>
+    </row>
+    <row r="23">
+      <c r="D23" s="7" t="n"/>
+      <c r="I23" s="8" t="n"/>
+      <c r="J23" s="19" t="inlineStr">
+        <is>
+          <t>Platz 4</t>
+        </is>
+      </c>
+      <c r="K23" s="19" t="n">
+        <v>1426</v>
+      </c>
+      <c r="L23" s="20" t="n"/>
+      <c r="M23" s="19" t="n">
+        <v>195</v>
+      </c>
+      <c r="N23" s="20" t="n"/>
+      <c r="O23" s="8" t="n"/>
+      <c r="P23" s="19" t="inlineStr">
+        <is>
+          <t>Platz 4</t>
+        </is>
+      </c>
+      <c r="Q23" s="19" t="inlineStr">
+        <is>
+          <t>Central Square at Mass Ave / Essex St</t>
+        </is>
+      </c>
+      <c r="R23" s="20" t="n"/>
+      <c r="S23" s="19" t="n">
+        <v>2347</v>
+      </c>
+      <c r="T23" s="20" t="n"/>
+      <c r="U23" s="8" t="n"/>
+      <c r="V23" s="19" t="inlineStr">
+        <is>
+          <t>Platz 4</t>
+        </is>
+      </c>
+      <c r="W23" s="19" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #1</t>
+        </is>
+      </c>
+      <c r="X23" s="20" t="n"/>
+      <c r="Y23" s="19" t="n">
+        <v>2591</v>
+      </c>
+      <c r="Z23" s="20" t="n"/>
+    </row>
+    <row r="24">
+      <c r="D24" s="7" t="n"/>
+      <c r="I24" s="8" t="n"/>
+      <c r="J24" s="20" t="n"/>
+      <c r="K24" s="20" t="n"/>
+      <c r="L24" s="20" t="n"/>
+      <c r="M24" s="20" t="n"/>
+      <c r="N24" s="20" t="n"/>
+      <c r="O24" s="8" t="n"/>
+      <c r="P24" s="20" t="n"/>
+      <c r="Q24" s="20" t="n"/>
+      <c r="R24" s="20" t="n"/>
+      <c r="S24" s="20" t="n"/>
+      <c r="T24" s="20" t="n"/>
+      <c r="U24" s="8" t="n"/>
+      <c r="V24" s="20" t="n"/>
+      <c r="W24" s="20" t="n"/>
+      <c r="X24" s="20" t="n"/>
+      <c r="Y24" s="20" t="n"/>
+      <c r="Z24" s="20" t="n"/>
+    </row>
+    <row r="25">
+      <c r="D25" s="7" t="n"/>
+      <c r="E25" s="8" t="n"/>
+      <c r="F25" s="8" t="n"/>
+      <c r="G25" s="8" t="n"/>
+      <c r="H25" s="8" t="n"/>
+      <c r="I25" s="8" t="n"/>
+      <c r="J25" s="19" t="inlineStr">
+        <is>
+          <t>Platz 5</t>
+        </is>
+      </c>
+      <c r="K25" s="19" t="n">
+        <v>1402</v>
+      </c>
+      <c r="L25" s="20" t="n"/>
+      <c r="M25" s="19" t="n">
+        <v>192</v>
+      </c>
+      <c r="N25" s="20" t="n"/>
+      <c r="O25" s="8" t="n"/>
+      <c r="P25" s="19" t="inlineStr">
+        <is>
+          <t>Platz 5</t>
+        </is>
+      </c>
+      <c r="Q25" s="19" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #1</t>
+        </is>
+      </c>
+      <c r="R25" s="20" t="n"/>
+      <c r="S25" s="19" t="n">
+        <v>2327</v>
+      </c>
+      <c r="T25" s="20" t="n"/>
+      <c r="U25" s="8" t="n"/>
+      <c r="V25" s="19" t="inlineStr">
+        <is>
+          <t>Platz 5</t>
+        </is>
+      </c>
+      <c r="W25" s="19" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster</t>
+        </is>
+      </c>
+      <c r="X25" s="20" t="n"/>
+      <c r="Y25" s="19" t="n">
+        <v>2448</v>
+      </c>
+      <c r="Z25" s="20" t="n"/>
+    </row>
+    <row r="26">
+      <c r="D26" s="7" t="n"/>
+      <c r="E26" s="17" t="inlineStr">
+        <is>
+          <t>Average Distance</t>
+        </is>
+      </c>
+      <c r="F26" s="11" t="n"/>
+      <c r="G26" s="11" t="n"/>
+      <c r="H26" s="12" t="n"/>
+      <c r="I26" s="8" t="n"/>
+      <c r="J26" s="20" t="n"/>
+      <c r="K26" s="20" t="n"/>
+      <c r="L26" s="20" t="n"/>
+      <c r="M26" s="20" t="n"/>
+      <c r="N26" s="20" t="n"/>
+      <c r="O26" s="8" t="n"/>
+      <c r="P26" s="20" t="n"/>
+      <c r="Q26" s="20" t="n"/>
+      <c r="R26" s="20" t="n"/>
+      <c r="S26" s="20" t="n"/>
+      <c r="T26" s="20" t="n"/>
+      <c r="U26" s="8" t="n"/>
+      <c r="V26" s="20" t="n"/>
+      <c r="W26" s="20" t="n"/>
+      <c r="X26" s="20" t="n"/>
+      <c r="Y26" s="20" t="n"/>
+      <c r="Z26" s="20" t="n"/>
+    </row>
+    <row r="27">
+      <c r="D27" s="7" t="n"/>
+      <c r="E27" s="7" t="n"/>
+      <c r="H27" s="9" t="n"/>
+      <c r="I27" s="8" t="n"/>
+      <c r="J27" s="19" t="inlineStr">
+        <is>
+          <t>Platz 6</t>
+        </is>
+      </c>
+      <c r="K27" s="19" t="n">
+        <v>1395</v>
+      </c>
+      <c r="L27" s="20" t="n"/>
+      <c r="M27" s="19" t="n">
+        <v>189</v>
+      </c>
+      <c r="N27" s="20" t="n"/>
+      <c r="O27" s="8" t="n"/>
+      <c r="P27" s="19" t="inlineStr">
+        <is>
+          <t>Platz 6</t>
+        </is>
+      </c>
+      <c r="Q27" s="19" t="inlineStr">
+        <is>
+          <t>MIT Stata Center at Vassar St / Main St</t>
+        </is>
+      </c>
+      <c r="R27" s="20" t="n"/>
+      <c r="S27" s="19" t="n">
+        <v>2071</v>
+      </c>
+      <c r="T27" s="20" t="n"/>
+      <c r="U27" s="8" t="n"/>
+      <c r="V27" s="19" t="inlineStr">
+        <is>
+          <t>Platz 6</t>
+        </is>
+      </c>
+      <c r="W27" s="19" t="inlineStr">
+        <is>
+          <t>Central Square at Mass Ave / Essex St</t>
+        </is>
+      </c>
+      <c r="X27" s="20" t="n"/>
+      <c r="Y27" s="19" t="n">
+        <v>2280</v>
+      </c>
+      <c r="Z27" s="20" t="n"/>
+    </row>
+    <row r="28">
+      <c r="D28" s="7" t="n"/>
+      <c r="E28" s="7" t="n"/>
+      <c r="H28" s="9" t="n"/>
+      <c r="I28" s="8" t="n"/>
+      <c r="J28" s="20" t="n"/>
+      <c r="K28" s="20" t="n"/>
+      <c r="L28" s="20" t="n"/>
+      <c r="M28" s="20" t="n"/>
+      <c r="N28" s="20" t="n"/>
+      <c r="O28" s="8" t="n"/>
+      <c r="P28" s="20" t="n"/>
+      <c r="Q28" s="20" t="n"/>
+      <c r="R28" s="20" t="n"/>
+      <c r="S28" s="20" t="n"/>
+      <c r="T28" s="20" t="n"/>
+      <c r="U28" s="8" t="n"/>
+      <c r="V28" s="20" t="n"/>
+      <c r="W28" s="20" t="n"/>
+      <c r="X28" s="20" t="n"/>
+      <c r="Y28" s="20" t="n"/>
+      <c r="Z28" s="20" t="n"/>
+    </row>
+    <row r="29">
+      <c r="D29" s="7" t="n"/>
+      <c r="E29" s="14" t="n"/>
+      <c r="F29" s="15" t="n"/>
+      <c r="G29" s="15" t="n"/>
+      <c r="H29" s="16" t="n"/>
+      <c r="I29" s="8" t="n"/>
+      <c r="J29" s="19" t="inlineStr">
+        <is>
+          <t>Platz 7</t>
+        </is>
+      </c>
+      <c r="K29" s="19" t="n">
+        <v>1411</v>
+      </c>
+      <c r="L29" s="20" t="n"/>
+      <c r="M29" s="19" t="n">
+        <v>188</v>
+      </c>
+      <c r="N29" s="20" t="n"/>
+      <c r="O29" s="8" t="n"/>
+      <c r="P29" s="19" t="inlineStr">
+        <is>
+          <t>Platz 7</t>
+        </is>
+      </c>
+      <c r="Q29" s="19" t="inlineStr">
+        <is>
+          <t>Back Bay / South End Station</t>
+        </is>
+      </c>
+      <c r="R29" s="20" t="n"/>
+      <c r="S29" s="19" t="n">
+        <v>2022</v>
+      </c>
+      <c r="T29" s="20" t="n"/>
+      <c r="U29" s="8" t="n"/>
+      <c r="V29" s="19" t="inlineStr">
+        <is>
+          <t>Platz 7</t>
+        </is>
+      </c>
+      <c r="W29" s="19" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St.</t>
+        </is>
+      </c>
+      <c r="X29" s="20" t="n"/>
+      <c r="Y29" s="19" t="n">
+        <v>1975</v>
+      </c>
+      <c r="Z29" s="20" t="n"/>
+    </row>
+    <row r="30">
+      <c r="D30" s="7" t="n"/>
+      <c r="E30" s="21" t="n">
+        <v>1.855262851725005</v>
+      </c>
+      <c r="I30" s="8" t="n"/>
+      <c r="J30" s="20" t="n"/>
+      <c r="K30" s="20" t="n"/>
+      <c r="L30" s="20" t="n"/>
+      <c r="M30" s="20" t="n"/>
+      <c r="N30" s="20" t="n"/>
+      <c r="O30" s="8" t="n"/>
+      <c r="P30" s="20" t="n"/>
+      <c r="Q30" s="20" t="n"/>
+      <c r="R30" s="20" t="n"/>
+      <c r="S30" s="20" t="n"/>
+      <c r="T30" s="20" t="n"/>
+      <c r="U30" s="8" t="n"/>
+      <c r="V30" s="20" t="n"/>
+      <c r="W30" s="20" t="n"/>
+      <c r="X30" s="20" t="n"/>
+      <c r="Y30" s="20" t="n"/>
+      <c r="Z30" s="20" t="n"/>
+    </row>
+    <row r="31">
+      <c r="D31" s="7" t="n"/>
+      <c r="I31" s="8" t="n"/>
+      <c r="J31" s="19" t="inlineStr">
+        <is>
+          <t>Platz 8</t>
+        </is>
+      </c>
+      <c r="K31" s="19" t="n">
+        <v>1422</v>
+      </c>
+      <c r="L31" s="20" t="n"/>
+      <c r="M31" s="19" t="n">
+        <v>187</v>
+      </c>
+      <c r="N31" s="20" t="n"/>
+      <c r="O31" s="8" t="n"/>
+      <c r="P31" s="19" t="inlineStr">
+        <is>
+          <t>Platz 8</t>
+        </is>
+      </c>
+      <c r="Q31" s="19" t="inlineStr">
+        <is>
+          <t>Lafayette Square at Mass Ave / Main St / Columbia St</t>
+        </is>
+      </c>
+      <c r="R31" s="20" t="n"/>
+      <c r="S31" s="19" t="n">
+        <v>2017</v>
+      </c>
+      <c r="T31" s="20" t="n"/>
+      <c r="U31" s="8" t="n"/>
+      <c r="V31" s="19" t="inlineStr">
+        <is>
+          <t>Platz 8</t>
+        </is>
+      </c>
+      <c r="W31" s="19" t="inlineStr">
+        <is>
+          <t>Lafayette Square at Mass Ave / Main St / Columbia St</t>
+        </is>
+      </c>
+      <c r="X31" s="20" t="n"/>
+      <c r="Y31" s="19" t="n">
+        <v>1931</v>
+      </c>
+      <c r="Z31" s="20" t="n"/>
+    </row>
+    <row r="32">
+      <c r="D32" s="7" t="n"/>
+      <c r="I32" s="8" t="n"/>
+      <c r="J32" s="20" t="n"/>
+      <c r="K32" s="20" t="n"/>
+      <c r="L32" s="20" t="n"/>
+      <c r="M32" s="20" t="n"/>
+      <c r="N32" s="20" t="n"/>
+      <c r="O32" s="8" t="n"/>
+      <c r="P32" s="20" t="n"/>
+      <c r="Q32" s="20" t="n"/>
+      <c r="R32" s="20" t="n"/>
+      <c r="S32" s="20" t="n"/>
+      <c r="T32" s="20" t="n"/>
+      <c r="U32" s="8" t="n"/>
+      <c r="V32" s="20" t="n"/>
+      <c r="W32" s="20" t="n"/>
+      <c r="X32" s="20" t="n"/>
+      <c r="Y32" s="20" t="n"/>
+      <c r="Z32" s="20" t="n"/>
+    </row>
+    <row r="33">
+      <c r="D33" s="7" t="n"/>
+      <c r="I33" s="8" t="n"/>
+      <c r="J33" s="19" t="inlineStr">
+        <is>
+          <t>Platz 9</t>
+        </is>
+      </c>
+      <c r="K33" s="19" t="n">
+        <v>1427</v>
+      </c>
+      <c r="L33" s="20" t="n"/>
+      <c r="M33" s="19" t="n">
+        <v>182</v>
+      </c>
+      <c r="N33" s="20" t="n"/>
+      <c r="O33" s="8" t="n"/>
+      <c r="P33" s="19" t="inlineStr">
+        <is>
+          <t>Platz 9</t>
+        </is>
+      </c>
+      <c r="Q33" s="19" t="inlineStr">
+        <is>
+          <t>Charles Circle - Charles St. at Cambridge St.</t>
+        </is>
+      </c>
+      <c r="R33" s="20" t="n"/>
+      <c r="S33" s="19" t="n">
+        <v>1989</v>
+      </c>
+      <c r="T33" s="20" t="n"/>
+      <c r="U33" s="8" t="n"/>
+      <c r="V33" s="19" t="inlineStr">
+        <is>
+          <t>Platz 9</t>
+        </is>
+      </c>
+      <c r="W33" s="19" t="inlineStr">
+        <is>
+          <t>Back Bay / South End Station</t>
+        </is>
+      </c>
+      <c r="X33" s="20" t="n"/>
+      <c r="Y33" s="19" t="n">
+        <v>1922</v>
+      </c>
+      <c r="Z33" s="20" t="n"/>
+    </row>
+    <row r="34">
+      <c r="D34" s="7" t="n"/>
+      <c r="I34" s="8" t="n"/>
+      <c r="J34" s="20" t="n"/>
+      <c r="K34" s="20" t="n"/>
+      <c r="L34" s="20" t="n"/>
+      <c r="M34" s="20" t="n"/>
+      <c r="N34" s="20" t="n"/>
+      <c r="O34" s="8" t="n"/>
+      <c r="P34" s="20" t="n"/>
+      <c r="Q34" s="20" t="n"/>
+      <c r="R34" s="20" t="n"/>
+      <c r="S34" s="20" t="n"/>
+      <c r="T34" s="20" t="n"/>
+      <c r="U34" s="8" t="n"/>
+      <c r="V34" s="20" t="n"/>
+      <c r="W34" s="20" t="n"/>
+      <c r="X34" s="20" t="n"/>
+      <c r="Y34" s="20" t="n"/>
+      <c r="Z34" s="20" t="n"/>
+    </row>
+    <row r="35">
+      <c r="D35" s="7" t="n"/>
+      <c r="I35" s="8" t="n"/>
+      <c r="J35" s="19" t="inlineStr">
+        <is>
+          <t>Platz 10</t>
+        </is>
+      </c>
+      <c r="K35" s="19" t="n">
+        <v>1424</v>
+      </c>
+      <c r="L35" s="20" t="n"/>
+      <c r="M35" s="19" t="n">
+        <v>181</v>
+      </c>
+      <c r="N35" s="20" t="n"/>
+      <c r="O35" s="8" t="n"/>
+      <c r="P35" s="19" t="inlineStr">
+        <is>
+          <t>Platz 10</t>
+        </is>
+      </c>
+      <c r="Q35" s="19" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St.</t>
+        </is>
+      </c>
+      <c r="R35" s="20" t="n"/>
+      <c r="S35" s="19" t="n">
+        <v>1924</v>
+      </c>
+      <c r="T35" s="20" t="n"/>
+      <c r="U35" s="8" t="n"/>
+      <c r="V35" s="19" t="inlineStr">
+        <is>
+          <t>Platz 10</t>
+        </is>
+      </c>
+      <c r="W35" s="19" t="inlineStr">
+        <is>
+          <t>Charles Circle - Charles St. at Cambridge St.</t>
+        </is>
+      </c>
+      <c r="X35" s="20" t="n"/>
+      <c r="Y35" s="19" t="n">
+        <v>1910</v>
+      </c>
+      <c r="Z35" s="20" t="n"/>
+    </row>
+    <row r="36">
+      <c r="D36" s="7" t="n"/>
+      <c r="E36" s="8" t="n"/>
+      <c r="F36" s="8" t="n"/>
+      <c r="G36" s="8" t="n"/>
+      <c r="H36" s="8" t="n"/>
+      <c r="I36" s="8" t="n"/>
+      <c r="J36" s="20" t="n"/>
+      <c r="K36" s="20" t="n"/>
+      <c r="L36" s="20" t="n"/>
+      <c r="M36" s="20" t="n"/>
+      <c r="N36" s="20" t="n"/>
+      <c r="O36" s="8" t="n"/>
+      <c r="P36" s="20" t="n"/>
+      <c r="Q36" s="20" t="n"/>
+      <c r="R36" s="20" t="n"/>
+      <c r="S36" s="20" t="n"/>
+      <c r="T36" s="20" t="n"/>
+      <c r="U36" s="8" t="n"/>
+      <c r="V36" s="20" t="n"/>
+      <c r="W36" s="20" t="n"/>
+      <c r="X36" s="20" t="n"/>
+      <c r="Y36" s="20" t="n"/>
+      <c r="Z36" s="20" t="n"/>
+    </row>
+    <row r="37">
+      <c r="D37" s="7" t="n"/>
+      <c r="E37" s="8" t="n"/>
+      <c r="F37" s="8" t="n"/>
+      <c r="G37" s="8" t="n"/>
+      <c r="H37" s="8" t="n"/>
+      <c r="I37" s="8" t="n"/>
+      <c r="J37" s="8" t="n"/>
+      <c r="K37" s="8" t="n"/>
+      <c r="L37" s="8" t="n"/>
+      <c r="M37" s="8" t="n"/>
+      <c r="N37" s="8" t="n"/>
+      <c r="O37" s="8" t="n"/>
+      <c r="P37" s="8" t="n"/>
+      <c r="Q37" s="8" t="n"/>
+      <c r="R37" s="8" t="n"/>
+      <c r="S37" s="8" t="n"/>
+      <c r="T37" s="8" t="n"/>
+      <c r="U37" s="8" t="n"/>
+      <c r="V37" s="8" t="n"/>
+      <c r="W37" s="8" t="n"/>
+      <c r="X37" s="8" t="n"/>
+      <c r="Y37" s="9" t="n"/>
+    </row>
+    <row r="38">
+      <c r="D38" s="7" t="n"/>
+      <c r="E38" s="8" t="n"/>
+      <c r="F38" s="8" t="n"/>
+      <c r="G38" s="8" t="n"/>
+      <c r="H38" s="8" t="n"/>
+      <c r="I38" s="8" t="n"/>
+      <c r="J38" s="8" t="n"/>
+      <c r="K38" s="8" t="n"/>
+      <c r="L38" s="8" t="n"/>
+      <c r="M38" s="8" t="n"/>
+      <c r="N38" s="8" t="n"/>
+      <c r="O38" s="8" t="n"/>
+      <c r="P38" s="8" t="n"/>
+      <c r="Q38" s="8" t="n"/>
+      <c r="R38" s="8" t="n"/>
+      <c r="S38" s="8" t="n"/>
+      <c r="T38" s="8" t="n"/>
+      <c r="U38" s="8" t="n"/>
+      <c r="V38" s="8" t="n"/>
+      <c r="W38" s="8" t="n"/>
+      <c r="X38" s="8" t="n"/>
+      <c r="Y38" s="9" t="n"/>
+    </row>
+    <row r="39">
+      <c r="D39" s="7" t="n"/>
+      <c r="E39" s="8" t="n"/>
+      <c r="F39" s="8" t="n"/>
+      <c r="G39" s="8" t="n"/>
+      <c r="H39" s="8" t="n"/>
+      <c r="I39" s="8" t="n"/>
+      <c r="J39" s="8" t="n"/>
+      <c r="K39" s="8" t="n"/>
+      <c r="L39" s="8" t="n"/>
+      <c r="M39" s="8" t="n"/>
+      <c r="N39" s="8" t="n"/>
+      <c r="O39" s="8" t="n"/>
+      <c r="P39" s="8" t="n"/>
+      <c r="Q39" s="8" t="n"/>
+      <c r="R39" s="8" t="n"/>
+      <c r="S39" s="8" t="n"/>
+      <c r="T39" s="8" t="n"/>
+      <c r="U39" s="8" t="n"/>
+      <c r="V39" s="8" t="n"/>
+      <c r="W39" s="8" t="n"/>
+      <c r="X39" s="8" t="n"/>
+      <c r="Y39" s="9" t="n"/>
+    </row>
+    <row r="40">
+      <c r="D40" s="7" t="n"/>
+      <c r="E40" s="8" t="n"/>
+      <c r="F40" s="8" t="n"/>
+      <c r="G40" s="8" t="n"/>
+      <c r="H40" s="8" t="n"/>
+      <c r="I40" s="8" t="n"/>
+      <c r="J40" s="8" t="n"/>
+      <c r="K40" s="8" t="n"/>
+      <c r="L40" s="8" t="n"/>
+      <c r="M40" s="8" t="n"/>
+      <c r="N40" s="8" t="n"/>
+      <c r="O40" s="8" t="n"/>
+      <c r="P40" s="8" t="n"/>
+      <c r="Q40" s="8" t="n"/>
+      <c r="R40" s="8" t="n"/>
+      <c r="S40" s="8" t="n"/>
+      <c r="T40" s="8" t="n"/>
+      <c r="U40" s="8" t="n"/>
+      <c r="V40" s="8" t="n"/>
+      <c r="W40" s="8" t="n"/>
+      <c r="X40" s="8" t="n"/>
+      <c r="Y40" s="9" t="n"/>
+    </row>
+    <row r="41">
+      <c r="D41" s="7" t="n"/>
+      <c r="E41" s="8" t="n"/>
+      <c r="F41" s="8" t="n"/>
+      <c r="G41" s="8" t="n"/>
+      <c r="H41" s="8" t="n"/>
+      <c r="I41" s="8" t="n"/>
+      <c r="J41" s="8" t="n"/>
+      <c r="K41" s="8" t="n"/>
+      <c r="L41" s="8" t="n"/>
+      <c r="M41" s="8" t="n"/>
+      <c r="N41" s="8" t="n"/>
+      <c r="O41" s="8" t="n"/>
+      <c r="P41" s="8" t="n"/>
+      <c r="Q41" s="8" t="n"/>
+      <c r="R41" s="8" t="n"/>
+      <c r="S41" s="8" t="n"/>
+      <c r="T41" s="8" t="n"/>
+      <c r="U41" s="8" t="n"/>
+      <c r="V41" s="8" t="n"/>
+      <c r="W41" s="8" t="n"/>
+      <c r="X41" s="8" t="n"/>
+      <c r="Y41" s="9" t="n"/>
+    </row>
+    <row r="42">
+      <c r="D42" s="7" t="n"/>
+      <c r="E42" s="8" t="n"/>
+      <c r="F42" s="8" t="n"/>
+      <c r="G42" s="8" t="n"/>
+      <c r="H42" s="8" t="n"/>
+      <c r="I42" s="8" t="n"/>
+      <c r="J42" s="8" t="n"/>
+      <c r="K42" s="8" t="n"/>
+      <c r="L42" s="8" t="n"/>
+      <c r="M42" s="8" t="n"/>
+      <c r="N42" s="8" t="n"/>
+      <c r="O42" s="8" t="n"/>
+      <c r="P42" s="8" t="n"/>
+      <c r="Q42" s="8" t="n"/>
+      <c r="R42" s="8" t="n"/>
+      <c r="S42" s="8" t="n"/>
+      <c r="T42" s="8" t="n"/>
+      <c r="U42" s="8" t="n"/>
+      <c r="V42" s="8" t="n"/>
+      <c r="W42" s="8" t="n"/>
+      <c r="X42" s="8" t="n"/>
+      <c r="Y42" s="9" t="n"/>
+    </row>
+    <row r="43">
+      <c r="D43" s="7" t="n"/>
+      <c r="E43" s="8" t="n"/>
+      <c r="F43" s="8" t="n"/>
+      <c r="G43" s="8" t="n"/>
+      <c r="H43" s="8" t="n"/>
+      <c r="I43" s="8" t="n"/>
+      <c r="J43" s="8" t="n"/>
+      <c r="K43" s="8" t="n"/>
+      <c r="L43" s="8" t="n"/>
+      <c r="M43" s="8" t="n"/>
+      <c r="N43" s="8" t="n"/>
+      <c r="O43" s="8" t="n"/>
+      <c r="P43" s="8" t="n"/>
+      <c r="Q43" s="8" t="n"/>
+      <c r="R43" s="8" t="n"/>
+      <c r="S43" s="8" t="n"/>
+      <c r="T43" s="8" t="n"/>
+      <c r="U43" s="8" t="n"/>
+      <c r="V43" s="8" t="n"/>
+      <c r="W43" s="8" t="n"/>
+      <c r="X43" s="8" t="n"/>
+      <c r="Y43" s="9" t="n"/>
+    </row>
+    <row r="44">
+      <c r="D44" s="7" t="n"/>
+      <c r="E44" s="8" t="n"/>
+      <c r="F44" s="8" t="n"/>
+      <c r="G44" s="8" t="n"/>
+      <c r="H44" s="8" t="n"/>
+      <c r="I44" s="8" t="n"/>
+      <c r="J44" s="8" t="n"/>
+      <c r="K44" s="8" t="n"/>
+      <c r="L44" s="8" t="n"/>
+      <c r="M44" s="8" t="n"/>
+      <c r="N44" s="8" t="n"/>
+      <c r="O44" s="8" t="n"/>
+      <c r="P44" s="8" t="n"/>
+      <c r="Q44" s="8" t="n"/>
+      <c r="R44" s="8" t="n"/>
+      <c r="S44" s="8" t="n"/>
+      <c r="T44" s="8" t="n"/>
+      <c r="U44" s="8" t="n"/>
+      <c r="V44" s="8" t="n"/>
+      <c r="W44" s="8" t="n"/>
+      <c r="X44" s="8" t="n"/>
+      <c r="Y44" s="9" t="n"/>
+    </row>
+    <row r="45">
+      <c r="D45" s="7" t="n"/>
+      <c r="E45" s="8" t="n"/>
+      <c r="F45" s="8" t="n"/>
+      <c r="G45" s="8" t="n"/>
+      <c r="H45" s="8" t="n"/>
+      <c r="I45" s="8" t="n"/>
+      <c r="J45" s="8" t="n"/>
+      <c r="K45" s="8" t="n"/>
+      <c r="L45" s="8" t="n"/>
+      <c r="M45" s="8" t="n"/>
+      <c r="N45" s="8" t="n"/>
+      <c r="O45" s="8" t="n"/>
+      <c r="P45" s="8" t="n"/>
+      <c r="Q45" s="8" t="n"/>
+      <c r="R45" s="8" t="n"/>
+      <c r="S45" s="8" t="n"/>
+      <c r="T45" s="8" t="n"/>
+      <c r="U45" s="8" t="n"/>
+      <c r="V45" s="8" t="n"/>
+      <c r="W45" s="8" t="n"/>
+      <c r="X45" s="8" t="n"/>
+      <c r="Y45" s="9" t="n"/>
+    </row>
+    <row r="46">
+      <c r="D46" s="7" t="n"/>
+      <c r="E46" s="8" t="n"/>
+      <c r="F46" s="8" t="n"/>
+      <c r="G46" s="8" t="n"/>
+      <c r="H46" s="8" t="n"/>
+      <c r="I46" s="8" t="n"/>
+      <c r="J46" s="8" t="n"/>
+      <c r="K46" s="8" t="n"/>
+      <c r="L46" s="8" t="n"/>
+      <c r="M46" s="8" t="n"/>
+      <c r="N46" s="8" t="n"/>
+      <c r="O46" s="8" t="n"/>
+      <c r="P46" s="8" t="n"/>
+      <c r="Q46" s="8" t="n"/>
+      <c r="R46" s="8" t="n"/>
+      <c r="S46" s="8" t="n"/>
+      <c r="T46" s="8" t="n"/>
+      <c r="U46" s="8" t="n"/>
+      <c r="V46" s="8" t="n"/>
+      <c r="W46" s="8" t="n"/>
+      <c r="X46" s="8" t="n"/>
+      <c r="Y46" s="9" t="n"/>
+    </row>
+    <row r="47">
+      <c r="D47" s="7" t="n"/>
+      <c r="E47" s="8" t="n"/>
+      <c r="F47" s="8" t="n"/>
+      <c r="G47" s="8" t="n"/>
+      <c r="H47" s="8" t="n"/>
+      <c r="I47" s="8" t="n"/>
+      <c r="J47" s="8" t="n"/>
+      <c r="K47" s="8" t="n"/>
+      <c r="L47" s="8" t="n"/>
+      <c r="M47" s="8" t="n"/>
+      <c r="N47" s="8" t="n"/>
+      <c r="O47" s="8" t="n"/>
+      <c r="P47" s="8" t="n"/>
+      <c r="Q47" s="8" t="n"/>
+      <c r="R47" s="8" t="n"/>
+      <c r="S47" s="8" t="n"/>
+      <c r="T47" s="8" t="n"/>
+      <c r="U47" s="8" t="n"/>
+      <c r="V47" s="8" t="n"/>
+      <c r="W47" s="8" t="n"/>
+      <c r="X47" s="8" t="n"/>
+      <c r="Y47" s="9" t="n"/>
+    </row>
+    <row r="48">
+      <c r="D48" s="7" t="n"/>
+      <c r="E48" s="8" t="n"/>
+      <c r="F48" s="8" t="n"/>
+      <c r="G48" s="8" t="n"/>
+      <c r="H48" s="8" t="n"/>
+      <c r="I48" s="8" t="n"/>
+      <c r="J48" s="8" t="n"/>
+      <c r="K48" s="8" t="n"/>
+      <c r="L48" s="8" t="n"/>
+      <c r="M48" s="8" t="n"/>
+      <c r="N48" s="8" t="n"/>
+      <c r="O48" s="8" t="n"/>
+      <c r="P48" s="8" t="n"/>
+      <c r="Q48" s="8" t="n"/>
+      <c r="R48" s="8" t="n"/>
+      <c r="S48" s="8" t="n"/>
+      <c r="T48" s="8" t="n"/>
+      <c r="U48" s="8" t="n"/>
+      <c r="V48" s="8" t="n"/>
+      <c r="W48" s="8" t="n"/>
+      <c r="X48" s="8" t="n"/>
+      <c r="Y48" s="9" t="n"/>
+    </row>
+    <row r="49">
+      <c r="D49" s="7" t="n"/>
+      <c r="E49" s="8" t="n"/>
+      <c r="F49" s="8" t="n"/>
+      <c r="G49" s="8" t="n"/>
+      <c r="H49" s="8" t="n"/>
+      <c r="I49" s="8" t="n"/>
+      <c r="J49" s="8" t="n"/>
+      <c r="K49" s="8" t="n"/>
+      <c r="L49" s="8" t="n"/>
+      <c r="M49" s="8" t="n"/>
+      <c r="N49" s="8" t="n"/>
+      <c r="O49" s="8" t="n"/>
+      <c r="P49" s="8" t="n"/>
+      <c r="Q49" s="8" t="n"/>
+      <c r="R49" s="8" t="n"/>
+      <c r="S49" s="8" t="n"/>
+      <c r="T49" s="8" t="n"/>
+      <c r="U49" s="8" t="n"/>
+      <c r="V49" s="8" t="n"/>
+      <c r="W49" s="8" t="n"/>
+      <c r="X49" s="8" t="n"/>
+      <c r="Y49" s="9" t="n"/>
+    </row>
+    <row r="50">
+      <c r="D50" s="7" t="n"/>
+      <c r="E50" s="8" t="n"/>
+      <c r="F50" s="8" t="n"/>
+      <c r="G50" s="8" t="n"/>
+      <c r="H50" s="8" t="n"/>
+      <c r="I50" s="8" t="n"/>
+      <c r="J50" s="8" t="n"/>
+      <c r="K50" s="8" t="n"/>
+      <c r="L50" s="8" t="n"/>
+      <c r="M50" s="8" t="n"/>
+      <c r="N50" s="8" t="n"/>
+      <c r="O50" s="8" t="n"/>
+      <c r="P50" s="8" t="n"/>
+      <c r="Q50" s="8" t="n"/>
+      <c r="R50" s="8" t="n"/>
+      <c r="S50" s="8" t="n"/>
+      <c r="T50" s="8" t="n"/>
+      <c r="U50" s="8" t="n"/>
+      <c r="V50" s="8" t="n"/>
+      <c r="W50" s="8" t="n"/>
+      <c r="X50" s="8" t="n"/>
+      <c r="Y50" s="9" t="n"/>
+    </row>
+    <row r="51">
+      <c r="D51" s="7" t="n"/>
+      <c r="E51" s="8" t="n"/>
+      <c r="F51" s="8" t="n"/>
+      <c r="G51" s="8" t="n"/>
+      <c r="H51" s="8" t="n"/>
+      <c r="I51" s="8" t="n"/>
+      <c r="J51" s="8" t="n"/>
+      <c r="K51" s="8" t="n"/>
+      <c r="L51" s="8" t="n"/>
+      <c r="M51" s="8" t="n"/>
+      <c r="N51" s="8" t="n"/>
+      <c r="O51" s="8" t="n"/>
+      <c r="P51" s="8" t="n"/>
+      <c r="Q51" s="8" t="n"/>
+      <c r="R51" s="8" t="n"/>
+      <c r="S51" s="8" t="n"/>
+      <c r="T51" s="8" t="n"/>
+      <c r="U51" s="8" t="n"/>
+      <c r="V51" s="8" t="n"/>
+      <c r="W51" s="8" t="n"/>
+      <c r="X51" s="8" t="n"/>
+      <c r="Y51" s="9" t="n"/>
+    </row>
+    <row r="52">
+      <c r="D52" s="7" t="n"/>
+      <c r="E52" s="8" t="n"/>
+      <c r="F52" s="8" t="n"/>
+      <c r="G52" s="8" t="n"/>
+      <c r="H52" s="8" t="n"/>
+      <c r="I52" s="8" t="n"/>
+      <c r="J52" s="8" t="n"/>
+      <c r="K52" s="8" t="n"/>
+      <c r="L52" s="8" t="n"/>
+      <c r="M52" s="8" t="n"/>
+      <c r="N52" s="8" t="n"/>
+      <c r="O52" s="8" t="n"/>
+      <c r="P52" s="8" t="n"/>
+      <c r="Q52" s="8" t="n"/>
+      <c r="R52" s="8" t="n"/>
+      <c r="S52" s="8" t="n"/>
+      <c r="T52" s="8" t="n"/>
+      <c r="U52" s="8" t="n"/>
+      <c r="V52" s="8" t="n"/>
+      <c r="W52" s="8" t="n"/>
+      <c r="X52" s="8" t="n"/>
+      <c r="Y52" s="9" t="n"/>
+    </row>
+    <row r="53">
+      <c r="D53" s="7" t="n"/>
+      <c r="E53" s="8" t="n"/>
+      <c r="F53" s="8" t="n"/>
+      <c r="G53" s="8" t="n"/>
+      <c r="H53" s="8" t="n"/>
+      <c r="I53" s="8" t="n"/>
+      <c r="J53" s="8" t="n"/>
+      <c r="K53" s="8" t="n"/>
+      <c r="L53" s="8" t="n"/>
+      <c r="M53" s="8" t="n"/>
+      <c r="N53" s="8" t="n"/>
+      <c r="O53" s="8" t="n"/>
+      <c r="P53" s="8" t="n"/>
+      <c r="Q53" s="8" t="n"/>
+      <c r="R53" s="8" t="n"/>
+      <c r="S53" s="8" t="n"/>
+      <c r="T53" s="8" t="n"/>
+      <c r="U53" s="8" t="n"/>
+      <c r="V53" s="8" t="n"/>
+      <c r="W53" s="8" t="n"/>
+      <c r="X53" s="8" t="n"/>
+      <c r="Y53" s="9" t="n"/>
+    </row>
+    <row r="54">
+      <c r="D54" s="7" t="n"/>
+      <c r="E54" s="8" t="n"/>
+      <c r="F54" s="8" t="n"/>
+      <c r="G54" s="8" t="n"/>
+      <c r="H54" s="8" t="n"/>
+      <c r="I54" s="8" t="n"/>
+      <c r="J54" s="8" t="n"/>
+      <c r="K54" s="8" t="n"/>
+      <c r="L54" s="8" t="n"/>
+      <c r="M54" s="8" t="n"/>
+      <c r="N54" s="8" t="n"/>
+      <c r="O54" s="8" t="n"/>
+      <c r="P54" s="8" t="n"/>
+      <c r="Q54" s="8" t="n"/>
+      <c r="R54" s="8" t="n"/>
+      <c r="S54" s="8" t="n"/>
+      <c r="T54" s="8" t="n"/>
+      <c r="U54" s="8" t="n"/>
+      <c r="V54" s="8" t="n"/>
+      <c r="W54" s="8" t="n"/>
+      <c r="X54" s="8" t="n"/>
+      <c r="Y54" s="9" t="n"/>
+    </row>
+    <row r="55">
+      <c r="D55" s="7" t="n"/>
+      <c r="E55" s="8" t="n"/>
+      <c r="F55" s="8" t="n"/>
+      <c r="G55" s="8" t="n"/>
+      <c r="H55" s="8" t="n"/>
+      <c r="I55" s="8" t="n"/>
+      <c r="J55" s="8" t="n"/>
+      <c r="K55" s="8" t="n"/>
+      <c r="L55" s="8" t="n"/>
+      <c r="M55" s="8" t="n"/>
+      <c r="N55" s="8" t="n"/>
+      <c r="O55" s="8" t="n"/>
+      <c r="P55" s="8" t="n"/>
+      <c r="Q55" s="8" t="n"/>
+      <c r="R55" s="8" t="n"/>
+      <c r="S55" s="8" t="n"/>
+      <c r="T55" s="8" t="n"/>
+      <c r="U55" s="8" t="n"/>
+      <c r="V55" s="8" t="n"/>
+      <c r="W55" s="8" t="n"/>
+      <c r="X55" s="8" t="n"/>
+      <c r="Y55" s="9" t="n"/>
+    </row>
+    <row r="56">
+      <c r="D56" s="7" t="n"/>
+      <c r="E56" s="8" t="n"/>
+      <c r="F56" s="8" t="n"/>
+      <c r="G56" s="8" t="n"/>
+      <c r="H56" s="8" t="n"/>
+      <c r="I56" s="8" t="n"/>
+      <c r="J56" s="8" t="n"/>
+      <c r="K56" s="8" t="n"/>
+      <c r="L56" s="8" t="n"/>
+      <c r="M56" s="8" t="n"/>
+      <c r="N56" s="8" t="n"/>
+      <c r="O56" s="8" t="n"/>
+      <c r="P56" s="8" t="n"/>
+      <c r="Q56" s="8" t="n"/>
+      <c r="R56" s="8" t="n"/>
+      <c r="S56" s="8" t="n"/>
+      <c r="T56" s="8" t="n"/>
+      <c r="U56" s="8" t="n"/>
+      <c r="V56" s="8" t="n"/>
+      <c r="W56" s="8" t="n"/>
+      <c r="X56" s="8" t="n"/>
+      <c r="Y56" s="9" t="n"/>
+    </row>
+    <row r="57">
+      <c r="D57" s="7" t="n"/>
+      <c r="E57" s="8" t="n"/>
+      <c r="F57" s="8" t="n"/>
+      <c r="G57" s="8" t="n"/>
+      <c r="H57" s="8" t="n"/>
+      <c r="I57" s="8" t="n"/>
+      <c r="J57" s="8" t="n"/>
+      <c r="K57" s="8" t="n"/>
+      <c r="L57" s="8" t="n"/>
+      <c r="M57" s="8" t="n"/>
+      <c r="N57" s="8" t="n"/>
+      <c r="O57" s="8" t="n"/>
+      <c r="P57" s="8" t="n"/>
+      <c r="Q57" s="8" t="n"/>
+      <c r="R57" s="8" t="n"/>
+      <c r="S57" s="8" t="n"/>
+      <c r="T57" s="8" t="n"/>
+      <c r="U57" s="8" t="n"/>
+      <c r="V57" s="8" t="n"/>
+      <c r="W57" s="8" t="n"/>
+      <c r="X57" s="8" t="n"/>
+      <c r="Y57" s="9" t="n"/>
+    </row>
+    <row r="58">
+      <c r="D58" s="7" t="n"/>
+      <c r="E58" s="8" t="n"/>
+      <c r="F58" s="8" t="n"/>
+      <c r="G58" s="8" t="n"/>
+      <c r="H58" s="8" t="n"/>
+      <c r="I58" s="8" t="n"/>
+      <c r="J58" s="8" t="n"/>
+      <c r="K58" s="8" t="n"/>
+      <c r="L58" s="8" t="n"/>
+      <c r="M58" s="8" t="n"/>
+      <c r="N58" s="8" t="n"/>
+      <c r="O58" s="8" t="n"/>
+      <c r="P58" s="8" t="n"/>
+      <c r="Q58" s="8" t="n"/>
+      <c r="R58" s="8" t="n"/>
+      <c r="S58" s="8" t="n"/>
+      <c r="T58" s="8" t="n"/>
+      <c r="U58" s="8" t="n"/>
+      <c r="V58" s="8" t="n"/>
+      <c r="W58" s="8" t="n"/>
+      <c r="X58" s="8" t="n"/>
+      <c r="Y58" s="9" t="n"/>
+    </row>
+    <row r="59">
+      <c r="D59" s="7" t="n"/>
+      <c r="E59" s="8" t="n"/>
+      <c r="F59" s="8" t="n"/>
+      <c r="G59" s="8" t="n"/>
+      <c r="H59" s="8" t="n"/>
+      <c r="I59" s="8" t="n"/>
+      <c r="J59" s="8" t="n"/>
+      <c r="K59" s="8" t="n"/>
+      <c r="L59" s="8" t="n"/>
+      <c r="M59" s="8" t="n"/>
+      <c r="N59" s="8" t="n"/>
+      <c r="O59" s="8" t="n"/>
+      <c r="P59" s="8" t="n"/>
+      <c r="Q59" s="8" t="n"/>
+      <c r="R59" s="8" t="n"/>
+      <c r="S59" s="8" t="n"/>
+      <c r="T59" s="8" t="n"/>
+      <c r="U59" s="8" t="n"/>
+      <c r="V59" s="8" t="n"/>
+      <c r="W59" s="8" t="n"/>
+      <c r="X59" s="8" t="n"/>
+      <c r="Y59" s="9" t="n"/>
+    </row>
+    <row r="60">
+      <c r="D60" s="7" t="n"/>
+      <c r="E60" s="8" t="n"/>
+      <c r="F60" s="8" t="n"/>
+      <c r="G60" s="8" t="n"/>
+      <c r="H60" s="8" t="n"/>
+      <c r="I60" s="8" t="n"/>
+      <c r="J60" s="8" t="n"/>
+      <c r="K60" s="8" t="n"/>
+      <c r="L60" s="8" t="n"/>
+      <c r="M60" s="8" t="n"/>
+      <c r="N60" s="8" t="n"/>
+      <c r="O60" s="8" t="n"/>
+      <c r="P60" s="8" t="n"/>
+      <c r="Q60" s="8" t="n"/>
+      <c r="R60" s="8" t="n"/>
+      <c r="S60" s="8" t="n"/>
+      <c r="T60" s="8" t="n"/>
+      <c r="U60" s="8" t="n"/>
+      <c r="V60" s="8" t="n"/>
+      <c r="W60" s="8" t="n"/>
+      <c r="X60" s="8" t="n"/>
+      <c r="Y60" s="9" t="n"/>
+    </row>
+    <row r="61">
+      <c r="D61" s="7" t="n"/>
+      <c r="E61" s="8" t="n"/>
+      <c r="F61" s="8" t="n"/>
+      <c r="G61" s="8" t="n"/>
+      <c r="H61" s="8" t="n"/>
+      <c r="I61" s="8" t="n"/>
+      <c r="J61" s="8" t="n"/>
+      <c r="K61" s="8" t="n"/>
+      <c r="L61" s="8" t="n"/>
+      <c r="M61" s="8" t="n"/>
+      <c r="N61" s="8" t="n"/>
+      <c r="O61" s="8" t="n"/>
+      <c r="P61" s="8" t="n"/>
+      <c r="Q61" s="8" t="n"/>
+      <c r="R61" s="8" t="n"/>
+      <c r="S61" s="8" t="n"/>
+      <c r="T61" s="8" t="n"/>
+      <c r="U61" s="8" t="n"/>
+      <c r="V61" s="8" t="n"/>
+      <c r="W61" s="8" t="n"/>
+      <c r="X61" s="8" t="n"/>
+      <c r="Y61" s="9" t="n"/>
+    </row>
+    <row r="62">
+      <c r="D62" s="14" t="n"/>
+      <c r="E62" s="15" t="n"/>
+      <c r="F62" s="15" t="n"/>
+      <c r="G62" s="15" t="n"/>
+      <c r="H62" s="15" t="n"/>
+      <c r="I62" s="15" t="n"/>
+      <c r="J62" s="15" t="n"/>
+      <c r="K62" s="15" t="n"/>
+      <c r="L62" s="15" t="n"/>
+      <c r="M62" s="15" t="n"/>
+      <c r="N62" s="15" t="n"/>
+      <c r="O62" s="15" t="n"/>
+      <c r="P62" s="15" t="n"/>
+      <c r="Q62" s="15" t="n"/>
+      <c r="R62" s="15" t="n"/>
+      <c r="S62" s="15" t="n"/>
+      <c r="T62" s="15" t="n"/>
+      <c r="U62" s="15" t="n"/>
+      <c r="V62" s="15" t="n"/>
+      <c r="W62" s="15" t="n"/>
+      <c r="X62" s="15" t="n"/>
+      <c r="Y62" s="16" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K6:N8"/>
-    <mergeCell ref="G6:J8"/>
-    <mergeCell ref="C3:M4"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C6:F8"/>
-    <mergeCell ref="S10:W10"/>
+  <mergeCells count="105">
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="M25:N26"/>
+    <mergeCell ref="Q15:R16"/>
+    <mergeCell ref="Y31:Z32"/>
+    <mergeCell ref="W19:X20"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="V31:V32"/>
+    <mergeCell ref="K27:L28"/>
+    <mergeCell ref="Q19:R20"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Y15:Z16"/>
+    <mergeCell ref="K29:L30"/>
+    <mergeCell ref="W17:X18"/>
+    <mergeCell ref="W33:X34"/>
+    <mergeCell ref="S23:T24"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="K31:L32"/>
+    <mergeCell ref="Y19:Z20"/>
+    <mergeCell ref="E15:H18"/>
+    <mergeCell ref="S27:T28"/>
+    <mergeCell ref="M19:N20"/>
+    <mergeCell ref="V21:V22"/>
+    <mergeCell ref="W11:Z12"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="S31:T32"/>
+    <mergeCell ref="V35:V36"/>
+    <mergeCell ref="K19:L20"/>
+    <mergeCell ref="S17:T18"/>
+    <mergeCell ref="S33:T34"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="S15:T16"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W25:X26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="W35:X36"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="S19:T20"/>
+    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="K33:L34"/>
+    <mergeCell ref="S25:T26"/>
+    <mergeCell ref="W29:X30"/>
+    <mergeCell ref="Q35:R36"/>
+    <mergeCell ref="W31:X32"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="K11:N12"/>
+    <mergeCell ref="M23:N24"/>
+    <mergeCell ref="Y35:Z36"/>
+    <mergeCell ref="M29:N30"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="W15:X16"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="M35:N36"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="M31:N32"/>
+    <mergeCell ref="W21:X22"/>
+    <mergeCell ref="Q11:T12"/>
+    <mergeCell ref="K35:L36"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="M15:N16"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="E19:H24"/>
+    <mergeCell ref="V33:V34"/>
+    <mergeCell ref="M21:N22"/>
+    <mergeCell ref="S35:T36"/>
+    <mergeCell ref="M17:N18"/>
+    <mergeCell ref="M33:N34"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="K25:L26"/>
+    <mergeCell ref="Q29:R30"/>
+    <mergeCell ref="S29:T30"/>
+    <mergeCell ref="Y17:Z18"/>
+    <mergeCell ref="Y33:Z34"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="Y29:Z30"/>
+    <mergeCell ref="E26:H29"/>
+    <mergeCell ref="Q17:R18"/>
+    <mergeCell ref="Q33:R34"/>
+    <mergeCell ref="Q23:R24"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="E30:H35"/>
+    <mergeCell ref="Y25:Z26"/>
+    <mergeCell ref="Q27:R28"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="Y23:Z24"/>
+    <mergeCell ref="Q25:R26"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="Q21:R22"/>
+    <mergeCell ref="S21:T22"/>
+    <mergeCell ref="D5:Y6"/>
+    <mergeCell ref="Q31:R32"/>
+    <mergeCell ref="Y27:Z28"/>
+    <mergeCell ref="E8:H13"/>
+    <mergeCell ref="M27:N28"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="V29:V30"/>
+    <mergeCell ref="Y21:Z22"/>
+    <mergeCell ref="V17:V18"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>